--- a/documents/latent_vector/reinforce_gan_enc.xlsx
+++ b/documents/latent_vector/reinforce_gan_enc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7502023577690125</v>
+        <v>1.452219724655151</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1078010052442551</v>
+        <v>2.292577981948853</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.154572531580925</v>
+        <v>0.5906578898429871</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.06209511309862137</v>
+        <v>1.906499624252319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1331424862146378</v>
+        <v>1.761510372161865</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1871490180492401</v>
+        <v>0.6041887998580933</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8037763237953186</v>
+        <v>2.028679370880127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02621773444116116</v>
+        <v>1.299238801002502</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1157278046011925</v>
+        <v>0.6623044013977051</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.483653545379639</v>
+        <v>1.14860725402832</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4071053266525269</v>
+        <v>1.370346188545227</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6755210757255554</v>
+        <v>0.3728335499763489</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.904453635215759</v>
+        <v>1.563332557678223</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002397974254563451</v>
+        <v>1.424723029136658</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07629137486219406</v>
+        <v>0.4574080109596252</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.044904708862305</v>
+        <v>1.568092226982117</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07405541837215424</v>
+        <v>1.870636463165283</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1072298362851143</v>
+        <v>0.8867492079734802</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.396692752838135</v>
+        <v>1.821069598197937</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2913197875022888</v>
+        <v>2.208387613296509</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4196043610572815</v>
+        <v>0.5815955996513367</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.49972403049469</v>
+        <v>1.621874332427979</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01020984817296267</v>
+        <v>1.976940035820007</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09882765263319016</v>
+        <v>0.7874099612236023</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.596784830093384</v>
+        <v>1.447607159614563</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05518173053860664</v>
+        <v>1.963410377502441</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2138012647628784</v>
+        <v>0.6176448464393616</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.482560634613037</v>
+        <v>0.577168345451355</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.412203907966614</v>
+        <v>0.7820545434951782</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.378115892410278</v>
+        <v>0.3216902911663055</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.467545032501221</v>
+        <v>1.214307188987732</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08696075528860092</v>
+        <v>1.876055836677551</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0837419331073761</v>
+        <v>0.2478211969137192</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.456682205200195</v>
+        <v>1.547178268432617</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1694804579019547</v>
+        <v>2.61921501159668</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2621224820613861</v>
+        <v>0.4767851829528809</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.652221918106079</v>
+        <v>1.875303506851196</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05353043600916862</v>
+        <v>1.982285380363464</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04494401067495346</v>
+        <v>0.4807420074939728</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.098210215568542</v>
+        <v>2.033086061477661</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3899207413196564</v>
+        <v>0.9218889474868774</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4949468374252319</v>
+        <v>0.4756359159946442</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.667200565338135</v>
+        <v>2.004268884658813</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3686684370040894</v>
+        <v>1.361968278884888</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.553307056427002</v>
+        <v>1.035267949104309</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.687265634536743</v>
+        <v>1.352166891098022</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.146201372146606</v>
+        <v>0.8616863489151001</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.761393547058105</v>
+        <v>0.4613111019134521</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.18166983127594</v>
+        <v>1.299124002456665</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02855073474347591</v>
+        <v>1.160630583763123</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2139095813035965</v>
+        <v>0.3881594836711884</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.314613938331604</v>
+        <v>1.749682307243347</v>
       </c>
       <c r="C19" t="n">
-        <v>0.133459210395813</v>
+        <v>2.242546081542969</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4648168981075287</v>
+        <v>1.348334908485413</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.749771356582642</v>
+        <v>1.213286280632019</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.022430300712585</v>
+        <v>1.062878370285034</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.63932466506958</v>
+        <v>0.5836842656135559</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.499712228775024</v>
+        <v>1.357110023498535</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.03810059651732445</v>
+        <v>1.689448595046997</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01085907872766256</v>
+        <v>0.1486820876598358</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.117930173873901</v>
+        <v>0.9851104617118835</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.7374532222747803</v>
+        <v>1.156883835792542</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.223825693130493</v>
+        <v>0.2402195036411285</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.315434813499451</v>
+        <v>1.420185804367065</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2485279589891434</v>
+        <v>2.115880012512207</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4564880132675171</v>
+        <v>0.2480609267950058</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.6086458563804626</v>
+        <v>1.096008658409119</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02179932035505772</v>
+        <v>1.381919741630554</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01724019087851048</v>
+        <v>0.3368125557899475</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9222713112831116</v>
+        <v>1.225562214851379</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.06939950585365295</v>
+        <v>1.683303713798523</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1274154186248779</v>
+        <v>0.6295597553253174</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.559361815452576</v>
+        <v>1.210460543632507</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.7817510366439819</v>
+        <v>1.194124817848206</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.345227241516113</v>
+        <v>0.972978949546814</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-4.472746849060059</v>
+        <v>0.9980164170265198</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.250722408294678</v>
+        <v>1.554516553878784</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.772534370422363</v>
+        <v>1.050429940223694</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.147438764572144</v>
+        <v>1.422649383544922</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1597644984722137</v>
+        <v>1.156341075897217</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2853323817253113</v>
+        <v>0.6787645220756531</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.138455986976624</v>
+        <v>1.742087364196777</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0153691666200757</v>
+        <v>1.335090160369873</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1165690347552299</v>
+        <v>0.9785414934158325</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.6844508051872253</v>
+        <v>1.791930913925171</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08073119074106216</v>
+        <v>1.601128458976746</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2718862593173981</v>
+        <v>0.5789986252784729</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.037870287895203</v>
+        <v>1.293527960777283</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.02822084166109562</v>
+        <v>1.131566643714905</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1082804426550865</v>
+        <v>0.5276854634284973</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.884885668754578</v>
+        <v>2.133047342300415</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.05013121291995049</v>
+        <v>1.410343647003174</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4059810936450958</v>
+        <v>0.8317610621452332</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.528893947601318</v>
+        <v>1.621052861213684</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.07071468979120255</v>
+        <v>2.393902540206909</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02301677502691746</v>
+        <v>0.8438152670860291</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.238472461700439</v>
+        <v>1.888056993484497</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.06834373623132706</v>
+        <v>2.400076150894165</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0577462762594223</v>
+        <v>1.159162998199463</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.184805631637573</v>
+        <v>1.569981336593628</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.244988277554512</v>
+        <v>1.75708281993866</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3642769753932953</v>
+        <v>0.4687404334545135</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.477386832237244</v>
+        <v>1.349629044532776</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2205373644828796</v>
+        <v>1.863710880279541</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3100974857807159</v>
+        <v>0.374963790178299</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.727614521980286</v>
+        <v>1.614791512489319</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.290813684463501</v>
+        <v>1.258444428443909</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.4508027136325836</v>
+        <v>0.008896397426724434</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.45518958568573</v>
+        <v>1.73642361164093</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.3740189373493195</v>
+        <v>1.47348952293396</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.506034255027771</v>
+        <v>0.4464365839958191</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.268900752067566</v>
+        <v>1.64600396156311</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.4022112190723419</v>
+        <v>1.808032155036926</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.7154490351676941</v>
+        <v>0.2707537114620209</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.4582812190055847</v>
+        <v>1.489105582237244</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1199818775057793</v>
+        <v>1.391611456871033</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08700346946716309</v>
+        <v>0.2483890354633331</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.16320013999939</v>
+        <v>1.260818243026733</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2048785239458084</v>
+        <v>1.505026340484619</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.4018331468105316</v>
+        <v>0.5468679666519165</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.222683310508728</v>
+        <v>1.246026158332825</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.08505918830633163</v>
+        <v>1.521565198898315</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1058677509427071</v>
+        <v>0.6924179196357727</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.475959897041321</v>
+        <v>1.12776780128479</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.07216372340917587</v>
+        <v>1.521777272224426</v>
       </c>
       <c r="D43" t="n">
-        <v>0.021231884136796</v>
+        <v>0.5038235783576965</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.268006443977356</v>
+        <v>1.234704732894897</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1191105768084526</v>
+        <v>1.917693614959717</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1743322163820267</v>
+        <v>0.5426481366157532</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.687881231307983</v>
+        <v>1.591255903244019</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.315061092376709</v>
+        <v>1.563206195831299</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.437692254781723</v>
+        <v>0.4187589883804321</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.429069757461548</v>
+        <v>1.917101383209229</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.3402826488018036</v>
+        <v>2.091580629348755</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4664974510669708</v>
+        <v>0.6326525211334229</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.5912926197052</v>
+        <v>1.542426705360413</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.2080984711647034</v>
+        <v>2.1728196144104</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3124792277812958</v>
+        <v>0.5106290578842163</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-3.619568109512329</v>
+        <v>0.8971486687660217</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.6958804130554199</v>
+        <v>0.7184168100357056</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.11434018611908</v>
+        <v>0.3205836415290833</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.424443006515503</v>
+        <v>1.293655872344971</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.2082629352807999</v>
+        <v>1.423524618148804</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3325747847557068</v>
+        <v>0.3187755644321442</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.054004907608032</v>
+        <v>1.544586300849915</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2065632343292236</v>
+        <v>1.592095494270325</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.3691867291927338</v>
+        <v>1.027674317359924</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-2.544009208679199</v>
+        <v>1.11022961139679</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8213731050491333</v>
+        <v>1.898757457733154</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.413949251174927</v>
+        <v>0.7715315818786621</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.311368227005005</v>
+        <v>1.611314654350281</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.145681232213974</v>
+        <v>2.98804759979248</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.2288386523723602</v>
+        <v>0.5881699323654175</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.562678337097168</v>
+        <v>1.252008557319641</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.07704118639230728</v>
+        <v>1.761675477027893</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.09777036309242249</v>
+        <v>0.5284207463264465</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.068171501159668</v>
+        <v>0.8804864883422852</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.8729877471923828</v>
+        <v>1.007488489151001</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.346116900444031</v>
+        <v>0.3381039202213287</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-2.671592950820923</v>
+        <v>1.590902328491211</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1989726424217224</v>
+        <v>1.456570029258728</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.2834772169589996</v>
+        <v>0.8337211012840271</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.732244253158569</v>
+        <v>1.452392101287842</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02085005305707455</v>
+        <v>1.89362108707428</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2473232001066208</v>
+        <v>0.8566507697105408</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.474825620651245</v>
+        <v>1.57724916934967</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.1074557080864906</v>
+        <v>1.936896800994873</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1423636972904205</v>
+        <v>0.9261144399642944</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.96508514881134</v>
+        <v>1.834693431854248</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.6567586064338684</v>
+        <v>1.091709613800049</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.091427326202393</v>
+        <v>0.7152653336524963</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.40404486656189</v>
+        <v>2.06542181968689</v>
       </c>
       <c r="C59" t="n">
-        <v>0.05207288637757301</v>
+        <v>1.652004241943359</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2103426307439804</v>
+        <v>1.112057447433472</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.828342437744141</v>
+        <v>1.389404296875</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.9576497077941895</v>
+        <v>0.6802113056182861</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.4754958152771</v>
+        <v>0.5816977024078369</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.4214825630187988</v>
+        <v>1.484067320823669</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.3110289573669434</v>
+        <v>1.409610033035278</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.4617983400821686</v>
+        <v>0.6244043111801147</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.273553133010864</v>
+        <v>1.417473554611206</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.007408197037875652</v>
+        <v>1.764522910118103</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09148820489645004</v>
+        <v>0.5908789038658142</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-2.488376140594482</v>
+        <v>1.421986699104309</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.3365335762500763</v>
+        <v>1.724550366401672</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.6459583640098572</v>
+        <v>0.6350037455558777</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-4.329771041870117</v>
+        <v>1.607686638832092</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.7945606112480164</v>
+        <v>1.379223108291626</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.8980686068534851</v>
+        <v>0.5441410541534424</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.913939952850342</v>
+        <v>1.822555899620056</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.06134369596838951</v>
+        <v>1.812212705612183</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06156224757432938</v>
+        <v>0.7711979746818542</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.37570333480835</v>
+        <v>1.975711226463318</v>
       </c>
       <c r="C66" t="n">
-        <v>0.03118169121444225</v>
+        <v>2.070053815841675</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1517720222473145</v>
+        <v>1.070670962333679</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.350776195526123</v>
+        <v>1.739712834358215</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.2200384438037872</v>
+        <v>1.618173241615295</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2634436786174774</v>
+        <v>0.7570660710334778</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-4.097209453582764</v>
+        <v>0.7214973568916321</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.098457932472229</v>
+        <v>1.544765591621399</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.765747547149658</v>
+        <v>-0.07784853875637054</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-3.05808162689209</v>
+        <v>1.206879615783691</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.9800564050674438</v>
+        <v>1.43950879573822</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.613841891288757</v>
+        <v>0.7660796642303467</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-4.221732139587402</v>
+        <v>1.553612947463989</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.150319337844849</v>
+        <v>2.409932136535645</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.852659225463867</v>
+        <v>0.6703920364379883</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-2.217154502868652</v>
+        <v>1.349661707878113</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.6502650380134583</v>
+        <v>1.34318470954895</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.081212162971497</v>
+        <v>0.3835718929767609</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-3.497535943984985</v>
+        <v>0.7001665830612183</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.304908871650696</v>
+        <v>1.193288087844849</v>
       </c>
       <c r="D72" t="n">
-        <v>-2.125962734222412</v>
+        <v>0.3911128640174866</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.7910874485969543</v>
+        <v>1.581024765968323</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.387973815202713</v>
+        <v>1.663680791854858</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.5453735589981079</v>
+        <v>0.3091471791267395</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.5246617197990417</v>
+        <v>1.12361466884613</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.07222277671098709</v>
+        <v>1.258844494819641</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.04962900280952454</v>
+        <v>0.4968522489070892</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.286057710647583</v>
+        <v>1.497530460357666</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.2404950261116028</v>
+        <v>1.789836287498474</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4061205387115479</v>
+        <v>0.7913864254951477</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.169796466827393</v>
+        <v>1.393673539161682</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.6524085998535156</v>
+        <v>1.665398359298706</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.099012732505798</v>
+        <v>0.9524053931236267</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.013848066329956</v>
+        <v>1.151384472846985</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.1382063925266266</v>
+        <v>1.738032817840576</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.279951423406601</v>
+        <v>0.5979741811752319</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.083603620529175</v>
+        <v>1.518132328987122</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.1467305123806</v>
+        <v>1.902743816375732</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.2529946565628052</v>
+        <v>1.07723593711853</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.747947692871094</v>
+        <v>1.433855772018433</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.4461479485034943</v>
+        <v>1.524150848388672</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.7166981101036072</v>
+        <v>0.6141438484191895</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8257186412811279</v>
+        <v>1.920706748962402</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.2745794653892517</v>
+        <v>1.688344359397888</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.5073981285095215</v>
+        <v>0.9936236143112183</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.971771001815796</v>
+        <v>1.900832772254944</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0239869263023138</v>
+        <v>1.737835049629211</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2061432898044586</v>
+        <v>0.7071100473403931</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-4.636960983276367</v>
+        <v>1.243613600730896</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.9033621549606323</v>
+        <v>0.9248392581939697</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.460778951644897</v>
+        <v>0.6563501954078674</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.798359394073486</v>
+        <v>1.444746375083923</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.6020221710205078</v>
+        <v>0.7175922393798828</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.011499762535095</v>
+        <v>0.9767242074012756</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.640120267868042</v>
+        <v>1.240260362625122</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.095834255218506</v>
+        <v>1.598057627677917</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.723556160926819</v>
+        <v>0.7116447687149048</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.207306623458862</v>
+        <v>1.898501038551331</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.07555321604013443</v>
+        <v>1.331096768379211</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08163347095251083</v>
+        <v>0.9291936755180359</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.411270618438721</v>
+        <v>1.624550223350525</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1100739985704422</v>
+        <v>1.723278522491455</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3437504470348358</v>
+        <v>0.6557056903839111</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.395574808120728</v>
+        <v>1.54110860824585</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0100055830553174</v>
+        <v>1.575886130332947</v>
       </c>
       <c r="D87" t="n">
-        <v>0.16987045109272</v>
+        <v>0.5356808304786682</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-4.076246738433838</v>
+        <v>0.4897672533988953</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.359574675559998</v>
+        <v>0.8232303857803345</v>
       </c>
       <c r="D88" t="n">
-        <v>-2.150411367416382</v>
+        <v>0.5381560921669006</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.526624798774719</v>
+        <v>1.399898290634155</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.2936795055866241</v>
+        <v>1.224658608436584</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.366129070520401</v>
+        <v>0.5210421681404114</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-5.429375171661377</v>
+        <v>1.517947793006897</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.8916260004043579</v>
+        <v>1.086411118507385</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.295751333236694</v>
+        <v>0.7305184006690979</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.6367077231407166</v>
+        <v>1.722673892974854</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1894551962614059</v>
+        <v>2.05997371673584</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3175661861896515</v>
+        <v>0.6411966681480408</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.5142014026641846</v>
+        <v>1.482998728752136</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0572475865483284</v>
+        <v>1.116854786872864</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2182713449001312</v>
+        <v>0.568052351474762</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.429110884666443</v>
+        <v>1.123832702636719</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1660583317279816</v>
+        <v>2.371148586273193</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.2317848801612854</v>
+        <v>0.2794966399669647</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.956170201301575</v>
+        <v>1.51622462272644</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.1579415649175644</v>
+        <v>1.903334975242615</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.1457091867923737</v>
+        <v>0.6967487931251526</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.610599160194397</v>
+        <v>1.592930793762207</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.1679621487855911</v>
+        <v>1.543489813804626</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.1005442962050438</v>
+        <v>0.6586684584617615</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.109719038009644</v>
+        <v>1.719182014465332</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.3703686594963074</v>
+        <v>1.930024027824402</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5245392918586731</v>
+        <v>0.4427877962589264</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.6882165670394897</v>
+        <v>1.438644886016846</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.09002723544836044</v>
+        <v>1.385983467102051</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.2048853933811188</v>
+        <v>0.765788197517395</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.8714097738265991</v>
+        <v>1.179802656173706</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.08723501116037369</v>
+        <v>1.356488823890686</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.2077941447496414</v>
+        <v>0.5818028450012207</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.136149525642395</v>
+        <v>1.765442371368408</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.2274496108293533</v>
+        <v>1.662683606147766</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.4540949761867523</v>
+        <v>0.8627493977546692</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.186949372291565</v>
+        <v>1.485443234443665</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08363153040409088</v>
+        <v>2.476804971694946</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2769588530063629</v>
+        <v>0.6869615316390991</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.3103669583797455</v>
+        <v>1.567090392112732</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.06502912193536758</v>
+        <v>1.956449389457703</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.05564334243535995</v>
+        <v>0.9875409007072449</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.417151212692261</v>
+        <v>1.455362319946289</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.02056805230677128</v>
+        <v>1.652127504348755</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.0026678207796067</v>
+        <v>0.7082431316375732</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.876847505569458</v>
+        <v>1.394233107566833</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.1303364932537079</v>
+        <v>1.63909924030304</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.1479554176330566</v>
+        <v>0.4710951447486877</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.688096821308136</v>
+        <v>1.153500080108643</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.186544805765152</v>
+        <v>1.620998382568359</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.2383216321468353</v>
+        <v>0.4804148972034454</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.799275636672974</v>
+        <v>1.294616341590881</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.4923581779003143</v>
+        <v>0.9342275857925415</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.8254387378692627</v>
+        <v>0.7926107048988342</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-4.381312847137451</v>
+        <v>1.183619856834412</v>
       </c>
       <c r="C106" t="n">
-        <v>-1.305453300476074</v>
+        <v>1.086687088012695</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.076376914978027</v>
+        <v>0.8255113363265991</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.0929194688797</v>
+        <v>1.805287837982178</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.003628651378676295</v>
+        <v>1.628045201301575</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1270612925291061</v>
+        <v>0.9839851260185242</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.91731333732605</v>
+        <v>1.505001187324524</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.108492851257324</v>
+        <v>1.182673335075378</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.645539164543152</v>
+        <v>0.7237517237663269</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.273748636245728</v>
+        <v>1.451762318611145</v>
       </c>
       <c r="C109" t="n">
-        <v>-1.651199340820312</v>
+        <v>1.176921129226685</v>
       </c>
       <c r="D109" t="n">
-        <v>-2.426927089691162</v>
+        <v>0.4833031594753265</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.680948734283447</v>
+        <v>1.412068128585815</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.3679417967796326</v>
+        <v>1.193220257759094</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.4141341149806976</v>
+        <v>0.3953579664230347</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.355231285095215</v>
+        <v>1.616577506065369</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.4089303314685822</v>
+        <v>1.401487708091736</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.728731632232666</v>
+        <v>0.7192957997322083</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.568990230560303</v>
+        <v>1.560993432998657</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.240671306848526</v>
+        <v>1.844433903694153</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.3652789890766144</v>
+        <v>0.5644434690475464</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-2.37894606590271</v>
+        <v>1.641095399856567</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.6204326152801514</v>
+        <v>1.147737860679626</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.02699887752533</v>
+        <v>0.857451856136322</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.7939078211784363</v>
+        <v>1.451810836791992</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1734399795532227</v>
+        <v>1.55081045627594</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.3126695454120636</v>
+        <v>0.5424720644950867</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.050899267196655</v>
+        <v>1.675294280052185</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.1143325865268707</v>
+        <v>1.701675295829773</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.1551153957843781</v>
+        <v>0.4995346367359161</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.7877016067504883</v>
+        <v>1.32059919834137</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.107752151787281</v>
+        <v>1.327366232872009</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.1104660928249359</v>
+        <v>0.2453475445508957</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.232381582260132</v>
+        <v>1.459704637527466</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.2061267793178558</v>
+        <v>1.89331579208374</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.2818968594074249</v>
+        <v>0.51980060338974</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-2.087864637374878</v>
+        <v>1.517194390296936</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.5155410766601562</v>
+        <v>1.210630655288696</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.7674172520637512</v>
+        <v>1.066056370735168</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.5495136380195618</v>
+        <v>1.416160345077515</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.04809319972991943</v>
+        <v>1.653044104576111</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.06968792527914047</v>
+        <v>0.7420638799667358</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-3.694148540496826</v>
+        <v>0.7289102077484131</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.895879328250885</v>
+        <v>1.302949190139771</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.509733200073242</v>
+        <v>0.4852569401264191</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.761633157730103</v>
+        <v>1.369845151901245</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.2210264205932617</v>
+        <v>1.676324129104614</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.2569543421268463</v>
+        <v>0.5900890231132507</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.095463395118713</v>
+        <v>1.375373363494873</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.04895556345582008</v>
+        <v>1.62936544418335</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.06943869590759277</v>
+        <v>0.486196905374527</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.8179370164871216</v>
+        <v>1.537142038345337</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.1105072274804115</v>
+        <v>1.641095161437988</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.224310114979744</v>
+        <v>0.7790022492408752</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.9660265445709229</v>
+        <v>1.449829697608948</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0594126470386982</v>
+        <v>1.561870336532593</v>
       </c>
       <c r="D124" t="n">
-        <v>0.166134387254715</v>
+        <v>0.8437333106994629</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.6776527166366577</v>
+        <v>1.601742267608643</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.01016997452825308</v>
+        <v>1.679942607879639</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1269034147262573</v>
+        <v>0.4631990492343903</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.377174854278564</v>
+        <v>1.059151530265808</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.08014637976884842</v>
+        <v>1.471413731575012</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.06767705082893372</v>
+        <v>0.5440389513969421</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.184515833854675</v>
+        <v>1.35972261428833</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.02604436315596104</v>
+        <v>1.675187826156616</v>
       </c>
       <c r="D127" t="n">
-        <v>0.04125621169805527</v>
+        <v>0.4564339816570282</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.812483549118042</v>
+        <v>1.856981754302979</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.04140451177954674</v>
+        <v>2.093741416931152</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.03085807524621487</v>
+        <v>0.7314286828041077</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.556293964385986</v>
+        <v>1.926179170608521</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.2485233396291733</v>
+        <v>1.676383137702942</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.405247837305069</v>
+        <v>0.6079773902893066</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.146226644515991</v>
+        <v>1.783754706382751</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.3585268557071686</v>
+        <v>1.542615413665771</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.4968279898166656</v>
+        <v>0.6534445881843567</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.633723020553589</v>
+        <v>1.697762489318848</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.1066133454442024</v>
+        <v>2.079064607620239</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.07015547901391983</v>
+        <v>0.7707046270370483</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.631320476531982</v>
+        <v>1.279409289360046</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.171814888715744</v>
+        <v>1.860542416572571</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.2108747363090515</v>
+        <v>0.3978503048419952</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.300426244735718</v>
+        <v>1.525038123130798</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.04110727831721306</v>
+        <v>1.998175263404846</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.04357396811246872</v>
+        <v>0.7714487910270691</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.8133680820465088</v>
+        <v>2.073504447937012</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.078776516020298</v>
+        <v>2.004451990127563</v>
       </c>
       <c r="D134" t="n">
-        <v>0.02135643549263477</v>
+        <v>0.4539678990840912</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.241532206535339</v>
+        <v>2.272198915481567</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.0780399814248085</v>
+        <v>1.996615529060364</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.1122102960944176</v>
+        <v>1.064959406852722</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.9764347672462463</v>
+        <v>1.415729165077209</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.3214927911758423</v>
+        <v>1.392630219459534</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.4760749936103821</v>
+        <v>0.6857638955116272</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.7126214504241943</v>
+        <v>0.793465256690979</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.1653906404972076</v>
+        <v>1.163774967193604</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.2389671206474304</v>
+        <v>0.2841424643993378</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.7516993284225464</v>
+        <v>1.218910455703735</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.1474118232727051</v>
+        <v>2.031262397766113</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.2525279223918915</v>
+        <v>0.7543838620185852</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.5533046126365662</v>
+        <v>1.782017946243286</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.1651396602392197</v>
+        <v>2.108514070510864</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.2599586844444275</v>
+        <v>0.8830211162567139</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.010703563690186</v>
+        <v>1.508838772773743</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.02643529511988163</v>
+        <v>1.851478695869446</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01432468648999929</v>
+        <v>1.017751932144165</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.326159596443176</v>
+        <v>1.850684642791748</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.1206120923161507</v>
+        <v>2.316908597946167</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.2209679484367371</v>
+        <v>0.7129525542259216</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.279925465583801</v>
+        <v>1.773457288742065</v>
       </c>
       <c r="C142" t="n">
-        <v>0.04636235162615776</v>
+        <v>2.11434531211853</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2293827086687088</v>
+        <v>1.127322196960449</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.195577025413513</v>
+        <v>1.847494006156921</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1297319382429123</v>
+        <v>2.075581789016724</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3908173143863678</v>
+        <v>0.883256733417511</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.6909183859825134</v>
+        <v>1.681898593902588</v>
       </c>
       <c r="C144" t="n">
-        <v>0.05342188477516174</v>
+        <v>1.865017890930176</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1294142305850983</v>
+        <v>1.186298370361328</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.63905394077301</v>
+        <v>2.427831649780273</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.1652878224849701</v>
+        <v>2.810634851455688</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.217809185385704</v>
+        <v>1.69222092628479</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.412878155708313</v>
+        <v>1.895660161972046</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.005132119171321392</v>
+        <v>1.946189403533936</v>
       </c>
       <c r="D146" t="n">
-        <v>0.09505090862512589</v>
+        <v>0.9594591856002808</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-5.711119651794434</v>
+        <v>1.204700708389282</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.361051678657532</v>
+        <v>1.845651745796204</v>
       </c>
       <c r="D147" t="n">
-        <v>-2.147625207901001</v>
+        <v>0.7294867634773254</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.460648417472839</v>
+        <v>1.51284384727478</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.3898115158081055</v>
+        <v>1.51768946647644</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.6482073664665222</v>
+        <v>0.5233467221260071</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.694678783416748</v>
+        <v>0.9018031358718872</v>
       </c>
       <c r="C149" t="n">
-        <v>-1.233642816543579</v>
+        <v>0.6596488952636719</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.875095129013062</v>
+        <v>0.03907299786806107</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.588348627090454</v>
+        <v>1.031087398529053</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.6962711811065674</v>
+        <v>1.431002497673035</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.08491587638855</v>
+        <v>0.094309963285923</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.112687468528748</v>
+        <v>1.770313739776611</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.09258710592985153</v>
+        <v>1.881592512130737</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.140078604221344</v>
+        <v>0.5708052515983582</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.9462907910346985</v>
+        <v>1.224045634269714</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.5415674448013306</v>
+        <v>1.545410513877869</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.9380648136138916</v>
+        <v>0.2804489433765411</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.216882705688477</v>
+        <v>1.384379029273987</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.08764662593603134</v>
+        <v>2.064550161361694</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.111534059047699</v>
+        <v>0.5284175276756287</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.085912108421326</v>
+        <v>1.772096037864685</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.1183212623000145</v>
+        <v>2.233061552047729</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.1908065229654312</v>
+        <v>1.107676863670349</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.170055985450745</v>
+        <v>1.327374935150146</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.4868425130844116</v>
+        <v>1.389297485351562</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.8639222383499146</v>
+        <v>0.5457077026367188</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.33832859992981</v>
+        <v>1.85399341583252</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.2799772620201111</v>
+        <v>1.800633549690247</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.4594840705394745</v>
+        <v>0.6261168122291565</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.111639499664307</v>
+        <v>1.749549865722656</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.3089326322078705</v>
+        <v>1.258001089096069</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.443266361951828</v>
+        <v>0.7714529633522034</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.435069680213928</v>
+        <v>1.669542789459229</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.287833958864212</v>
+        <v>1.350949764251709</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.4164350032806396</v>
+        <v>0.7777683734893799</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.99366819858551</v>
+        <v>1.628860354423523</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.5386411547660828</v>
+        <v>1.625276327133179</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.845882773399353</v>
+        <v>0.8243259787559509</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-2.693228483200073</v>
+        <v>1.778508067131042</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.4865485727787018</v>
+        <v>1.347220659255981</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.6016847491264343</v>
+        <v>0.8061533570289612</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.727824091911316</v>
+        <v>2.132899045944214</v>
       </c>
       <c r="C161" t="n">
-        <v>0.05703150108456612</v>
+        <v>1.902209758758545</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1741496175527573</v>
+        <v>0.9280886650085449</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.528775930404663</v>
+        <v>1.933437824249268</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.06456371396780014</v>
+        <v>2.109353303909302</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.1359258890151978</v>
+        <v>0.6977387666702271</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.9288794994354248</v>
+        <v>1.197617650032043</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.1780652403831482</v>
+        <v>2.034100294113159</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.393087774515152</v>
+        <v>0.857531726360321</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-1.390002131462097</v>
+        <v>1.242709636688232</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.264204204082489</v>
+        <v>1.687042951583862</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.4589129984378815</v>
+        <v>0.7516204714775085</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.21193790435791</v>
+        <v>1.617867827415466</v>
       </c>
       <c r="C165" t="n">
-        <v>0.001089071156457067</v>
+        <v>2.134843111038208</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08543207496404648</v>
+        <v>0.9755480289459229</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.223679542541504</v>
+        <v>1.252605199813843</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.3659018874168396</v>
+        <v>1.589361429214478</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.6791038513183594</v>
+        <v>0.5388248562812805</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-5.073827743530273</v>
+        <v>0.8477779030799866</v>
       </c>
       <c r="C167" t="n">
-        <v>-1.325924754142761</v>
+        <v>1.219977617263794</v>
       </c>
       <c r="D167" t="n">
-        <v>-2.052364349365234</v>
+        <v>1.115545034408569</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.862558364868164</v>
+        <v>1.383211731910706</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.2560928463935852</v>
+        <v>1.694306015968323</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.381684273481369</v>
+        <v>0.8360647559165955</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.9224869012832642</v>
+        <v>1.237774848937988</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1239146888256073</v>
+        <v>1.973276138305664</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.2634122371673584</v>
+        <v>0.8145018219947815</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.5299747586250305</v>
+        <v>1.656966924667358</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.001153844175860286</v>
+        <v>1.939291715621948</v>
       </c>
       <c r="D170" t="n">
-        <v>0.01200234983116388</v>
+        <v>0.8041658401489258</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.9068396091461182</v>
+        <v>1.612999558448792</v>
       </c>
       <c r="C171" t="n">
-        <v>0.04435423389077187</v>
+        <v>1.739505052566528</v>
       </c>
       <c r="D171" t="n">
-        <v>0.107955239713192</v>
+        <v>0.9117026925086975</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.9361027479171753</v>
+        <v>1.759415149688721</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.08690208196640015</v>
+        <v>1.446805834770203</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.07945622503757477</v>
+        <v>0.8280407786369324</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.332695364952087</v>
+        <v>1.89732813835144</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.2220509201288223</v>
+        <v>1.202583074569702</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.3353800773620605</v>
+        <v>0.8402851223945618</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-2.876912832260132</v>
+        <v>1.455423593521118</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.7740216255187988</v>
+        <v>1.117605447769165</v>
       </c>
       <c r="D174" t="n">
-        <v>-1.348095655441284</v>
+        <v>1.186349749565125</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-3.018307209014893</v>
+        <v>0.8944694995880127</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.8413175344467163</v>
+        <v>1.533078074455261</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.417689323425293</v>
+        <v>0.4859073460102081</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.049365878105164</v>
+        <v>1.29982316493988</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.1293329298496246</v>
+        <v>1.775171399116516</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.2582106292247772</v>
+        <v>0.8426637053489685</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.333081245422363</v>
+        <v>1.798339486122131</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0767594501376152</v>
+        <v>1.691056847572327</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2892095744609833</v>
+        <v>0.8543124198913574</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-2.887577056884766</v>
+        <v>1.806046366691589</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.5070497989654541</v>
+        <v>1.387614727020264</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.7863373160362244</v>
+        <v>0.8099512457847595</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-4.033154487609863</v>
+        <v>0.8766443133354187</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.7744981050491333</v>
+        <v>0.667610764503479</v>
       </c>
       <c r="D179" t="n">
-        <v>-1.055602312088013</v>
+        <v>0.2089992612600327</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.286207675933838</v>
+        <v>1.08758819103241</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.6273337006568909</v>
+        <v>1.484791874885559</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.091732382774353</v>
+        <v>0.4983499944210052</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.24554443359375</v>
+        <v>1.454339146614075</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.2253882884979248</v>
+        <v>1.753374934196472</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3648658096790314</v>
+        <v>0.3353782594203949</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.853042721748352</v>
+        <v>1.520066738128662</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.3299507200717926</v>
+        <v>1.382174730300903</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.502307116985321</v>
+        <v>0.3883451223373413</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.474933624267578</v>
+        <v>1.893770813941956</v>
       </c>
       <c r="C183" t="n">
-        <v>0.1431882083415985</v>
+        <v>2.000036716461182</v>
       </c>
       <c r="D183" t="n">
-        <v>0.3980174958705902</v>
+        <v>1.017561435699463</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-5.330290794372559</v>
+        <v>1.324309349060059</v>
       </c>
       <c r="C184" t="n">
-        <v>-1.094763875007629</v>
+        <v>0.709604024887085</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.69678783416748</v>
+        <v>0.7614687085151672</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.8058789372444153</v>
+        <v>1.550193786621094</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.2306386828422546</v>
+        <v>1.841751456260681</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.3492840826511383</v>
+        <v>0.7799015045166016</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.8907234668731689</v>
+        <v>1.798757076263428</v>
       </c>
       <c r="C186" t="n">
-        <v>0.09934183210134506</v>
+        <v>1.727244734764099</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2524677515029907</v>
+        <v>0.7501178383827209</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.59550929069519</v>
+        <v>1.717374205589294</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.1016319617629051</v>
+        <v>1.43007481098175</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.1481597125530243</v>
+        <v>1.094980716705322</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.54358172416687</v>
+        <v>1.474255800247192</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.1263525784015656</v>
+        <v>2.421741724014282</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.1857823878526688</v>
+        <v>0.5419607758522034</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-1.376486897468567</v>
+        <v>0.8766410350799561</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.2119204550981522</v>
+        <v>1.510221362113953</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.358715146780014</v>
+        <v>0.3465043008327484</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.097806811332703</v>
+        <v>1.59559154510498</v>
       </c>
       <c r="C190" t="n">
-        <v>0.004886758513748646</v>
+        <v>1.880414605140686</v>
       </c>
       <c r="D190" t="n">
-        <v>0.07912678271532059</v>
+        <v>1.083757877349854</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.9779470562934875</v>
+        <v>1.89048159122467</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.04852864518761635</v>
+        <v>1.833663940429688</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.1220120787620544</v>
+        <v>0.9540081024169922</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.252571105957031</v>
+        <v>1.302531361579895</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.1429029703140259</v>
+        <v>2.029714822769165</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.179399237036705</v>
+        <v>0.8067747950553894</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-1.573094964027405</v>
+        <v>1.333997845649719</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.2705705165863037</v>
+        <v>1.890978336334229</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.3250498473644257</v>
+        <v>0.2630438208580017</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.504782795906067</v>
+        <v>1.217187762260437</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.9768282175064087</v>
+        <v>1.761630058288574</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.56915807723999</v>
+        <v>0.5640323162078857</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.584290742874146</v>
+        <v>1.169914722442627</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.6959052085876465</v>
+        <v>1.678550124168396</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.208512663841248</v>
+        <v>0.8497163057327271</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.096299767494202</v>
+        <v>1.514991760253906</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.4184317886829376</v>
+        <v>1.639170289039612</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.7073317170143127</v>
+        <v>0.4596271812915802</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.54762065410614</v>
+        <v>1.84212601184845</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.1713279336690903</v>
+        <v>2.205297470092773</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.26406329870224</v>
+        <v>0.9555646181106567</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-2.089040756225586</v>
+        <v>1.549899697303772</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.2819629907608032</v>
+        <v>2.229264497756958</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.4396242797374725</v>
+        <v>0.5674960017204285</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-4.034225940704346</v>
+        <v>0.8143753409385681</v>
       </c>
       <c r="C199" t="n">
-        <v>-1.274121999740601</v>
+        <v>0.7605258226394653</v>
       </c>
       <c r="D199" t="n">
-        <v>-2.091118097305298</v>
+        <v>0.3988274037837982</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-2.683727979660034</v>
+        <v>0.5891392827033997</v>
       </c>
       <c r="C200" t="n">
-        <v>-1.311215758323669</v>
+        <v>0.7135078907012939</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.805405139923096</v>
+        <v>-0.1214322820305824</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-5.140481948852539</v>
+        <v>0.8843613266944885</v>
       </c>
       <c r="C201" t="n">
-        <v>-1.656157851219177</v>
+        <v>0.7440164089202881</v>
       </c>
       <c r="D201" t="n">
-        <v>-2.63963794708252</v>
+        <v>0.6115602254867554</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-2.09576678276062</v>
+        <v>1.57352089881897</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.3684974312782288</v>
+        <v>1.981474161148071</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.3763260841369629</v>
+        <v>0.7980670928955078</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.263194918632507</v>
+        <v>1.467835068702698</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.2333732694387436</v>
+        <v>1.395702838897705</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.3613560795783997</v>
+        <v>0.4635085463523865</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.571002602577209</v>
+        <v>0.9893141388893127</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.7062891125679016</v>
+        <v>1.601906657218933</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.218100309371948</v>
+        <v>0.6760844588279724</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.284632205963135</v>
+        <v>1.559515833854675</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.01520965527743101</v>
+        <v>1.684234142303467</v>
       </c>
       <c r="D205" t="n">
-        <v>0.05441372841596603</v>
+        <v>0.7036948800086975</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.759185075759888</v>
+        <v>2.245046377182007</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.09051618725061417</v>
+        <v>2.528547048568726</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.03128024190664291</v>
+        <v>0.9438623189926147</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-3.085829257965088</v>
+        <v>1.562439322471619</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.6138650178909302</v>
+        <v>1.64609956741333</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.9992457628250122</v>
+        <v>0.5950502753257751</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-3.206756353378296</v>
+        <v>1.211196422576904</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.359697580337524</v>
+        <v>1.112003564834595</v>
       </c>
       <c r="D208" t="n">
-        <v>-2.050909042358398</v>
+        <v>0.4936166405677795</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-3.296603202819824</v>
+        <v>1.050760269165039</v>
       </c>
       <c r="C209" t="n">
-        <v>-1.542731881141663</v>
+        <v>1.419470310211182</v>
       </c>
       <c r="D209" t="n">
-        <v>-2.341983079910278</v>
+        <v>0.5549718737602234</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/reinforce_gan_enc.xlsx
+++ b/documents/latent_vector/reinforce_gan_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.452219724655151</v>
+        <v>-0.2530799508094788</v>
       </c>
       <c r="C2" t="n">
-        <v>2.292577981948853</v>
+        <v>2.486717700958252</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5906578898429871</v>
+        <v>-2.004154920578003</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.906499624252319</v>
+        <v>0.5879291296005249</v>
       </c>
       <c r="C3" t="n">
-        <v>1.761510372161865</v>
+        <v>2.307373523712158</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6041887998580933</v>
+        <v>-2.732384920120239</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.028679370880127</v>
+        <v>-0.02590219862759113</v>
       </c>
       <c r="C4" t="n">
-        <v>1.299238801002502</v>
+        <v>2.306033849716187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6623044013977051</v>
+        <v>-2.883235692977905</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.14860725402832</v>
+        <v>-0.782110869884491</v>
       </c>
       <c r="C5" t="n">
-        <v>1.370346188545227</v>
+        <v>2.96576976776123</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3728335499763489</v>
+        <v>-1.798871397972107</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.563332557678223</v>
+        <v>-0.9263857007026672</v>
       </c>
       <c r="C6" t="n">
-        <v>1.424723029136658</v>
+        <v>2.435118675231934</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4574080109596252</v>
+        <v>-2.031111478805542</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.568092226982117</v>
+        <v>-0.8684191107749939</v>
       </c>
       <c r="C7" t="n">
-        <v>1.870636463165283</v>
+        <v>3.414964914321899</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8867492079734802</v>
+        <v>-2.186525583267212</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.821069598197937</v>
+        <v>-1.334513902664185</v>
       </c>
       <c r="C8" t="n">
-        <v>2.208387613296509</v>
+        <v>3.18027925491333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5815955996513367</v>
+        <v>-2.512460947036743</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.621874332427979</v>
+        <v>-0.08844219148159027</v>
       </c>
       <c r="C9" t="n">
-        <v>1.976940035820007</v>
+        <v>2.719413280487061</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7874099612236023</v>
+        <v>-3.560436964035034</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.447607159614563</v>
+        <v>-0.3197063207626343</v>
       </c>
       <c r="C10" t="n">
-        <v>1.963410377502441</v>
+        <v>2.67227840423584</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6176448464393616</v>
+        <v>-3.014867782592773</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.577168345451355</v>
+        <v>-0.6627344489097595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7820545434951782</v>
+        <v>2.979201316833496</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3216902911663055</v>
+        <v>-0.3354521989822388</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.214307188987732</v>
+        <v>0.4345204830169678</v>
       </c>
       <c r="C12" t="n">
-        <v>1.876055836677551</v>
+        <v>1.98683750629425</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2478211969137192</v>
+        <v>-3.127686262130737</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.547178268432617</v>
+        <v>-0.5125126242637634</v>
       </c>
       <c r="C13" t="n">
-        <v>2.61921501159668</v>
+        <v>2.673375129699707</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4767851829528809</v>
+        <v>-3.097189664840698</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.875303506851196</v>
+        <v>-1.228800892829895</v>
       </c>
       <c r="C14" t="n">
-        <v>1.982285380363464</v>
+        <v>2.648207664489746</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4807420074939728</v>
+        <v>-2.847617626190186</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.033086061477661</v>
+        <v>-1.866978287696838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9218889474868774</v>
+        <v>2.747759103775024</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4756359159946442</v>
+        <v>-1.87811005115509</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.004268884658813</v>
+        <v>-1.243492722511292</v>
       </c>
       <c r="C16" t="n">
-        <v>1.361968278884888</v>
+        <v>2.671931743621826</v>
       </c>
       <c r="D16" t="n">
-        <v>1.035267949104309</v>
+        <v>-2.202992677688599</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.352166891098022</v>
+        <v>-1.337031126022339</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8616863489151001</v>
+        <v>2.606867074966431</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4613111019134521</v>
+        <v>-1.054872870445251</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.299124002456665</v>
+        <v>0.04044361412525177</v>
       </c>
       <c r="C18" t="n">
-        <v>1.160630583763123</v>
+        <v>2.727148056030273</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3881594836711884</v>
+        <v>-2.633682727813721</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.749682307243347</v>
+        <v>0.7100045680999756</v>
       </c>
       <c r="C19" t="n">
-        <v>2.242546081542969</v>
+        <v>2.95545482635498</v>
       </c>
       <c r="D19" t="n">
-        <v>1.348334908485413</v>
+        <v>-2.370858907699585</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.213286280632019</v>
+        <v>-1.162471771240234</v>
       </c>
       <c r="C20" t="n">
-        <v>1.062878370285034</v>
+        <v>3.353681564331055</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5836842656135559</v>
+        <v>-1.521391034126282</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.357110023498535</v>
+        <v>-0.677443265914917</v>
       </c>
       <c r="C21" t="n">
-        <v>1.689448595046997</v>
+        <v>2.968257665634155</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1486820876598358</v>
+        <v>-3.447358369827271</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9851104617118835</v>
+        <v>-0.8831138014793396</v>
       </c>
       <c r="C22" t="n">
-        <v>1.156883835792542</v>
+        <v>3.212965726852417</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2402195036411285</v>
+        <v>-1.708495616912842</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.420185804367065</v>
+        <v>-1.305978775024414</v>
       </c>
       <c r="C23" t="n">
-        <v>2.115880012512207</v>
+        <v>3.244256258010864</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2480609267950058</v>
+        <v>-2.456214427947998</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.096008658409119</v>
+        <v>-0.2543059587478638</v>
       </c>
       <c r="C24" t="n">
-        <v>1.381919741630554</v>
+        <v>2.714632987976074</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3368125557899475</v>
+        <v>-2.334382772445679</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.225562214851379</v>
+        <v>-0.6788190603256226</v>
       </c>
       <c r="C25" t="n">
-        <v>1.683303713798523</v>
+        <v>3.244707584381104</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6295597553253174</v>
+        <v>-1.971281409263611</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.210460543632507</v>
+        <v>-0.9995938539505005</v>
       </c>
       <c r="C26" t="n">
-        <v>1.194124817848206</v>
+        <v>3.369826316833496</v>
       </c>
       <c r="D26" t="n">
-        <v>0.972978949546814</v>
+        <v>-0.3856451511383057</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9980164170265198</v>
+        <v>-1.684980392456055</v>
       </c>
       <c r="C27" t="n">
-        <v>1.554516553878784</v>
+        <v>2.815483093261719</v>
       </c>
       <c r="D27" t="n">
-        <v>1.050429940223694</v>
+        <v>-0.5312795042991638</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.422649383544922</v>
+        <v>-0.1883990913629532</v>
       </c>
       <c r="C28" t="n">
-        <v>1.156341075897217</v>
+        <v>2.026102304458618</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6787645220756531</v>
+        <v>-1.46208918094635</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.742087364196777</v>
+        <v>0.26500403881073</v>
       </c>
       <c r="C29" t="n">
-        <v>1.335090160369873</v>
+        <v>2.900983333587646</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9785414934158325</v>
+        <v>-2.432250261306763</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.791930913925171</v>
+        <v>0.7055529952049255</v>
       </c>
       <c r="C30" t="n">
-        <v>1.601128458976746</v>
+        <v>2.440014839172363</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5789986252784729</v>
+        <v>-3.164605855941772</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.293527960777283</v>
+        <v>0.8771007061004639</v>
       </c>
       <c r="C31" t="n">
-        <v>1.131566643714905</v>
+        <v>2.219964265823364</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5276854634284973</v>
+        <v>-2.11794376373291</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.133047342300415</v>
+        <v>1.110334753990173</v>
       </c>
       <c r="C32" t="n">
-        <v>1.410343647003174</v>
+        <v>1.561601161956787</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8317610621452332</v>
+        <v>-3.246446371078491</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.621052861213684</v>
+        <v>-1.010782718658447</v>
       </c>
       <c r="C33" t="n">
-        <v>2.393902540206909</v>
+        <v>2.780438661575317</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8438152670860291</v>
+        <v>-2.857572317123413</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.888056993484497</v>
+        <v>-0.4347241222858429</v>
       </c>
       <c r="C34" t="n">
-        <v>2.400076150894165</v>
+        <v>1.925309181213379</v>
       </c>
       <c r="D34" t="n">
-        <v>1.159162998199463</v>
+        <v>-2.097317218780518</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.569981336593628</v>
+        <v>-0.7398577928543091</v>
       </c>
       <c r="C35" t="n">
-        <v>1.75708281993866</v>
+        <v>2.226913690567017</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4687404334545135</v>
+        <v>-2.134275913238525</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.349629044532776</v>
+        <v>-0.7542158961296082</v>
       </c>
       <c r="C36" t="n">
-        <v>1.863710880279541</v>
+        <v>2.732164859771729</v>
       </c>
       <c r="D36" t="n">
-        <v>0.374963790178299</v>
+        <v>-2.606016874313354</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.614791512489319</v>
+        <v>-1.223383069038391</v>
       </c>
       <c r="C37" t="n">
-        <v>1.258444428443909</v>
+        <v>2.219847679138184</v>
       </c>
       <c r="D37" t="n">
-        <v>0.008896397426724434</v>
+        <v>-2.552133321762085</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.73642361164093</v>
+        <v>-1.02022910118103</v>
       </c>
       <c r="C38" t="n">
-        <v>1.47348952293396</v>
+        <v>2.705945491790771</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4464365839958191</v>
+        <v>-2.525189876556396</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.64600396156311</v>
+        <v>-1.216241717338562</v>
       </c>
       <c r="C39" t="n">
-        <v>1.808032155036926</v>
+        <v>2.539835453033447</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2707537114620209</v>
+        <v>-1.775823473930359</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.489105582237244</v>
+        <v>-0.3846082091331482</v>
       </c>
       <c r="C40" t="n">
-        <v>1.391611456871033</v>
+        <v>2.822900772094727</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2483890354633331</v>
+        <v>-2.512126684188843</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.260818243026733</v>
+        <v>-0.963453471660614</v>
       </c>
       <c r="C41" t="n">
-        <v>1.505026340484619</v>
+        <v>3.046106815338135</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5468679666519165</v>
+        <v>-1.901671290397644</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.246026158332825</v>
+        <v>-0.5004552006721497</v>
       </c>
       <c r="C42" t="n">
-        <v>1.521565198898315</v>
+        <v>2.645145893096924</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6924179196357727</v>
+        <v>-1.786767959594727</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.12776780128479</v>
+        <v>-0.6184245944023132</v>
       </c>
       <c r="C43" t="n">
-        <v>1.521777272224426</v>
+        <v>2.771922826766968</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5038235783576965</v>
+        <v>-2.849390745162964</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.234704732894897</v>
+        <v>-0.1284145563840866</v>
       </c>
       <c r="C44" t="n">
-        <v>1.917693614959717</v>
+        <v>2.073021650314331</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5426481366157532</v>
+        <v>-2.211411476135254</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.591255903244019</v>
+        <v>-0.9471116662025452</v>
       </c>
       <c r="C45" t="n">
-        <v>1.563206195831299</v>
+        <v>2.324576616287231</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4187589883804321</v>
+        <v>-2.652820110321045</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.917101383209229</v>
+        <v>-0.8199066519737244</v>
       </c>
       <c r="C46" t="n">
-        <v>2.091580629348755</v>
+        <v>2.540050983428955</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6326525211334229</v>
+        <v>-2.747024774551392</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.542426705360413</v>
+        <v>-0.13071309030056</v>
       </c>
       <c r="C47" t="n">
-        <v>2.1728196144104</v>
+        <v>2.789366483688354</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5106290578842163</v>
+        <v>-3.141976594924927</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8971486687660217</v>
+        <v>-0.9172031283378601</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7184168100357056</v>
+        <v>2.479228973388672</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3205836415290833</v>
+        <v>-1.207908987998962</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.293655872344971</v>
+        <v>-1.166106224060059</v>
       </c>
       <c r="C49" t="n">
-        <v>1.423524618148804</v>
+        <v>2.888976812362671</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3187755644321442</v>
+        <v>-2.684250593185425</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.544586300849915</v>
+        <v>-0.9322243928909302</v>
       </c>
       <c r="C50" t="n">
-        <v>1.592095494270325</v>
+        <v>3.70857310295105</v>
       </c>
       <c r="D50" t="n">
-        <v>1.027674317359924</v>
+        <v>-2.204965114593506</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.11022961139679</v>
+        <v>-0.9475679397583008</v>
       </c>
       <c r="C51" t="n">
-        <v>1.898757457733154</v>
+        <v>2.998929023742676</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7715315818786621</v>
+        <v>-0.9431632161140442</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.611314654350281</v>
+        <v>-0.3158732354640961</v>
       </c>
       <c r="C52" t="n">
-        <v>2.98804759979248</v>
+        <v>2.093967914581299</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5881699323654175</v>
+        <v>-2.524104595184326</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.252008557319641</v>
+        <v>-0.4795219302177429</v>
       </c>
       <c r="C53" t="n">
-        <v>1.761675477027893</v>
+        <v>3.11068058013916</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5284207463264465</v>
+        <v>-3.120940685272217</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8804864883422852</v>
+        <v>-0.8010804057121277</v>
       </c>
       <c r="C54" t="n">
-        <v>1.007488489151001</v>
+        <v>2.681333541870117</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3381039202213287</v>
+        <v>-0.8188073635101318</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.590902328491211</v>
+        <v>-0.118890181183815</v>
       </c>
       <c r="C55" t="n">
-        <v>1.456570029258728</v>
+        <v>2.210697412490845</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8337211012840271</v>
+        <v>-1.63951563835144</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.452392101287842</v>
+        <v>-0.4684139788150787</v>
       </c>
       <c r="C56" t="n">
-        <v>1.89362108707428</v>
+        <v>2.724540233612061</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8566507697105408</v>
+        <v>-3.153259038925171</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.57724916934967</v>
+        <v>-0.7034739851951599</v>
       </c>
       <c r="C57" t="n">
-        <v>1.936896800994873</v>
+        <v>2.782922506332397</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9261144399642944</v>
+        <v>-3.41963791847229</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.834693431854248</v>
+        <v>-1.683932423591614</v>
       </c>
       <c r="C58" t="n">
-        <v>1.091709613800049</v>
+        <v>2.812284469604492</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7152653336524963</v>
+        <v>-2.156219244003296</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.06542181968689</v>
+        <v>-0.02997069247066975</v>
       </c>
       <c r="C59" t="n">
-        <v>1.652004241943359</v>
+        <v>2.683768749237061</v>
       </c>
       <c r="D59" t="n">
-        <v>1.112057447433472</v>
+        <v>-3.360248327255249</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.389404296875</v>
+        <v>-1.482713580131531</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6802113056182861</v>
+        <v>2.651588916778564</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5816977024078369</v>
+        <v>-0.9806041717529297</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.484067320823669</v>
+        <v>-1.290082931518555</v>
       </c>
       <c r="C61" t="n">
-        <v>1.409610033035278</v>
+        <v>2.974184036254883</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6244043111801147</v>
+        <v>-1.075032949447632</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.417473554611206</v>
+        <v>-0.488647997379303</v>
       </c>
       <c r="C62" t="n">
-        <v>1.764522910118103</v>
+        <v>2.516074895858765</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5908789038658142</v>
+        <v>-1.920093774795532</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.421986699104309</v>
+        <v>-0.5930905342102051</v>
       </c>
       <c r="C63" t="n">
-        <v>1.724550366401672</v>
+        <v>2.584767818450928</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6350037455558777</v>
+        <v>-2.139019727706909</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.607686638832092</v>
+        <v>0.4234676361083984</v>
       </c>
       <c r="C64" t="n">
-        <v>1.379223108291626</v>
+        <v>1.324214100837708</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5441410541534424</v>
+        <v>-1.747314095497131</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.822555899620056</v>
+        <v>0.2081976681947708</v>
       </c>
       <c r="C65" t="n">
-        <v>1.812212705612183</v>
+        <v>2.107398986816406</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7711979746818542</v>
+        <v>-2.655234098434448</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.975711226463318</v>
+        <v>-0.1741292923688889</v>
       </c>
       <c r="C66" t="n">
-        <v>2.070053815841675</v>
+        <v>2.793160915374756</v>
       </c>
       <c r="D66" t="n">
-        <v>1.070670962333679</v>
+        <v>-3.183585405349731</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.739712834358215</v>
+        <v>-0.4885458946228027</v>
       </c>
       <c r="C67" t="n">
-        <v>1.618173241615295</v>
+        <v>2.719818115234375</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7570660710334778</v>
+        <v>-2.520611763000488</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7214973568916321</v>
+        <v>-1.195081830024719</v>
       </c>
       <c r="C68" t="n">
-        <v>1.544765591621399</v>
+        <v>1.992021322250366</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.07784853875637054</v>
+        <v>-0.8537293076515198</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.206879615783691</v>
+        <v>-1.517480611801147</v>
       </c>
       <c r="C69" t="n">
-        <v>1.43950879573822</v>
+        <v>2.763213396072388</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7660796642303467</v>
+        <v>-0.4741838276386261</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.553612947463989</v>
+        <v>-0.553846538066864</v>
       </c>
       <c r="C70" t="n">
-        <v>2.409932136535645</v>
+        <v>2.365212678909302</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6703920364379883</v>
+        <v>-1.247249603271484</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.349661707878113</v>
+        <v>-1.357198715209961</v>
       </c>
       <c r="C71" t="n">
-        <v>1.34318470954895</v>
+        <v>2.914249420166016</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3835718929767609</v>
+        <v>-2.146035432815552</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7001665830612183</v>
+        <v>-1.357436537742615</v>
       </c>
       <c r="C72" t="n">
-        <v>1.193288087844849</v>
+        <v>2.813917398452759</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3911128640174866</v>
+        <v>-0.6862285137176514</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.581024765968323</v>
+        <v>-1.055888533592224</v>
       </c>
       <c r="C73" t="n">
-        <v>1.663680791854858</v>
+        <v>2.832605361938477</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3091471791267395</v>
+        <v>-1.458945989608765</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.12361466884613</v>
+        <v>-0.4020789563655853</v>
       </c>
       <c r="C74" t="n">
-        <v>1.258844494819641</v>
+        <v>2.79753303527832</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4968522489070892</v>
+        <v>-1.657848000526428</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.497530460357666</v>
+        <v>-1.178757667541504</v>
       </c>
       <c r="C75" t="n">
-        <v>1.789836287498474</v>
+        <v>3.386549949645996</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7913864254951477</v>
+        <v>-2.316391468048096</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.393673539161682</v>
+        <v>-0.95061194896698</v>
       </c>
       <c r="C76" t="n">
-        <v>1.665398359298706</v>
+        <v>3.004891633987427</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9524053931236267</v>
+        <v>-1.169356226921082</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.151384472846985</v>
+        <v>-0.4112202525138855</v>
       </c>
       <c r="C77" t="n">
-        <v>1.738032817840576</v>
+        <v>3.116625785827637</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5979741811752319</v>
+        <v>-1.608122229576111</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.518132328987122</v>
+        <v>0.06164945662021637</v>
       </c>
       <c r="C78" t="n">
-        <v>1.902743816375732</v>
+        <v>2.991785526275635</v>
       </c>
       <c r="D78" t="n">
-        <v>1.07723593711853</v>
+        <v>-1.801103830337524</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.433855772018433</v>
+        <v>-0.7941076755523682</v>
       </c>
       <c r="C79" t="n">
-        <v>1.524150848388672</v>
+        <v>2.497849941253662</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6141438484191895</v>
+        <v>-1.401239633560181</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.920706748962402</v>
+        <v>-1.671526312828064</v>
       </c>
       <c r="C80" t="n">
-        <v>1.688344359397888</v>
+        <v>3.109513282775879</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9936236143112183</v>
+        <v>-1.501201272010803</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.900832772254944</v>
+        <v>0.7230982780456543</v>
       </c>
       <c r="C81" t="n">
-        <v>1.737835049629211</v>
+        <v>1.651334047317505</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7071100473403931</v>
+        <v>-3.195264101028442</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.243613600730896</v>
+        <v>-0.8704569935798645</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9248392581939697</v>
+        <v>2.206838130950928</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6563501954078674</v>
+        <v>-1.099246144294739</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.444746375083923</v>
+        <v>-1.763100266456604</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7175922393798828</v>
+        <v>2.944281101226807</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9767242074012756</v>
+        <v>-0.6541306972503662</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.240260362625122</v>
+        <v>-1.171830296516418</v>
       </c>
       <c r="C84" t="n">
-        <v>1.598057627677917</v>
+        <v>2.696371555328369</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7116447687149048</v>
+        <v>-0.9975859522819519</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.898501038551331</v>
+        <v>0.9963387846946716</v>
       </c>
       <c r="C85" t="n">
-        <v>1.331096768379211</v>
+        <v>2.130046367645264</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9291936755180359</v>
+        <v>-2.969213485717773</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.624550223350525</v>
+        <v>0.5483546853065491</v>
       </c>
       <c r="C86" t="n">
-        <v>1.723278522491455</v>
+        <v>2.237975835800171</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6557056903839111</v>
+        <v>-3.314792633056641</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.54110860824585</v>
+        <v>0.5335227251052856</v>
       </c>
       <c r="C87" t="n">
-        <v>1.575886130332947</v>
+        <v>2.041919469833374</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5356808304786682</v>
+        <v>-2.529680490493774</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4897672533988953</v>
+        <v>-1.076672554016113</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8232303857803345</v>
+        <v>2.607130527496338</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5381560921669006</v>
+        <v>0.9923837184906006</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.399898290634155</v>
+        <v>-1.184125542640686</v>
       </c>
       <c r="C89" t="n">
-        <v>1.224658608436584</v>
+        <v>2.947640180587769</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5210421681404114</v>
+        <v>-2.020661592483521</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.517947793006897</v>
+        <v>-0.7557896971702576</v>
       </c>
       <c r="C90" t="n">
-        <v>1.086411118507385</v>
+        <v>2.485661029815674</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7305184006690979</v>
+        <v>-1.571358323097229</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.722673892974854</v>
+        <v>0.6834738850593567</v>
       </c>
       <c r="C91" t="n">
-        <v>2.05997371673584</v>
+        <v>2.480474472045898</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6411966681480408</v>
+        <v>-2.889901876449585</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.482998728752136</v>
+        <v>-0.5053287148475647</v>
       </c>
       <c r="C92" t="n">
-        <v>1.116854786872864</v>
+        <v>2.998734474182129</v>
       </c>
       <c r="D92" t="n">
-        <v>0.568052351474762</v>
+        <v>-1.969180226325989</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.123832702636719</v>
+        <v>-0.9404546618461609</v>
       </c>
       <c r="C93" t="n">
-        <v>2.371148586273193</v>
+        <v>3.00767707824707</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2794966399669647</v>
+        <v>-2.649729013442993</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.51622462272644</v>
+        <v>0.1434127241373062</v>
       </c>
       <c r="C94" t="n">
-        <v>1.903334975242615</v>
+        <v>1.987927913665771</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6967487931251526</v>
+        <v>-2.292001008987427</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.592930793762207</v>
+        <v>-0.3309916257858276</v>
       </c>
       <c r="C95" t="n">
-        <v>1.543489813804626</v>
+        <v>2.259753704071045</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6586684584617615</v>
+        <v>-1.566121935844421</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.719182014465332</v>
+        <v>-0.8890354633331299</v>
       </c>
       <c r="C96" t="n">
-        <v>1.930024027824402</v>
+        <v>2.960074901580811</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4427877962589264</v>
+        <v>-2.336275100708008</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.438644886016846</v>
+        <v>-0.9703930020332336</v>
       </c>
       <c r="C97" t="n">
-        <v>1.385983467102051</v>
+        <v>2.750790596008301</v>
       </c>
       <c r="D97" t="n">
-        <v>0.765788197517395</v>
+        <v>-1.210345268249512</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.179802656173706</v>
+        <v>-0.9272264838218689</v>
       </c>
       <c r="C98" t="n">
-        <v>1.356488823890686</v>
+        <v>3.226918458938599</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5818028450012207</v>
+        <v>-1.861110329627991</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.765442371368408</v>
+        <v>-1.328198432922363</v>
       </c>
       <c r="C99" t="n">
-        <v>1.662683606147766</v>
+        <v>2.742452144622803</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8627493977546692</v>
+        <v>-1.809819936752319</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.485443234443665</v>
+        <v>0.3998074531555176</v>
       </c>
       <c r="C100" t="n">
-        <v>2.476804971694946</v>
+        <v>1.679776906967163</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6869615316390991</v>
+        <v>-2.9461829662323</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.567090392112732</v>
+        <v>-0.8747974038124084</v>
       </c>
       <c r="C101" t="n">
-        <v>1.956449389457703</v>
+        <v>3.324434280395508</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9875409007072449</v>
+        <v>-2.185730934143066</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.455362319946289</v>
+        <v>-0.2798991799354553</v>
       </c>
       <c r="C102" t="n">
-        <v>1.652127504348755</v>
+        <v>2.609633922576904</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7082431316375732</v>
+        <v>-2.198550701141357</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.394233107566833</v>
+        <v>0.7735123038291931</v>
       </c>
       <c r="C103" t="n">
-        <v>1.63909924030304</v>
+        <v>2.174245834350586</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4710951447486877</v>
+        <v>-2.167394161224365</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.153500080108643</v>
+        <v>-0.6396452784538269</v>
       </c>
       <c r="C104" t="n">
-        <v>1.620998382568359</v>
+        <v>2.650624752044678</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4804148972034454</v>
+        <v>-0.9995131492614746</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.294616341590881</v>
+        <v>-1.55285918712616</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9342275857925415</v>
+        <v>2.749807834625244</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7926107048988342</v>
+        <v>-0.8355803489685059</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.183619856834412</v>
+        <v>-0.9978388547897339</v>
       </c>
       <c r="C106" t="n">
-        <v>1.086687088012695</v>
+        <v>2.431636810302734</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8255113363265991</v>
+        <v>-0.6395307779312134</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.805287837982178</v>
+        <v>-0.3436843156814575</v>
       </c>
       <c r="C107" t="n">
-        <v>1.628045201301575</v>
+        <v>2.985452890396118</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9839851260185242</v>
+        <v>-2.563382863998413</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.505001187324524</v>
+        <v>-0.8408858180046082</v>
       </c>
       <c r="C108" t="n">
-        <v>1.182673335075378</v>
+        <v>3.178272485733032</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7237517237663269</v>
+        <v>-1.295139908790588</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.451762318611145</v>
+        <v>0.446580708026886</v>
       </c>
       <c r="C109" t="n">
-        <v>1.176921129226685</v>
+        <v>2.663729190826416</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4833031594753265</v>
+        <v>-1.656183362007141</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.412068128585815</v>
+        <v>-0.8213402628898621</v>
       </c>
       <c r="C110" t="n">
-        <v>1.193220257759094</v>
+        <v>2.530843019485474</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3953579664230347</v>
+        <v>-1.840479731559753</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.616577506065369</v>
+        <v>-0.977575957775116</v>
       </c>
       <c r="C111" t="n">
-        <v>1.401487708091736</v>
+        <v>2.920155048370361</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7192957997322083</v>
+        <v>-2.214459419250488</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.560993432998657</v>
+        <v>-0.4550247192382812</v>
       </c>
       <c r="C112" t="n">
-        <v>1.844433903694153</v>
+        <v>2.563155174255371</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5644434690475464</v>
+        <v>-2.503802537918091</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.641095399856567</v>
+        <v>-0.9755793213844299</v>
       </c>
       <c r="C113" t="n">
-        <v>1.147737860679626</v>
+        <v>2.730846405029297</v>
       </c>
       <c r="D113" t="n">
-        <v>0.857451856136322</v>
+        <v>-2.079519987106323</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.451810836791992</v>
+        <v>-0.6654877066612244</v>
       </c>
       <c r="C114" t="n">
-        <v>1.55081045627594</v>
+        <v>2.820464611053467</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5424720644950867</v>
+        <v>-2.191446542739868</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.675294280052185</v>
+        <v>-0.1836546510457993</v>
       </c>
       <c r="C115" t="n">
-        <v>1.701675295829773</v>
+        <v>2.294068813323975</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4995346367359161</v>
+        <v>-2.522449731826782</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.32059919834137</v>
+        <v>-0.4059932231903076</v>
       </c>
       <c r="C116" t="n">
-        <v>1.327366232872009</v>
+        <v>1.835129976272583</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2453475445508957</v>
+        <v>-1.916724801063538</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.459704637527466</v>
+        <v>0.1528186351060867</v>
       </c>
       <c r="C117" t="n">
-        <v>1.89331579208374</v>
+        <v>1.564102172851562</v>
       </c>
       <c r="D117" t="n">
-        <v>0.51980060338974</v>
+        <v>-1.913469314575195</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.517194390296936</v>
+        <v>-0.9837762117385864</v>
       </c>
       <c r="C118" t="n">
-        <v>1.210630655288696</v>
+        <v>2.784236907958984</v>
       </c>
       <c r="D118" t="n">
-        <v>1.066056370735168</v>
+        <v>-1.67255175113678</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.416160345077515</v>
+        <v>-0.9012995958328247</v>
       </c>
       <c r="C119" t="n">
-        <v>1.653044104576111</v>
+        <v>2.854897499084473</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7420638799667358</v>
+        <v>-1.596166253089905</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7289102077484131</v>
+        <v>-1.033952355384827</v>
       </c>
       <c r="C120" t="n">
-        <v>1.302949190139771</v>
+        <v>2.509427785873413</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4852569401264191</v>
+        <v>-0.3012361228466034</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.369845151901245</v>
+        <v>-0.479771226644516</v>
       </c>
       <c r="C121" t="n">
-        <v>1.676324129104614</v>
+        <v>2.373892784118652</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5900890231132507</v>
+        <v>-1.561269640922546</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.375373363494873</v>
+        <v>0.1253072768449783</v>
       </c>
       <c r="C122" t="n">
-        <v>1.62936544418335</v>
+        <v>2.31972074508667</v>
       </c>
       <c r="D122" t="n">
-        <v>0.486196905374527</v>
+        <v>-2.481790781021118</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.537142038345337</v>
+        <v>-0.1101024597883224</v>
       </c>
       <c r="C123" t="n">
-        <v>1.641095161437988</v>
+        <v>2.193583726882935</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7790022492408752</v>
+        <v>-1.309753894805908</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.449829697608948</v>
+        <v>0.01080132927745581</v>
       </c>
       <c r="C124" t="n">
-        <v>1.561870336532593</v>
+        <v>3.192324638366699</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8437333106994629</v>
+        <v>-2.136910438537598</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.601742267608643</v>
+        <v>-0.0379515141248703</v>
       </c>
       <c r="C125" t="n">
-        <v>1.679942607879639</v>
+        <v>3.046816349029541</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4631990492343903</v>
+        <v>-2.973074913024902</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.059151530265808</v>
+        <v>-0.9787843823432922</v>
       </c>
       <c r="C126" t="n">
-        <v>1.471413731575012</v>
+        <v>3.355587959289551</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5440389513969421</v>
+        <v>-1.757066488265991</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.35972261428833</v>
+        <v>-0.01276634726673365</v>
       </c>
       <c r="C127" t="n">
-        <v>1.675187826156616</v>
+        <v>2.365303516387939</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4564339816570282</v>
+        <v>-2.49042010307312</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.856981754302979</v>
+        <v>-0.3014538884162903</v>
       </c>
       <c r="C128" t="n">
-        <v>2.093741416931152</v>
+        <v>1.952905297279358</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7314286828041077</v>
+        <v>-2.187961101531982</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.926179170608521</v>
+        <v>-0.7955754399299622</v>
       </c>
       <c r="C129" t="n">
-        <v>1.676383137702942</v>
+        <v>2.413711547851562</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6079773902893066</v>
+        <v>-2.708900213241577</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.783754706382751</v>
+        <v>-1.522685885429382</v>
       </c>
       <c r="C130" t="n">
-        <v>1.542615413665771</v>
+        <v>2.711300373077393</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6534445881843567</v>
+        <v>-1.895492315292358</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.697762489318848</v>
+        <v>-0.1026023477315903</v>
       </c>
       <c r="C131" t="n">
-        <v>2.079064607620239</v>
+        <v>2.330139636993408</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7707046270370483</v>
+        <v>-2.822252035140991</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.279409289360046</v>
+        <v>-1.110028624534607</v>
       </c>
       <c r="C132" t="n">
-        <v>1.860542416572571</v>
+        <v>2.851419448852539</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3978503048419952</v>
+        <v>-1.775327324867249</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.525038123130798</v>
+        <v>-0.4654532074928284</v>
       </c>
       <c r="C133" t="n">
-        <v>1.998175263404846</v>
+        <v>2.626495361328125</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7714487910270691</v>
+        <v>-2.168046236038208</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2.073504447937012</v>
+        <v>-0.3531312048435211</v>
       </c>
       <c r="C134" t="n">
-        <v>2.004451990127563</v>
+        <v>1.904123067855835</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4539678990840912</v>
+        <v>-2.8200364112854</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2.272198915481567</v>
+        <v>-0.5493327975273132</v>
       </c>
       <c r="C135" t="n">
-        <v>1.996615529060364</v>
+        <v>2.471745491027832</v>
       </c>
       <c r="D135" t="n">
-        <v>1.064959406852722</v>
+        <v>-2.908477067947388</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.415729165077209</v>
+        <v>-1.422419309616089</v>
       </c>
       <c r="C136" t="n">
-        <v>1.392630219459534</v>
+        <v>2.577514171600342</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6857638955116272</v>
+        <v>-1.195331692695618</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.793465256690979</v>
+        <v>-0.6595763564109802</v>
       </c>
       <c r="C137" t="n">
-        <v>1.163774967193604</v>
+        <v>2.865520000457764</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2841424643993378</v>
+        <v>-1.498514652252197</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.218910455703735</v>
+        <v>-0.5483350157737732</v>
       </c>
       <c r="C138" t="n">
-        <v>2.031262397766113</v>
+        <v>2.384876489639282</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7543838620185852</v>
+        <v>-1.696082830429077</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.782017946243286</v>
+        <v>-1.116274833679199</v>
       </c>
       <c r="C139" t="n">
-        <v>2.108514070510864</v>
+        <v>2.692085266113281</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8830211162567139</v>
+        <v>-1.723200917243958</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.508838772773743</v>
+        <v>-0.3143432140350342</v>
       </c>
       <c r="C140" t="n">
-        <v>1.851478695869446</v>
+        <v>2.381793737411499</v>
       </c>
       <c r="D140" t="n">
-        <v>1.017751932144165</v>
+        <v>-1.337464928627014</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.850684642791748</v>
+        <v>-0.5470981597900391</v>
       </c>
       <c r="C141" t="n">
-        <v>2.316908597946167</v>
+        <v>2.190647125244141</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7129525542259216</v>
+        <v>-2.439087152481079</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.773457288742065</v>
+        <v>0.7785839438438416</v>
       </c>
       <c r="C142" t="n">
-        <v>2.11434531211853</v>
+        <v>2.658176422119141</v>
       </c>
       <c r="D142" t="n">
-        <v>1.127322196960449</v>
+        <v>-2.904695510864258</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.847494006156921</v>
+        <v>1.42203962802887</v>
       </c>
       <c r="C143" t="n">
-        <v>2.075581789016724</v>
+        <v>2.298576593399048</v>
       </c>
       <c r="D143" t="n">
-        <v>0.883256733417511</v>
+        <v>-3.454046726226807</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.681898593902588</v>
+        <v>0.2874792218208313</v>
       </c>
       <c r="C144" t="n">
-        <v>1.865017890930176</v>
+        <v>2.930075645446777</v>
       </c>
       <c r="D144" t="n">
-        <v>1.186298370361328</v>
+        <v>-2.258984804153442</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2.427831649780273</v>
+        <v>-0.3790245354175568</v>
       </c>
       <c r="C145" t="n">
-        <v>2.810634851455688</v>
+        <v>2.051065921783447</v>
       </c>
       <c r="D145" t="n">
-        <v>1.69222092628479</v>
+        <v>-2.57761025428772</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.895660161972046</v>
+        <v>-0.4136880040168762</v>
       </c>
       <c r="C146" t="n">
-        <v>1.946189403533936</v>
+        <v>2.742849349975586</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9594591856002808</v>
+        <v>-3.122485637664795</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.204700708389282</v>
+        <v>-1.152801156044006</v>
       </c>
       <c r="C147" t="n">
-        <v>1.845651745796204</v>
+        <v>3.068286418914795</v>
       </c>
       <c r="D147" t="n">
-        <v>0.7294867634773254</v>
+        <v>-0.9815106391906738</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.51284384727478</v>
+        <v>-1.143734812736511</v>
       </c>
       <c r="C148" t="n">
-        <v>1.51768946647644</v>
+        <v>3.098007440567017</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5233467221260071</v>
+        <v>-2.678860902786255</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9018031358718872</v>
+        <v>-0.8939276337623596</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6596488952636719</v>
+        <v>3.143153667449951</v>
       </c>
       <c r="D149" t="n">
-        <v>0.03907299786806107</v>
+        <v>-1.273784875869751</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.031087398529053</v>
+        <v>-0.2613751888275146</v>
       </c>
       <c r="C150" t="n">
-        <v>1.431002497673035</v>
+        <v>2.29957914352417</v>
       </c>
       <c r="D150" t="n">
-        <v>0.094309963285923</v>
+        <v>-2.018271446228027</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.770313739776611</v>
+        <v>-0.1583762913942337</v>
       </c>
       <c r="C151" t="n">
-        <v>1.881592512130737</v>
+        <v>1.965579867362976</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5708052515983582</v>
+        <v>-2.394468307495117</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.224045634269714</v>
+        <v>-0.818950355052948</v>
       </c>
       <c r="C152" t="n">
-        <v>1.545410513877869</v>
+        <v>2.990687370300293</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2804489433765411</v>
+        <v>-1.835448861122131</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.384379029273987</v>
+        <v>-0.606237530708313</v>
       </c>
       <c r="C153" t="n">
-        <v>2.064550161361694</v>
+        <v>2.795551300048828</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5284175276756287</v>
+        <v>-2.779171705245972</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.772096037864685</v>
+        <v>-0.5255619883537292</v>
       </c>
       <c r="C154" t="n">
-        <v>2.233061552047729</v>
+        <v>2.901549816131592</v>
       </c>
       <c r="D154" t="n">
-        <v>1.107676863670349</v>
+        <v>-2.30988883972168</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.327374935150146</v>
+        <v>-0.9185872077941895</v>
       </c>
       <c r="C155" t="n">
-        <v>1.389297485351562</v>
+        <v>3.366683483123779</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5457077026367188</v>
+        <v>-2.145197153091431</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.85399341583252</v>
+        <v>-0.1121131628751755</v>
       </c>
       <c r="C156" t="n">
-        <v>1.800633549690247</v>
+        <v>2.369871616363525</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6261168122291565</v>
+        <v>-2.442736864089966</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.749549865722656</v>
+        <v>-0.2770121097564697</v>
       </c>
       <c r="C157" t="n">
-        <v>1.258001089096069</v>
+        <v>2.786565065383911</v>
       </c>
       <c r="D157" t="n">
-        <v>0.7714529633522034</v>
+        <v>-2.439266204833984</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.669542789459229</v>
+        <v>-0.8000766038894653</v>
       </c>
       <c r="C158" t="n">
-        <v>1.350949764251709</v>
+        <v>2.907303094863892</v>
       </c>
       <c r="D158" t="n">
-        <v>0.7777683734893799</v>
+        <v>-2.785795450210571</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.628860354423523</v>
+        <v>-0.882569432258606</v>
       </c>
       <c r="C159" t="n">
-        <v>1.625276327133179</v>
+        <v>2.977059364318848</v>
       </c>
       <c r="D159" t="n">
-        <v>0.8243259787559509</v>
+        <v>-1.624757885932922</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.778508067131042</v>
+        <v>-1.010848760604858</v>
       </c>
       <c r="C160" t="n">
-        <v>1.347220659255981</v>
+        <v>2.419849634170532</v>
       </c>
       <c r="D160" t="n">
-        <v>0.8061533570289612</v>
+        <v>-1.585753679275513</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2.132899045944214</v>
+        <v>-0.2329802364110947</v>
       </c>
       <c r="C161" t="n">
-        <v>1.902209758758545</v>
+        <v>2.43664813041687</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9280886650085449</v>
+        <v>-3.668092966079712</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.933437824249268</v>
+        <v>-0.5933074355125427</v>
       </c>
       <c r="C162" t="n">
-        <v>2.109353303909302</v>
+        <v>2.691363096237183</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6977387666702271</v>
+        <v>-3.71159029006958</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.197617650032043</v>
+        <v>-1.280886650085449</v>
       </c>
       <c r="C163" t="n">
-        <v>2.034100294113159</v>
+        <v>2.672097682952881</v>
       </c>
       <c r="D163" t="n">
-        <v>0.857531726360321</v>
+        <v>-0.7476021647453308</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.242709636688232</v>
+        <v>-0.93551105260849</v>
       </c>
       <c r="C164" t="n">
-        <v>1.687042951583862</v>
+        <v>2.565639495849609</v>
       </c>
       <c r="D164" t="n">
-        <v>0.7516204714775085</v>
+        <v>-1.965950608253479</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.617867827415466</v>
+        <v>-0.3296723365783691</v>
       </c>
       <c r="C165" t="n">
-        <v>2.134843111038208</v>
+        <v>2.842409610748291</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9755480289459229</v>
+        <v>-2.489600419998169</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.252605199813843</v>
+        <v>-1.244098663330078</v>
       </c>
       <c r="C166" t="n">
-        <v>1.589361429214478</v>
+        <v>3.743360042572021</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5388248562812805</v>
+        <v>-1.672225117683411</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.8477779030799866</v>
+        <v>-1.701649188995361</v>
       </c>
       <c r="C167" t="n">
-        <v>1.219977617263794</v>
+        <v>3.064100742340088</v>
       </c>
       <c r="D167" t="n">
-        <v>1.115545034408569</v>
+        <v>0.5418981909751892</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.383211731910706</v>
+        <v>-0.2585448622703552</v>
       </c>
       <c r="C168" t="n">
-        <v>1.694306015968323</v>
+        <v>3.657612800598145</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8360647559165955</v>
+        <v>-2.098395347595215</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.237774848937988</v>
+        <v>-0.3387072086334229</v>
       </c>
       <c r="C169" t="n">
-        <v>1.973276138305664</v>
+        <v>3.175724506378174</v>
       </c>
       <c r="D169" t="n">
-        <v>0.8145018219947815</v>
+        <v>-1.838647723197937</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.656966924667358</v>
+        <v>-0.5901643633842468</v>
       </c>
       <c r="C170" t="n">
-        <v>1.939291715621948</v>
+        <v>2.867895126342773</v>
       </c>
       <c r="D170" t="n">
-        <v>0.8041658401489258</v>
+        <v>-2.636743068695068</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.612999558448792</v>
+        <v>-0.5199689269065857</v>
       </c>
       <c r="C171" t="n">
-        <v>1.739505052566528</v>
+        <v>2.706459999084473</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9117026925086975</v>
+        <v>-2.100284337997437</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.759415149688721</v>
+        <v>-0.9304181933403015</v>
       </c>
       <c r="C172" t="n">
-        <v>1.446805834770203</v>
+        <v>3.144453763961792</v>
       </c>
       <c r="D172" t="n">
-        <v>0.8280407786369324</v>
+        <v>-2.221419334411621</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.89732813835144</v>
+        <v>-1.524065375328064</v>
       </c>
       <c r="C173" t="n">
-        <v>1.202583074569702</v>
+        <v>2.979317665100098</v>
       </c>
       <c r="D173" t="n">
-        <v>0.8402851223945618</v>
+        <v>-2.255646944046021</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.455423593521118</v>
+        <v>-1.083665490150452</v>
       </c>
       <c r="C174" t="n">
-        <v>1.117605447769165</v>
+        <v>3.340526103973389</v>
       </c>
       <c r="D174" t="n">
-        <v>1.186349749565125</v>
+        <v>-1.212284207344055</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8944694995880127</v>
+        <v>-1.03154456615448</v>
       </c>
       <c r="C175" t="n">
-        <v>1.533078074455261</v>
+        <v>3.070977687835693</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4859073460102081</v>
+        <v>-0.818967878818512</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.29982316493988</v>
+        <v>-0.8877668976783752</v>
       </c>
       <c r="C176" t="n">
-        <v>1.775171399116516</v>
+        <v>3.165449380874634</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8426637053489685</v>
+        <v>-1.666453123092651</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.798339486122131</v>
+        <v>-0.7804108262062073</v>
       </c>
       <c r="C177" t="n">
-        <v>1.691056847572327</v>
+        <v>2.915102243423462</v>
       </c>
       <c r="D177" t="n">
-        <v>0.8543124198913574</v>
+        <v>-2.465079069137573</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.806046366691589</v>
+        <v>-0.7651728987693787</v>
       </c>
       <c r="C178" t="n">
-        <v>1.387614727020264</v>
+        <v>1.945337772369385</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8099512457847595</v>
+        <v>-1.940573573112488</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.8766443133354187</v>
+        <v>-1.476065754890442</v>
       </c>
       <c r="C179" t="n">
-        <v>0.667610764503479</v>
+        <v>2.08601713180542</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2089992612600327</v>
+        <v>-0.5709048509597778</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.08758819103241</v>
+        <v>-0.9315410256385803</v>
       </c>
       <c r="C180" t="n">
-        <v>1.484791874885559</v>
+        <v>2.827013731002808</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4983499944210052</v>
+        <v>-1.00144898891449</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.454339146614075</v>
+        <v>-0.7272965312004089</v>
       </c>
       <c r="C181" t="n">
-        <v>1.753374934196472</v>
+        <v>2.356318473815918</v>
       </c>
       <c r="D181" t="n">
-        <v>0.3353782594203949</v>
+        <v>-1.629441857337952</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.520066738128662</v>
+        <v>-0.7484284043312073</v>
       </c>
       <c r="C182" t="n">
-        <v>1.382174730300903</v>
+        <v>2.71378755569458</v>
       </c>
       <c r="D182" t="n">
-        <v>0.3883451223373413</v>
+        <v>-2.677747011184692</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.893770813941956</v>
+        <v>0.819444477558136</v>
       </c>
       <c r="C183" t="n">
-        <v>2.000036716461182</v>
+        <v>2.609653234481812</v>
       </c>
       <c r="D183" t="n">
-        <v>1.017561435699463</v>
+        <v>-3.365021944046021</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.324309349060059</v>
+        <v>-0.8578826189041138</v>
       </c>
       <c r="C184" t="n">
-        <v>0.709604024887085</v>
+        <v>3.021438121795654</v>
       </c>
       <c r="D184" t="n">
-        <v>0.7614687085151672</v>
+        <v>-1.349723935127258</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.550193786621094</v>
+        <v>-0.9442059993743896</v>
       </c>
       <c r="C185" t="n">
-        <v>1.841751456260681</v>
+        <v>2.621084451675415</v>
       </c>
       <c r="D185" t="n">
-        <v>0.7799015045166016</v>
+        <v>-1.431499600410461</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.798757076263428</v>
+        <v>0.04472692310810089</v>
       </c>
       <c r="C186" t="n">
-        <v>1.727244734764099</v>
+        <v>2.38057541847229</v>
       </c>
       <c r="D186" t="n">
-        <v>0.7501178383827209</v>
+        <v>-2.556445121765137</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.717374205589294</v>
+        <v>-1.811017751693726</v>
       </c>
       <c r="C187" t="n">
-        <v>1.43007481098175</v>
+        <v>3.33123779296875</v>
       </c>
       <c r="D187" t="n">
-        <v>1.094980716705322</v>
+        <v>-1.562995076179504</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.474255800247192</v>
+        <v>-1.31081485748291</v>
       </c>
       <c r="C188" t="n">
-        <v>2.421741724014282</v>
+        <v>2.771980762481689</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5419607758522034</v>
+        <v>-2.840275049209595</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8766410350799561</v>
+        <v>-0.5337708592414856</v>
       </c>
       <c r="C189" t="n">
-        <v>1.510221362113953</v>
+        <v>3.004469156265259</v>
       </c>
       <c r="D189" t="n">
-        <v>0.3465043008327484</v>
+        <v>-1.978338479995728</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.59559154510498</v>
+        <v>0.2879749536514282</v>
       </c>
       <c r="C190" t="n">
-        <v>1.880414605140686</v>
+        <v>2.338520526885986</v>
       </c>
       <c r="D190" t="n">
-        <v>1.083757877349854</v>
+        <v>-2.2556312084198</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.89048159122467</v>
+        <v>0.1921820193529129</v>
       </c>
       <c r="C191" t="n">
-        <v>1.833663940429688</v>
+        <v>2.033028602600098</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9540081024169922</v>
+        <v>-2.178157329559326</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.302531361579895</v>
+        <v>-0.0477360337972641</v>
       </c>
       <c r="C192" t="n">
-        <v>2.029714822769165</v>
+        <v>2.923799753189087</v>
       </c>
       <c r="D192" t="n">
-        <v>0.8067747950553894</v>
+        <v>-2.040166854858398</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.333997845649719</v>
+        <v>0.7318056225776672</v>
       </c>
       <c r="C193" t="n">
-        <v>1.890978336334229</v>
+        <v>1.958497166633606</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2630438208580017</v>
+        <v>-2.41042423248291</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.217187762260437</v>
+        <v>-0.1164398044347763</v>
       </c>
       <c r="C194" t="n">
-        <v>1.761630058288574</v>
+        <v>2.254932880401611</v>
       </c>
       <c r="D194" t="n">
-        <v>0.5640323162078857</v>
+        <v>-1.057254195213318</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.169914722442627</v>
+        <v>-1.007708787918091</v>
       </c>
       <c r="C195" t="n">
-        <v>1.678550124168396</v>
+        <v>2.92911434173584</v>
       </c>
       <c r="D195" t="n">
-        <v>0.8497163057327271</v>
+        <v>-0.6842947602272034</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.514991760253906</v>
+        <v>-1.157283306121826</v>
       </c>
       <c r="C196" t="n">
-        <v>1.639170289039612</v>
+        <v>2.895967960357666</v>
       </c>
       <c r="D196" t="n">
-        <v>0.4596271812915802</v>
+        <v>-1.943843722343445</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.84212601184845</v>
+        <v>0.09627147018909454</v>
       </c>
       <c r="C197" t="n">
-        <v>2.205297470092773</v>
+        <v>2.58065128326416</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9555646181106567</v>
+        <v>-3.061014890670776</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.549899697303772</v>
+        <v>0.662625253200531</v>
       </c>
       <c r="C198" t="n">
-        <v>2.229264497756958</v>
+        <v>2.527550458908081</v>
       </c>
       <c r="D198" t="n">
-        <v>0.5674960017204285</v>
+        <v>-3.444174289703369</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8143753409385681</v>
+        <v>-0.04435323178768158</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7605258226394653</v>
+        <v>3.041671752929688</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3988274037837982</v>
+        <v>-1.164585828781128</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.5891392827033997</v>
+        <v>-1.105841994285583</v>
       </c>
       <c r="C200" t="n">
-        <v>0.7135078907012939</v>
+        <v>2.945403575897217</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.1214322820305824</v>
+        <v>-1.318655610084534</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.8843613266944885</v>
+        <v>-1.112270712852478</v>
       </c>
       <c r="C201" t="n">
-        <v>0.7440164089202881</v>
+        <v>3.046789646148682</v>
       </c>
       <c r="D201" t="n">
-        <v>0.6115602254867554</v>
+        <v>-0.3898276686668396</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.57352089881897</v>
+        <v>-0.2149881571531296</v>
       </c>
       <c r="C202" t="n">
-        <v>1.981474161148071</v>
+        <v>2.667720794677734</v>
       </c>
       <c r="D202" t="n">
-        <v>0.7980670928955078</v>
+        <v>-3.129400491714478</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.467835068702698</v>
+        <v>-0.3099622130393982</v>
       </c>
       <c r="C203" t="n">
-        <v>1.395702838897705</v>
+        <v>2.846908569335938</v>
       </c>
       <c r="D203" t="n">
-        <v>0.4635085463523865</v>
+        <v>-2.744736194610596</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.9893141388893127</v>
+        <v>-1.285659193992615</v>
       </c>
       <c r="C204" t="n">
-        <v>1.601906657218933</v>
+        <v>3.536419630050659</v>
       </c>
       <c r="D204" t="n">
-        <v>0.6760844588279724</v>
+        <v>-1.49720299243927</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.559515833854675</v>
+        <v>0.1876960545778275</v>
       </c>
       <c r="C205" t="n">
-        <v>1.684234142303467</v>
+        <v>2.756002902984619</v>
       </c>
       <c r="D205" t="n">
-        <v>0.7036948800086975</v>
+        <v>-3.12387228012085</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2.245046377182007</v>
+        <v>0.1171592622995377</v>
       </c>
       <c r="C206" t="n">
-        <v>2.528547048568726</v>
+        <v>2.592026948928833</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9438623189926147</v>
+        <v>-4.213963985443115</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.562439322471619</v>
+        <v>-0.9498429298400879</v>
       </c>
       <c r="C207" t="n">
-        <v>1.64609956741333</v>
+        <v>2.540587425231934</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5950502753257751</v>
+        <v>-2.795913219451904</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.211196422576904</v>
+        <v>-0.7730511426925659</v>
       </c>
       <c r="C208" t="n">
-        <v>1.112003564834595</v>
+        <v>2.292672395706177</v>
       </c>
       <c r="D208" t="n">
-        <v>0.4936166405677795</v>
+        <v>-1.17069399356842</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.050760269165039</v>
+        <v>-0.6262416839599609</v>
       </c>
       <c r="C209" t="n">
-        <v>1.419470310211182</v>
+        <v>2.168849468231201</v>
       </c>
       <c r="D209" t="n">
-        <v>0.5549718737602234</v>
+        <v>-1.006433248519897</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/reinforce_gan_enc.xlsx
+++ b/documents/latent_vector/reinforce_gan_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2530799508094788</v>
+        <v>0.179828867316246</v>
       </c>
       <c r="C2" t="n">
-        <v>2.486717700958252</v>
+        <v>0.5298700332641602</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.004154920578003</v>
+        <v>0.106839619576931</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5879291296005249</v>
+        <v>0.1531836241483688</v>
       </c>
       <c r="C3" t="n">
-        <v>2.307373523712158</v>
+        <v>0.6802904009819031</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.732384920120239</v>
+        <v>0.1302212476730347</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.02590219862759113</v>
+        <v>0.07166228443384171</v>
       </c>
       <c r="C4" t="n">
-        <v>2.306033849716187</v>
+        <v>0.6184304356575012</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.883235692977905</v>
+        <v>0.166295200586319</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.782110869884491</v>
+        <v>0.1151479259133339</v>
       </c>
       <c r="C5" t="n">
-        <v>2.96576976776123</v>
+        <v>0.5863825678825378</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.798871397972107</v>
+        <v>0.1731845587491989</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9263857007026672</v>
+        <v>0.005182649008929729</v>
       </c>
       <c r="C6" t="n">
-        <v>2.435118675231934</v>
+        <v>0.491593599319458</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.031111478805542</v>
+        <v>0.02925794385373592</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8684191107749939</v>
+        <v>0.1376400291919708</v>
       </c>
       <c r="C7" t="n">
-        <v>3.414964914321899</v>
+        <v>0.6071385145187378</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.186525583267212</v>
+        <v>0.0626070573925972</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.334513902664185</v>
+        <v>0.1833687871694565</v>
       </c>
       <c r="C8" t="n">
-        <v>3.18027925491333</v>
+        <v>0.5211732983589172</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.512460947036743</v>
+        <v>0.01917363330721855</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.08844219148159027</v>
+        <v>0.06287255138158798</v>
       </c>
       <c r="C9" t="n">
-        <v>2.719413280487061</v>
+        <v>0.4711117148399353</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.560436964035034</v>
+        <v>0.1349338740110397</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3197063207626343</v>
+        <v>0.0999489426612854</v>
       </c>
       <c r="C10" t="n">
-        <v>2.67227840423584</v>
+        <v>0.4463430941104889</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.014867782592773</v>
+        <v>0.1116524040699005</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6627344489097595</v>
+        <v>0.1510065793991089</v>
       </c>
       <c r="C11" t="n">
-        <v>2.979201316833496</v>
+        <v>0.4812161922454834</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3354521989822388</v>
+        <v>-0.05144235119223595</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4345204830169678</v>
+        <v>0.1616118848323822</v>
       </c>
       <c r="C12" t="n">
-        <v>1.98683750629425</v>
+        <v>0.4523355960845947</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.127686262130737</v>
+        <v>0.1017610356211662</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.5125126242637634</v>
+        <v>0.2366869002580643</v>
       </c>
       <c r="C13" t="n">
-        <v>2.673375129699707</v>
+        <v>0.562084972858429</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.097189664840698</v>
+        <v>0.1301966607570648</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.228800892829895</v>
+        <v>0.150821641087532</v>
       </c>
       <c r="C14" t="n">
-        <v>2.648207664489746</v>
+        <v>0.515438973903656</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.847617626190186</v>
+        <v>0.09667905420064926</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.866978287696838</v>
+        <v>0.1574347615242004</v>
       </c>
       <c r="C15" t="n">
-        <v>2.747759103775024</v>
+        <v>0.6865735650062561</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.87811005115509</v>
+        <v>0.1097853183746338</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.243492722511292</v>
+        <v>0.201150044798851</v>
       </c>
       <c r="C16" t="n">
-        <v>2.671931743621826</v>
+        <v>0.6220216155052185</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.202992677688599</v>
+        <v>0.04652590677142143</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.337031126022339</v>
+        <v>0.1972122490406036</v>
       </c>
       <c r="C17" t="n">
-        <v>2.606867074966431</v>
+        <v>0.5360792279243469</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.054872870445251</v>
+        <v>0.0205883402377367</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04044361412525177</v>
+        <v>0.08165294677019119</v>
       </c>
       <c r="C18" t="n">
-        <v>2.727148056030273</v>
+        <v>0.545799195766449</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.633682727813721</v>
+        <v>0.08033709973096848</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7100045680999756</v>
+        <v>0.08999749273061752</v>
       </c>
       <c r="C19" t="n">
-        <v>2.95545482635498</v>
+        <v>0.4379091262817383</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.370858907699585</v>
+        <v>0.03619604557752609</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.162471771240234</v>
+        <v>0.01306308340281248</v>
       </c>
       <c r="C20" t="n">
-        <v>3.353681564331055</v>
+        <v>0.5191113948822021</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.521391034126282</v>
+        <v>0.09377027302980423</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.677443265914917</v>
+        <v>0.1023073419928551</v>
       </c>
       <c r="C21" t="n">
-        <v>2.968257665634155</v>
+        <v>0.5603839755058289</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.447358369827271</v>
+        <v>0.1854858994483948</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.8831138014793396</v>
+        <v>0.02655475772917271</v>
       </c>
       <c r="C22" t="n">
-        <v>3.212965726852417</v>
+        <v>0.4991698265075684</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.708495616912842</v>
+        <v>0.1521946489810944</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.305978775024414</v>
+        <v>0.172091618180275</v>
       </c>
       <c r="C23" t="n">
-        <v>3.244256258010864</v>
+        <v>0.5006453394889832</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.456214427947998</v>
+        <v>0.1566583067178726</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.2543059587478638</v>
+        <v>0.07115543633699417</v>
       </c>
       <c r="C24" t="n">
-        <v>2.714632987976074</v>
+        <v>0.5060389637947083</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.334382772445679</v>
+        <v>0.2882515788078308</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.6788190603256226</v>
+        <v>0.05521903559565544</v>
       </c>
       <c r="C25" t="n">
-        <v>3.244707584381104</v>
+        <v>0.5816288590431213</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.971281409263611</v>
+        <v>0.2040673494338989</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9995938539505005</v>
+        <v>0.03972319886088371</v>
       </c>
       <c r="C26" t="n">
-        <v>3.369826316833496</v>
+        <v>0.498986542224884</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3856451511383057</v>
+        <v>0.1473858654499054</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.684980392456055</v>
+        <v>0.07370819896459579</v>
       </c>
       <c r="C27" t="n">
-        <v>2.815483093261719</v>
+        <v>0.5061451196670532</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.5312795042991638</v>
+        <v>0.1134487167000771</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1883990913629532</v>
+        <v>0.1009201481938362</v>
       </c>
       <c r="C28" t="n">
-        <v>2.026102304458618</v>
+        <v>0.5419064164161682</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.46208918094635</v>
+        <v>0.1527570784091949</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.26500403881073</v>
+        <v>0.1385980844497681</v>
       </c>
       <c r="C29" t="n">
-        <v>2.900983333587646</v>
+        <v>0.6184086203575134</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.432250261306763</v>
+        <v>0.1136038303375244</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7055529952049255</v>
+        <v>0.113719068467617</v>
       </c>
       <c r="C30" t="n">
-        <v>2.440014839172363</v>
+        <v>0.6592126488685608</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.164605855941772</v>
+        <v>0.1286772042512894</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8771007061004639</v>
+        <v>0.1116551458835602</v>
       </c>
       <c r="C31" t="n">
-        <v>2.219964265823364</v>
+        <v>0.5523536801338196</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.11794376373291</v>
+        <v>0.06594973802566528</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.110334753990173</v>
+        <v>-0.02271557413041592</v>
       </c>
       <c r="C32" t="n">
-        <v>1.561601161956787</v>
+        <v>0.5027321577072144</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.246446371078491</v>
+        <v>0.06301657855510712</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.010782718658447</v>
+        <v>0.1308074146509171</v>
       </c>
       <c r="C33" t="n">
-        <v>2.780438661575317</v>
+        <v>0.5176835656166077</v>
       </c>
       <c r="D33" t="n">
-        <v>-2.857572317123413</v>
+        <v>0.01946420408785343</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4347241222858429</v>
+        <v>0.1719772517681122</v>
       </c>
       <c r="C34" t="n">
-        <v>1.925309181213379</v>
+        <v>0.5605529546737671</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.097317218780518</v>
+        <v>0.06137813255190849</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.7398577928543091</v>
+        <v>0.2273672670125961</v>
       </c>
       <c r="C35" t="n">
-        <v>2.226913690567017</v>
+        <v>0.6468144655227661</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.134275913238525</v>
+        <v>0.1321207582950592</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.7542158961296082</v>
+        <v>0.1835594028234482</v>
       </c>
       <c r="C36" t="n">
-        <v>2.732164859771729</v>
+        <v>0.5375882387161255</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.606016874313354</v>
+        <v>0.1042741611599922</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.223383069038391</v>
+        <v>0.04755343124270439</v>
       </c>
       <c r="C37" t="n">
-        <v>2.219847679138184</v>
+        <v>0.53891521692276</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.552133321762085</v>
+        <v>0.1946424394845963</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.02022910118103</v>
+        <v>0.07829830795526505</v>
       </c>
       <c r="C38" t="n">
-        <v>2.705945491790771</v>
+        <v>0.5360898375511169</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.525189876556396</v>
+        <v>0.1556283831596375</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.216241717338562</v>
+        <v>0.1965966373682022</v>
       </c>
       <c r="C39" t="n">
-        <v>2.539835453033447</v>
+        <v>0.6160761713981628</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.775823473930359</v>
+        <v>0.1089486330747604</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.3846082091331482</v>
+        <v>0.111470602452755</v>
       </c>
       <c r="C40" t="n">
-        <v>2.822900772094727</v>
+        <v>0.6938254237174988</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.512126684188843</v>
+        <v>0.2475421130657196</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.963453471660614</v>
+        <v>0.1444618403911591</v>
       </c>
       <c r="C41" t="n">
-        <v>3.046106815338135</v>
+        <v>0.549928605556488</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.901671290397644</v>
+        <v>0.1185981184244156</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.5004552006721497</v>
+        <v>0.116052970290184</v>
       </c>
       <c r="C42" t="n">
-        <v>2.645145893096924</v>
+        <v>0.5311185717582703</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.786767959594727</v>
+        <v>0.1127984896302223</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.6184245944023132</v>
+        <v>0.121123693883419</v>
       </c>
       <c r="C43" t="n">
-        <v>2.771922826766968</v>
+        <v>0.5916528105735779</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.849390745162964</v>
+        <v>0.1224154010415077</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1284145563840866</v>
+        <v>0.1036228761076927</v>
       </c>
       <c r="C44" t="n">
-        <v>2.073021650314331</v>
+        <v>0.4648300111293793</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.211411476135254</v>
+        <v>0.1424781084060669</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.9471116662025452</v>
+        <v>0.05582135543227196</v>
       </c>
       <c r="C45" t="n">
-        <v>2.324576616287231</v>
+        <v>0.4947098791599274</v>
       </c>
       <c r="D45" t="n">
-        <v>-2.652820110321045</v>
+        <v>0.1150912344455719</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.8199066519737244</v>
+        <v>0.2190192043781281</v>
       </c>
       <c r="C46" t="n">
-        <v>2.540050983428955</v>
+        <v>0.559527575969696</v>
       </c>
       <c r="D46" t="n">
-        <v>-2.747024774551392</v>
+        <v>0.05523360148072243</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.13071309030056</v>
+        <v>0.1429036557674408</v>
       </c>
       <c r="C47" t="n">
-        <v>2.789366483688354</v>
+        <v>0.5453671813011169</v>
       </c>
       <c r="D47" t="n">
-        <v>-3.141976594924927</v>
+        <v>0.01024144981056452</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.9172031283378601</v>
+        <v>0.05322841927409172</v>
       </c>
       <c r="C48" t="n">
-        <v>2.479228973388672</v>
+        <v>0.503061056137085</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.207908987998962</v>
+        <v>0.04888462647795677</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.166106224060059</v>
+        <v>0.1334323137998581</v>
       </c>
       <c r="C49" t="n">
-        <v>2.888976812362671</v>
+        <v>0.5442084670066833</v>
       </c>
       <c r="D49" t="n">
-        <v>-2.684250593185425</v>
+        <v>0.08954867720603943</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.9322243928909302</v>
+        <v>0.2237621396780014</v>
       </c>
       <c r="C50" t="n">
-        <v>3.70857310295105</v>
+        <v>0.5923876166343689</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.204965114593506</v>
+        <v>0.09391260147094727</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.9475679397583008</v>
+        <v>0.09470541030168533</v>
       </c>
       <c r="C51" t="n">
-        <v>2.998929023742676</v>
+        <v>0.4896787703037262</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.9431632161140442</v>
+        <v>0.006256883032619953</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.3158732354640961</v>
+        <v>0.1994532495737076</v>
       </c>
       <c r="C52" t="n">
-        <v>2.093967914581299</v>
+        <v>0.4563771188259125</v>
       </c>
       <c r="D52" t="n">
-        <v>-2.524104595184326</v>
+        <v>-0.01540293078869581</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.4795219302177429</v>
+        <v>0.1076448634266853</v>
       </c>
       <c r="C53" t="n">
-        <v>3.11068058013916</v>
+        <v>0.5050166845321655</v>
       </c>
       <c r="D53" t="n">
-        <v>-3.120940685272217</v>
+        <v>0.08647772669792175</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.8010804057121277</v>
+        <v>0.1733231991529465</v>
       </c>
       <c r="C54" t="n">
-        <v>2.681333541870117</v>
+        <v>0.5106484889984131</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.8188073635101318</v>
+        <v>0.02311808429658413</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.118890181183815</v>
+        <v>0.1150006875395775</v>
       </c>
       <c r="C55" t="n">
-        <v>2.210697412490845</v>
+        <v>0.5151486992835999</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.63951563835144</v>
+        <v>0.01937470398843288</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.4684139788150787</v>
+        <v>0.07633045315742493</v>
       </c>
       <c r="C56" t="n">
-        <v>2.724540233612061</v>
+        <v>0.4980320632457733</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.153259038925171</v>
+        <v>0.1398186534643173</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.7034739851951599</v>
+        <v>0.1626120954751968</v>
       </c>
       <c r="C57" t="n">
-        <v>2.782922506332397</v>
+        <v>0.5571596026420593</v>
       </c>
       <c r="D57" t="n">
-        <v>-3.41963791847229</v>
+        <v>0.071137435734272</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.683932423591614</v>
+        <v>0.1398389488458633</v>
       </c>
       <c r="C58" t="n">
-        <v>2.812284469604492</v>
+        <v>0.587163507938385</v>
       </c>
       <c r="D58" t="n">
-        <v>-2.156219244003296</v>
+        <v>0.09481321275234222</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.02997069247066975</v>
+        <v>0.05337676033377647</v>
       </c>
       <c r="C59" t="n">
-        <v>2.683768749237061</v>
+        <v>0.5554571151733398</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.360248327255249</v>
+        <v>0.1010553985834122</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.482713580131531</v>
+        <v>0.0777006670832634</v>
       </c>
       <c r="C60" t="n">
-        <v>2.651588916778564</v>
+        <v>0.54763263463974</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.9806041717529297</v>
+        <v>0.04917282983660698</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.290082931518555</v>
+        <v>0.207658439874649</v>
       </c>
       <c r="C61" t="n">
-        <v>2.974184036254883</v>
+        <v>0.5803556442260742</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.075032949447632</v>
+        <v>0.0298185683786869</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.488647997379303</v>
+        <v>0.1230325177311897</v>
       </c>
       <c r="C62" t="n">
-        <v>2.516074895858765</v>
+        <v>0.4870482087135315</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.920093774795532</v>
+        <v>0.1241369917988777</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.5930905342102051</v>
+        <v>0.02488737739622593</v>
       </c>
       <c r="C63" t="n">
-        <v>2.584767818450928</v>
+        <v>0.4240522980690002</v>
       </c>
       <c r="D63" t="n">
-        <v>-2.139019727706909</v>
+        <v>0.1262757629156113</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4234676361083984</v>
+        <v>0.09510289877653122</v>
       </c>
       <c r="C64" t="n">
-        <v>1.324214100837708</v>
+        <v>0.5873737335205078</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.747314095497131</v>
+        <v>0.02118951454758644</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2081976681947708</v>
+        <v>0.1577993482351303</v>
       </c>
       <c r="C65" t="n">
-        <v>2.107398986816406</v>
+        <v>0.534861147403717</v>
       </c>
       <c r="D65" t="n">
-        <v>-2.655234098434448</v>
+        <v>0.03820369765162468</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1741292923688889</v>
+        <v>0.157509058713913</v>
       </c>
       <c r="C66" t="n">
-        <v>2.793160915374756</v>
+        <v>0.5524560809135437</v>
       </c>
       <c r="D66" t="n">
-        <v>-3.183585405349731</v>
+        <v>0.09137734770774841</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.4885458946228027</v>
+        <v>0.09702401608228683</v>
       </c>
       <c r="C67" t="n">
-        <v>2.719818115234375</v>
+        <v>0.5789036154747009</v>
       </c>
       <c r="D67" t="n">
-        <v>-2.520611763000488</v>
+        <v>0.09841126948595047</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.195081830024719</v>
+        <v>0.07359132915735245</v>
       </c>
       <c r="C68" t="n">
-        <v>1.992021322250366</v>
+        <v>0.5067910552024841</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.8537293076515198</v>
+        <v>0.1263680905103683</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.517480611801147</v>
+        <v>0.2353139072656631</v>
       </c>
       <c r="C69" t="n">
-        <v>2.763213396072388</v>
+        <v>0.56638103723526</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.4741838276386261</v>
+        <v>0.01788233034312725</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.553846538066864</v>
+        <v>0.2355055660009384</v>
       </c>
       <c r="C70" t="n">
-        <v>2.365212678909302</v>
+        <v>0.5850918292999268</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.247249603271484</v>
+        <v>-0.04375916719436646</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.357198715209961</v>
+        <v>0.08186025172472</v>
       </c>
       <c r="C71" t="n">
-        <v>2.914249420166016</v>
+        <v>0.4646877646446228</v>
       </c>
       <c r="D71" t="n">
-        <v>-2.146035432815552</v>
+        <v>0.05154560878872871</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.357436537742615</v>
+        <v>0.1339517682790756</v>
       </c>
       <c r="C72" t="n">
-        <v>2.813917398452759</v>
+        <v>0.5191708207130432</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.6862285137176514</v>
+        <v>-0.06979513168334961</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.055888533592224</v>
+        <v>0.2509458661079407</v>
       </c>
       <c r="C73" t="n">
-        <v>2.832605361938477</v>
+        <v>0.6546225547790527</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.458945989608765</v>
+        <v>-0.01732723228633404</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.4020789563655853</v>
+        <v>0.04987558349967003</v>
       </c>
       <c r="C74" t="n">
-        <v>2.79753303527832</v>
+        <v>0.5490953922271729</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.657848000526428</v>
+        <v>0.1109166443347931</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.178757667541504</v>
+        <v>0.1362334936857224</v>
       </c>
       <c r="C75" t="n">
-        <v>3.386549949645996</v>
+        <v>0.4911730587482452</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.316391468048096</v>
+        <v>0.1114518791437149</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.95061194896698</v>
+        <v>0.1401374787092209</v>
       </c>
       <c r="C76" t="n">
-        <v>3.004891633987427</v>
+        <v>0.4817151725292206</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.169356226921082</v>
+        <v>0.04455163702368736</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.4112202525138855</v>
+        <v>0.1593258529901505</v>
       </c>
       <c r="C77" t="n">
-        <v>3.116625785827637</v>
+        <v>0.5429173707962036</v>
       </c>
       <c r="D77" t="n">
-        <v>-1.608122229576111</v>
+        <v>0.08671680092811584</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.06164945662021637</v>
+        <v>0.1881040036678314</v>
       </c>
       <c r="C78" t="n">
-        <v>2.991785526275635</v>
+        <v>0.5192814469337463</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.801103830337524</v>
+        <v>0.0516691617667675</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7941076755523682</v>
+        <v>0.1646206378936768</v>
       </c>
       <c r="C79" t="n">
-        <v>2.497849941253662</v>
+        <v>0.5282573103904724</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.401239633560181</v>
+        <v>-0.06835752725601196</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.671526312828064</v>
+        <v>0.2728145122528076</v>
       </c>
       <c r="C80" t="n">
-        <v>3.109513282775879</v>
+        <v>0.6815907955169678</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.501201272010803</v>
+        <v>0.001706506358459592</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7230982780456543</v>
+        <v>-0.02542976103723049</v>
       </c>
       <c r="C81" t="n">
-        <v>1.651334047317505</v>
+        <v>0.4535349011421204</v>
       </c>
       <c r="D81" t="n">
-        <v>-3.195264101028442</v>
+        <v>0.160088837146759</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.8704569935798645</v>
+        <v>0.08347503840923309</v>
       </c>
       <c r="C82" t="n">
-        <v>2.206838130950928</v>
+        <v>0.5452614426612854</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.099246144294739</v>
+        <v>0.03040315769612789</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.763100266456604</v>
+        <v>0.07036586850881577</v>
       </c>
       <c r="C83" t="n">
-        <v>2.944281101226807</v>
+        <v>0.5365057587623596</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.6541306972503662</v>
+        <v>0.1879780739545822</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.171830296516418</v>
+        <v>0.1707049608230591</v>
       </c>
       <c r="C84" t="n">
-        <v>2.696371555328369</v>
+        <v>0.4902692437171936</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.9975859522819519</v>
+        <v>0.1035857647657394</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9963387846946716</v>
+        <v>0.07022690027952194</v>
       </c>
       <c r="C85" t="n">
-        <v>2.130046367645264</v>
+        <v>0.5845558047294617</v>
       </c>
       <c r="D85" t="n">
-        <v>-2.969213485717773</v>
+        <v>0.1393623501062393</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5483546853065491</v>
+        <v>0.09284288436174393</v>
       </c>
       <c r="C86" t="n">
-        <v>2.237975835800171</v>
+        <v>0.4985710680484772</v>
       </c>
       <c r="D86" t="n">
-        <v>-3.314792633056641</v>
+        <v>0.1068949401378632</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5335227251052856</v>
+        <v>0.121464803814888</v>
       </c>
       <c r="C87" t="n">
-        <v>2.041919469833374</v>
+        <v>0.5049054026603699</v>
       </c>
       <c r="D87" t="n">
-        <v>-2.529680490493774</v>
+        <v>0.0619594119489193</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.076672554016113</v>
+        <v>0.07673913240432739</v>
       </c>
       <c r="C88" t="n">
-        <v>2.607130527496338</v>
+        <v>0.4327284395694733</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9923837184906006</v>
+        <v>0.02142463065683842</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.184125542640686</v>
+        <v>0.09006821364164352</v>
       </c>
       <c r="C89" t="n">
-        <v>2.947640180587769</v>
+        <v>0.5916282534599304</v>
       </c>
       <c r="D89" t="n">
-        <v>-2.020661592483521</v>
+        <v>0.1075244843959808</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.7557896971702576</v>
+        <v>0.02375883050262928</v>
       </c>
       <c r="C90" t="n">
-        <v>2.485661029815674</v>
+        <v>0.4874804019927979</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.571358323097229</v>
+        <v>0.02173546515405178</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6834738850593567</v>
+        <v>0.162071019411087</v>
       </c>
       <c r="C91" t="n">
-        <v>2.480474472045898</v>
+        <v>0.50520920753479</v>
       </c>
       <c r="D91" t="n">
-        <v>-2.889901876449585</v>
+        <v>0.1928565353155136</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.5053287148475647</v>
+        <v>0.04986892268061638</v>
       </c>
       <c r="C92" t="n">
-        <v>2.998734474182129</v>
+        <v>0.5181270241737366</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.969180226325989</v>
+        <v>0.1724725067615509</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.9404546618461609</v>
+        <v>0.1643132418394089</v>
       </c>
       <c r="C93" t="n">
-        <v>3.00767707824707</v>
+        <v>0.5331863760948181</v>
       </c>
       <c r="D93" t="n">
-        <v>-2.649729013442993</v>
+        <v>0.1029441356658936</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1434127241373062</v>
+        <v>0.1551390439271927</v>
       </c>
       <c r="C94" t="n">
-        <v>1.987927913665771</v>
+        <v>0.6161159873008728</v>
       </c>
       <c r="D94" t="n">
-        <v>-2.292001008987427</v>
+        <v>0.09876052290201187</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.3309916257858276</v>
+        <v>0.136905625462532</v>
       </c>
       <c r="C95" t="n">
-        <v>2.259753704071045</v>
+        <v>0.6163746118545532</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.566121935844421</v>
+        <v>0.1306612193584442</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.8890354633331299</v>
+        <v>0.3016915917396545</v>
       </c>
       <c r="C96" t="n">
-        <v>2.960074901580811</v>
+        <v>0.641617476940155</v>
       </c>
       <c r="D96" t="n">
-        <v>-2.336275100708008</v>
+        <v>0.01601788215339184</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.9703930020332336</v>
+        <v>0.1869113892316818</v>
       </c>
       <c r="C97" t="n">
-        <v>2.750790596008301</v>
+        <v>0.5708007216453552</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.210345268249512</v>
+        <v>0.1072707399725914</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.9272264838218689</v>
+        <v>0.2391055077314377</v>
       </c>
       <c r="C98" t="n">
-        <v>3.226918458938599</v>
+        <v>0.5427188277244568</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.861110329627991</v>
+        <v>0.08349636197090149</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.328198432922363</v>
+        <v>0.1637183874845505</v>
       </c>
       <c r="C99" t="n">
-        <v>2.742452144622803</v>
+        <v>0.5249680280685425</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.809819936752319</v>
+        <v>0.08849127590656281</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3998074531555176</v>
+        <v>0.1050450652837753</v>
       </c>
       <c r="C100" t="n">
-        <v>1.679776906967163</v>
+        <v>0.4526727795600891</v>
       </c>
       <c r="D100" t="n">
-        <v>-2.9461829662323</v>
+        <v>0.1226329877972603</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.8747974038124084</v>
+        <v>0.1573960334062576</v>
       </c>
       <c r="C101" t="n">
-        <v>3.324434280395508</v>
+        <v>0.6329540610313416</v>
       </c>
       <c r="D101" t="n">
-        <v>-2.185730934143066</v>
+        <v>0.1462297439575195</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.2798991799354553</v>
+        <v>0.1519260555505753</v>
       </c>
       <c r="C102" t="n">
-        <v>2.609633922576904</v>
+        <v>0.5009966492652893</v>
       </c>
       <c r="D102" t="n">
-        <v>-2.198550701141357</v>
+        <v>0.03307683393359184</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7735123038291931</v>
+        <v>0.0903262123465538</v>
       </c>
       <c r="C103" t="n">
-        <v>2.174245834350586</v>
+        <v>0.5241944789886475</v>
       </c>
       <c r="D103" t="n">
-        <v>-2.167394161224365</v>
+        <v>0.1181623041629791</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.6396452784538269</v>
+        <v>0.2049719989299774</v>
       </c>
       <c r="C104" t="n">
-        <v>2.650624752044678</v>
+        <v>0.5433792471885681</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.9995131492614746</v>
+        <v>0.1030216962099075</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.55285918712616</v>
+        <v>0.09161480516195297</v>
       </c>
       <c r="C105" t="n">
-        <v>2.749807834625244</v>
+        <v>0.4510296285152435</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.8355803489685059</v>
+        <v>0.05790218710899353</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.9978388547897339</v>
+        <v>0.1266292482614517</v>
       </c>
       <c r="C106" t="n">
-        <v>2.431636810302734</v>
+        <v>0.468980997800827</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.6395307779312134</v>
+        <v>-0.004542979411780834</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.3436843156814575</v>
+        <v>0.1503335684537888</v>
       </c>
       <c r="C107" t="n">
-        <v>2.985452890396118</v>
+        <v>0.6163461804389954</v>
       </c>
       <c r="D107" t="n">
-        <v>-2.563382863998413</v>
+        <v>0.07063088566064835</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.8408858180046082</v>
+        <v>0.1189377382397652</v>
       </c>
       <c r="C108" t="n">
-        <v>3.178272485733032</v>
+        <v>0.592658519744873</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.295139908790588</v>
+        <v>0.07974542677402496</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.446580708026886</v>
+        <v>0.1188308373093605</v>
       </c>
       <c r="C109" t="n">
-        <v>2.663729190826416</v>
+        <v>0.6118215918540955</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.656183362007141</v>
+        <v>0.05489913001656532</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.8213402628898621</v>
+        <v>0.07507804781198502</v>
       </c>
       <c r="C110" t="n">
-        <v>2.530843019485474</v>
+        <v>0.6017956137657166</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.840479731559753</v>
+        <v>0.1462341248989105</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.977575957775116</v>
+        <v>0.09929295629262924</v>
       </c>
       <c r="C111" t="n">
-        <v>2.920155048370361</v>
+        <v>0.6005297303199768</v>
       </c>
       <c r="D111" t="n">
-        <v>-2.214459419250488</v>
+        <v>0.07992662489414215</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.4550247192382812</v>
+        <v>0.2103678435087204</v>
       </c>
       <c r="C112" t="n">
-        <v>2.563155174255371</v>
+        <v>0.5867858529090881</v>
       </c>
       <c r="D112" t="n">
-        <v>-2.503802537918091</v>
+        <v>0.0120377205312252</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9755793213844299</v>
+        <v>0.1395814716815948</v>
       </c>
       <c r="C113" t="n">
-        <v>2.730846405029297</v>
+        <v>0.5510461330413818</v>
       </c>
       <c r="D113" t="n">
-        <v>-2.079519987106323</v>
+        <v>0.07879920303821564</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.6654877066612244</v>
+        <v>0.1413403302431107</v>
       </c>
       <c r="C114" t="n">
-        <v>2.820464611053467</v>
+        <v>0.6282359957695007</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.191446542739868</v>
+        <v>0.1530267298221588</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.1836546510457993</v>
+        <v>0.1068493947386742</v>
       </c>
       <c r="C115" t="n">
-        <v>2.294068813323975</v>
+        <v>0.5348249077796936</v>
       </c>
       <c r="D115" t="n">
-        <v>-2.522449731826782</v>
+        <v>0.1117778196930885</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.4059932231903076</v>
+        <v>0.1241657212376595</v>
       </c>
       <c r="C116" t="n">
-        <v>1.835129976272583</v>
+        <v>0.5653997659683228</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.916724801063538</v>
+        <v>0.1344164907932281</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1528186351060867</v>
+        <v>0.2337189018726349</v>
       </c>
       <c r="C117" t="n">
-        <v>1.564102172851562</v>
+        <v>0.5180363059043884</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.913469314575195</v>
+        <v>-0.03597306832671165</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.9837762117385864</v>
+        <v>0.1181073561310768</v>
       </c>
       <c r="C118" t="n">
-        <v>2.784236907958984</v>
+        <v>0.4998072683811188</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.67255175113678</v>
+        <v>0.0149579020217061</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.9012995958328247</v>
+        <v>0.1985862404108047</v>
       </c>
       <c r="C119" t="n">
-        <v>2.854897499084473</v>
+        <v>0.6306437849998474</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.596166253089905</v>
+        <v>0.1544474810361862</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.033952355384827</v>
+        <v>0.07173646241426468</v>
       </c>
       <c r="C120" t="n">
-        <v>2.509427785873413</v>
+        <v>0.4732309579849243</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3012361228466034</v>
+        <v>0.06312479078769684</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.479771226644516</v>
+        <v>0.2288509756326675</v>
       </c>
       <c r="C121" t="n">
-        <v>2.373892784118652</v>
+        <v>0.6433165669441223</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.561269640922546</v>
+        <v>0.0878431424498558</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1253072768449783</v>
+        <v>0.07822001725435257</v>
       </c>
       <c r="C122" t="n">
-        <v>2.31972074508667</v>
+        <v>0.5771337747573853</v>
       </c>
       <c r="D122" t="n">
-        <v>-2.481790781021118</v>
+        <v>0.1253738403320312</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.1101024597883224</v>
+        <v>0.1725708544254303</v>
       </c>
       <c r="C123" t="n">
-        <v>2.193583726882935</v>
+        <v>0.5917759537696838</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.309753894805908</v>
+        <v>0.0580790601670742</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01080132927745581</v>
+        <v>0.1314625889062881</v>
       </c>
       <c r="C124" t="n">
-        <v>3.192324638366699</v>
+        <v>0.4740045070648193</v>
       </c>
       <c r="D124" t="n">
-        <v>-2.136910438537598</v>
+        <v>0.09510848671197891</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.0379515141248703</v>
+        <v>0.1127684190869331</v>
       </c>
       <c r="C125" t="n">
-        <v>3.046816349029541</v>
+        <v>0.6229197382926941</v>
       </c>
       <c r="D125" t="n">
-        <v>-2.973074913024902</v>
+        <v>0.1614130437374115</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.9787843823432922</v>
+        <v>0.09868337959051132</v>
       </c>
       <c r="C126" t="n">
-        <v>3.355587959289551</v>
+        <v>0.5164270401000977</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.757066488265991</v>
+        <v>0.07733816653490067</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.01276634726673365</v>
+        <v>0.121981106698513</v>
       </c>
       <c r="C127" t="n">
-        <v>2.365303516387939</v>
+        <v>0.5952465534210205</v>
       </c>
       <c r="D127" t="n">
-        <v>-2.49042010307312</v>
+        <v>0.1376023292541504</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.3014538884162903</v>
+        <v>0.1729813069105148</v>
       </c>
       <c r="C128" t="n">
-        <v>1.952905297279358</v>
+        <v>0.572270929813385</v>
       </c>
       <c r="D128" t="n">
-        <v>-2.187961101531982</v>
+        <v>0.07689632475376129</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.7955754399299622</v>
+        <v>0.0965007022023201</v>
       </c>
       <c r="C129" t="n">
-        <v>2.413711547851562</v>
+        <v>0.6153484582901001</v>
       </c>
       <c r="D129" t="n">
-        <v>-2.708900213241577</v>
+        <v>0.1283967345952988</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.522685885429382</v>
+        <v>0.2010617405176163</v>
       </c>
       <c r="C130" t="n">
-        <v>2.711300373077393</v>
+        <v>0.6088061332702637</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.895492315292358</v>
+        <v>0.06743869185447693</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.1026023477315903</v>
+        <v>0.1738298684358597</v>
       </c>
       <c r="C131" t="n">
-        <v>2.330139636993408</v>
+        <v>0.6086544990539551</v>
       </c>
       <c r="D131" t="n">
-        <v>-2.822252035140991</v>
+        <v>0.1163199841976166</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.110028624534607</v>
+        <v>0.1388346552848816</v>
       </c>
       <c r="C132" t="n">
-        <v>2.851419448852539</v>
+        <v>0.5681337714195251</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.775327324867249</v>
+        <v>0.1260625720024109</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.4654532074928284</v>
+        <v>0.1308149546384811</v>
       </c>
       <c r="C133" t="n">
-        <v>2.626495361328125</v>
+        <v>0.5076395273208618</v>
       </c>
       <c r="D133" t="n">
-        <v>-2.168046236038208</v>
+        <v>0.1324473321437836</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.3531312048435211</v>
+        <v>0.144486591219902</v>
       </c>
       <c r="C134" t="n">
-        <v>1.904123067855835</v>
+        <v>0.5785191655158997</v>
       </c>
       <c r="D134" t="n">
-        <v>-2.8200364112854</v>
+        <v>0.1220158934593201</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.5493327975273132</v>
+        <v>0.175969585776329</v>
       </c>
       <c r="C135" t="n">
-        <v>2.471745491027832</v>
+        <v>0.6438291668891907</v>
       </c>
       <c r="D135" t="n">
-        <v>-2.908477067947388</v>
+        <v>0.03735570982098579</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.422419309616089</v>
+        <v>0.1899817734956741</v>
       </c>
       <c r="C136" t="n">
-        <v>2.577514171600342</v>
+        <v>0.5706754326820374</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.195331692695618</v>
+        <v>0.04267612844705582</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.6595763564109802</v>
+        <v>0.1486494690179825</v>
       </c>
       <c r="C137" t="n">
-        <v>2.865520000457764</v>
+        <v>0.5136723518371582</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.498514652252197</v>
+        <v>0.1027317196130753</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.5483350157737732</v>
+        <v>0.1488807648420334</v>
       </c>
       <c r="C138" t="n">
-        <v>2.384876489639282</v>
+        <v>0.5195194482803345</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.696082830429077</v>
+        <v>0.1473018825054169</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.116274833679199</v>
+        <v>0.1464038491249084</v>
       </c>
       <c r="C139" t="n">
-        <v>2.692085266113281</v>
+        <v>0.6152299642562866</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.723200917243958</v>
+        <v>0.1586078703403473</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.3143432140350342</v>
+        <v>0.1078426167368889</v>
       </c>
       <c r="C140" t="n">
-        <v>2.381793737411499</v>
+        <v>0.4840114116668701</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.337464928627014</v>
+        <v>0.09347274154424667</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.5470981597900391</v>
+        <v>0.2310776561498642</v>
       </c>
       <c r="C141" t="n">
-        <v>2.190647125244141</v>
+        <v>0.6415677666664124</v>
       </c>
       <c r="D141" t="n">
-        <v>-2.439087152481079</v>
+        <v>0.1026757508516312</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7785839438438416</v>
+        <v>0.1905202120542526</v>
       </c>
       <c r="C142" t="n">
-        <v>2.658176422119141</v>
+        <v>0.530373752117157</v>
       </c>
       <c r="D142" t="n">
-        <v>-2.904695510864258</v>
+        <v>0.01504157949239016</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.42203962802887</v>
+        <v>0.1648849546909332</v>
       </c>
       <c r="C143" t="n">
-        <v>2.298576593399048</v>
+        <v>0.5605703592300415</v>
       </c>
       <c r="D143" t="n">
-        <v>-3.454046726226807</v>
+        <v>0.1145467013120651</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.2874792218208313</v>
+        <v>0.161831721663475</v>
       </c>
       <c r="C144" t="n">
-        <v>2.930075645446777</v>
+        <v>0.6088394522666931</v>
       </c>
       <c r="D144" t="n">
-        <v>-2.258984804153442</v>
+        <v>0.09112348407506943</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.3790245354175568</v>
+        <v>0.2251298129558563</v>
       </c>
       <c r="C145" t="n">
-        <v>2.051065921783447</v>
+        <v>0.5957922339439392</v>
       </c>
       <c r="D145" t="n">
-        <v>-2.57761025428772</v>
+        <v>0.08266371488571167</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.4136880040168762</v>
+        <v>0.1205165162682533</v>
       </c>
       <c r="C146" t="n">
-        <v>2.742849349975586</v>
+        <v>0.6088241934776306</v>
       </c>
       <c r="D146" t="n">
-        <v>-3.122485637664795</v>
+        <v>0.09345109760761261</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.152801156044006</v>
+        <v>0.2295078337192535</v>
       </c>
       <c r="C147" t="n">
-        <v>3.068286418914795</v>
+        <v>0.5521632432937622</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.9815106391906738</v>
+        <v>-0.1471118032932281</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.143734812736511</v>
+        <v>0.1195634230971336</v>
       </c>
       <c r="C148" t="n">
-        <v>3.098007440567017</v>
+        <v>0.5744851231575012</v>
       </c>
       <c r="D148" t="n">
-        <v>-2.678860902786255</v>
+        <v>0.1144713088870049</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.8939276337623596</v>
+        <v>0.01894163526594639</v>
       </c>
       <c r="C149" t="n">
-        <v>3.143153667449951</v>
+        <v>0.5701867938041687</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.273784875869751</v>
+        <v>0.2055918574333191</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.2613751888275146</v>
+        <v>0.1350794583559036</v>
       </c>
       <c r="C150" t="n">
-        <v>2.29957914352417</v>
+        <v>0.521120548248291</v>
       </c>
       <c r="D150" t="n">
-        <v>-2.018271446228027</v>
+        <v>0.04523782804608345</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.1583762913942337</v>
+        <v>0.1405653804540634</v>
       </c>
       <c r="C151" t="n">
-        <v>1.965579867362976</v>
+        <v>0.6257995963096619</v>
       </c>
       <c r="D151" t="n">
-        <v>-2.394468307495117</v>
+        <v>0.0940893292427063</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.818950355052948</v>
+        <v>0.1364131271839142</v>
       </c>
       <c r="C152" t="n">
-        <v>2.990687370300293</v>
+        <v>0.6575526595115662</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.835448861122131</v>
+        <v>0.1158008724451065</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.606237530708313</v>
+        <v>0.1364173293113708</v>
       </c>
       <c r="C153" t="n">
-        <v>2.795551300048828</v>
+        <v>0.5399072170257568</v>
       </c>
       <c r="D153" t="n">
-        <v>-2.779171705245972</v>
+        <v>0.05190527811646461</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.5255619883537292</v>
+        <v>0.2123256027698517</v>
       </c>
       <c r="C154" t="n">
-        <v>2.901549816131592</v>
+        <v>0.6427885890007019</v>
       </c>
       <c r="D154" t="n">
-        <v>-2.30988883972168</v>
+        <v>0.03396761044859886</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.9185872077941895</v>
+        <v>0.182495966553688</v>
       </c>
       <c r="C155" t="n">
-        <v>3.366683483123779</v>
+        <v>0.6206409335136414</v>
       </c>
       <c r="D155" t="n">
-        <v>-2.145197153091431</v>
+        <v>0.1514237225055695</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.1121131628751755</v>
+        <v>0.2338626086711884</v>
       </c>
       <c r="C156" t="n">
-        <v>2.369871616363525</v>
+        <v>0.6430934071540833</v>
       </c>
       <c r="D156" t="n">
-        <v>-2.442736864089966</v>
+        <v>0.04316167533397675</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.2770121097564697</v>
+        <v>0.1552294939756393</v>
       </c>
       <c r="C157" t="n">
-        <v>2.786565065383911</v>
+        <v>0.6725196242332458</v>
       </c>
       <c r="D157" t="n">
-        <v>-2.439266204833984</v>
+        <v>0.06542844325304031</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.8000766038894653</v>
+        <v>0.1056032255291939</v>
       </c>
       <c r="C158" t="n">
-        <v>2.907303094863892</v>
+        <v>0.5832374691963196</v>
       </c>
       <c r="D158" t="n">
-        <v>-2.785795450210571</v>
+        <v>0.06803485751152039</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.882569432258606</v>
+        <v>0.01779888011515141</v>
       </c>
       <c r="C159" t="n">
-        <v>2.977059364318848</v>
+        <v>0.4048627614974976</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.624757885932922</v>
+        <v>0.09391216933727264</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.010848760604858</v>
+        <v>0.1218856051564217</v>
       </c>
       <c r="C160" t="n">
-        <v>2.419849634170532</v>
+        <v>0.5453858971595764</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.585753679275513</v>
+        <v>0.06385773420333862</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.2329802364110947</v>
+        <v>-0.01271938253194094</v>
       </c>
       <c r="C161" t="n">
-        <v>2.43664813041687</v>
+        <v>0.5148493647575378</v>
       </c>
       <c r="D161" t="n">
-        <v>-3.668092966079712</v>
+        <v>0.2043352127075195</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.5933074355125427</v>
+        <v>0.1223578825592995</v>
       </c>
       <c r="C162" t="n">
-        <v>2.691363096237183</v>
+        <v>0.5638776421546936</v>
       </c>
       <c r="D162" t="n">
-        <v>-3.71159029006958</v>
+        <v>0.200715571641922</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.280886650085449</v>
+        <v>0.2056871205568314</v>
       </c>
       <c r="C163" t="n">
-        <v>2.672097682952881</v>
+        <v>0.5679391026496887</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.7476021647453308</v>
+        <v>0.04517554491758347</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.93551105260849</v>
+        <v>0.1565752476453781</v>
       </c>
       <c r="C164" t="n">
-        <v>2.565639495849609</v>
+        <v>0.4955499470233917</v>
       </c>
       <c r="D164" t="n">
-        <v>-1.965950608253479</v>
+        <v>0.1073924750089645</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.3296723365783691</v>
+        <v>0.19988913834095</v>
       </c>
       <c r="C165" t="n">
-        <v>2.842409610748291</v>
+        <v>0.5863000750541687</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.489600419998169</v>
+        <v>0.07823420315980911</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.244098663330078</v>
+        <v>0.2912623286247253</v>
       </c>
       <c r="C166" t="n">
-        <v>3.743360042572021</v>
+        <v>0.5432610511779785</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.672225117683411</v>
+        <v>-0.04166164621710777</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.701649188995361</v>
+        <v>0.2396763563156128</v>
       </c>
       <c r="C167" t="n">
-        <v>3.064100742340088</v>
+        <v>0.5202057957649231</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5418981909751892</v>
+        <v>-0.1299669295549393</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.2585448622703552</v>
+        <v>0.07505691796541214</v>
       </c>
       <c r="C168" t="n">
-        <v>3.657612800598145</v>
+        <v>0.5672600865364075</v>
       </c>
       <c r="D168" t="n">
-        <v>-2.098395347595215</v>
+        <v>0.0777861699461937</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.3387072086334229</v>
+        <v>0.1696631461381912</v>
       </c>
       <c r="C169" t="n">
-        <v>3.175724506378174</v>
+        <v>0.4690539836883545</v>
       </c>
       <c r="D169" t="n">
-        <v>-1.838647723197937</v>
+        <v>0.0157556589692831</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.5901643633842468</v>
+        <v>0.1175089552998543</v>
       </c>
       <c r="C170" t="n">
-        <v>2.867895126342773</v>
+        <v>0.5878593325614929</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.636743068695068</v>
+        <v>0.1588592678308487</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.5199689269065857</v>
+        <v>0.1123499944806099</v>
       </c>
       <c r="C171" t="n">
-        <v>2.706459999084473</v>
+        <v>0.5026571154594421</v>
       </c>
       <c r="D171" t="n">
-        <v>-2.100284337997437</v>
+        <v>0.1100115776062012</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.9304181933403015</v>
+        <v>0.135421097278595</v>
       </c>
       <c r="C172" t="n">
-        <v>3.144453763961792</v>
+        <v>0.6360155940055847</v>
       </c>
       <c r="D172" t="n">
-        <v>-2.221419334411621</v>
+        <v>0.1266202926635742</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.524065375328064</v>
+        <v>0.07603784650564194</v>
       </c>
       <c r="C173" t="n">
-        <v>2.979317665100098</v>
+        <v>0.5345140099525452</v>
       </c>
       <c r="D173" t="n">
-        <v>-2.255646944046021</v>
+        <v>0.06066394969820976</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.083665490150452</v>
+        <v>0.05378533527255058</v>
       </c>
       <c r="C174" t="n">
-        <v>3.340526103973389</v>
+        <v>0.5720767378807068</v>
       </c>
       <c r="D174" t="n">
-        <v>-1.212284207344055</v>
+        <v>0.05932668969035149</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.03154456615448</v>
+        <v>0.1660068482160568</v>
       </c>
       <c r="C175" t="n">
-        <v>3.070977687835693</v>
+        <v>0.6070438027381897</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.818967878818512</v>
+        <v>0.04389679059386253</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.8877668976783752</v>
+        <v>0.08776926249265671</v>
       </c>
       <c r="C176" t="n">
-        <v>3.165449380874634</v>
+        <v>0.528921365737915</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.666453123092651</v>
+        <v>0.05530607327818871</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.7804108262062073</v>
+        <v>0.1528593450784683</v>
       </c>
       <c r="C177" t="n">
-        <v>2.915102243423462</v>
+        <v>0.5448827743530273</v>
       </c>
       <c r="D177" t="n">
-        <v>-2.465079069137573</v>
+        <v>0.09858362376689911</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.7651728987693787</v>
+        <v>0.131092831492424</v>
       </c>
       <c r="C178" t="n">
-        <v>1.945337772369385</v>
+        <v>0.5580611228942871</v>
       </c>
       <c r="D178" t="n">
-        <v>-1.940573573112488</v>
+        <v>0.02327783592045307</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.476065754890442</v>
+        <v>0.1350223273038864</v>
       </c>
       <c r="C179" t="n">
-        <v>2.08601713180542</v>
+        <v>0.5932626128196716</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.5709048509597778</v>
+        <v>0.08021831512451172</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.9315410256385803</v>
+        <v>0.1280303448438644</v>
       </c>
       <c r="C180" t="n">
-        <v>2.827013731002808</v>
+        <v>0.6029220223426819</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.00144898891449</v>
+        <v>0.08445297926664352</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.7272965312004089</v>
+        <v>0.216816708445549</v>
       </c>
       <c r="C181" t="n">
-        <v>2.356318473815918</v>
+        <v>0.5411830544471741</v>
       </c>
       <c r="D181" t="n">
-        <v>-1.629441857337952</v>
+        <v>-0.03892189636826515</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.7484284043312073</v>
+        <v>0.1116592362523079</v>
       </c>
       <c r="C182" t="n">
-        <v>2.71378755569458</v>
+        <v>0.5637579560279846</v>
       </c>
       <c r="D182" t="n">
-        <v>-2.677747011184692</v>
+        <v>0.05884186923503876</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.819444477558136</v>
+        <v>0.05164312943816185</v>
       </c>
       <c r="C183" t="n">
-        <v>2.609653234481812</v>
+        <v>0.5018234848976135</v>
       </c>
       <c r="D183" t="n">
-        <v>-3.365021944046021</v>
+        <v>0.08428908884525299</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.8578826189041138</v>
+        <v>-0.01807067357003689</v>
       </c>
       <c r="C184" t="n">
-        <v>3.021438121795654</v>
+        <v>0.5893787741661072</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.349723935127258</v>
+        <v>0.06474022567272186</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.9442059993743896</v>
+        <v>0.180108055472374</v>
       </c>
       <c r="C185" t="n">
-        <v>2.621084451675415</v>
+        <v>0.6426395177841187</v>
       </c>
       <c r="D185" t="n">
-        <v>-1.431499600410461</v>
+        <v>0.02702315337955952</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.04472692310810089</v>
+        <v>0.085527203977108</v>
       </c>
       <c r="C186" t="n">
-        <v>2.38057541847229</v>
+        <v>0.5092797875404358</v>
       </c>
       <c r="D186" t="n">
-        <v>-2.556445121765137</v>
+        <v>0.1350874602794647</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.811017751693726</v>
+        <v>0.05238116905093193</v>
       </c>
       <c r="C187" t="n">
-        <v>3.33123779296875</v>
+        <v>0.4938360154628754</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.562995076179504</v>
+        <v>0.05466179922223091</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.31081485748291</v>
+        <v>0.1758278608322144</v>
       </c>
       <c r="C188" t="n">
-        <v>2.771980762481689</v>
+        <v>0.5138023495674133</v>
       </c>
       <c r="D188" t="n">
-        <v>-2.840275049209595</v>
+        <v>0.04410858824849129</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.5337708592414856</v>
+        <v>0.1678186804056168</v>
       </c>
       <c r="C189" t="n">
-        <v>3.004469156265259</v>
+        <v>0.5627994537353516</v>
       </c>
       <c r="D189" t="n">
-        <v>-1.978338479995728</v>
+        <v>0.09753672033548355</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.2879749536514282</v>
+        <v>0.1204847097396851</v>
       </c>
       <c r="C190" t="n">
-        <v>2.338520526885986</v>
+        <v>0.5136083960533142</v>
       </c>
       <c r="D190" t="n">
-        <v>-2.2556312084198</v>
+        <v>0.03079259395599365</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1921820193529129</v>
+        <v>0.159825012087822</v>
       </c>
       <c r="C191" t="n">
-        <v>2.033028602600098</v>
+        <v>0.6097662448883057</v>
       </c>
       <c r="D191" t="n">
-        <v>-2.178157329559326</v>
+        <v>0.05676373466849327</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.0477360337972641</v>
+        <v>0.2087191492319107</v>
       </c>
       <c r="C192" t="n">
-        <v>2.923799753189087</v>
+        <v>0.5350201725959778</v>
       </c>
       <c r="D192" t="n">
-        <v>-2.040166854858398</v>
+        <v>0.06214279681444168</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.7318056225776672</v>
+        <v>0.06094231083989143</v>
       </c>
       <c r="C193" t="n">
-        <v>1.958497166633606</v>
+        <v>0.5068463087081909</v>
       </c>
       <c r="D193" t="n">
-        <v>-2.41042423248291</v>
+        <v>0.03825286775827408</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.1164398044347763</v>
+        <v>0.1541406065225601</v>
       </c>
       <c r="C194" t="n">
-        <v>2.254932880401611</v>
+        <v>0.52717524766922</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.057254195213318</v>
+        <v>-0.06403995305299759</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.007708787918091</v>
+        <v>0.1363238841295242</v>
       </c>
       <c r="C195" t="n">
-        <v>2.92911434173584</v>
+        <v>0.4962179064750671</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.6842947602272034</v>
+        <v>0.02459768205881119</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.157283306121826</v>
+        <v>0.218030646443367</v>
       </c>
       <c r="C196" t="n">
-        <v>2.895967960357666</v>
+        <v>0.5749489068984985</v>
       </c>
       <c r="D196" t="n">
-        <v>-1.943843722343445</v>
+        <v>0.01555853616446257</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.09627147018909454</v>
+        <v>0.2416369765996933</v>
       </c>
       <c r="C197" t="n">
-        <v>2.58065128326416</v>
+        <v>0.6274818778038025</v>
       </c>
       <c r="D197" t="n">
-        <v>-3.061014890670776</v>
+        <v>0.003143659560009837</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.662625253200531</v>
+        <v>0.1276179105043411</v>
       </c>
       <c r="C198" t="n">
-        <v>2.527550458908081</v>
+        <v>0.5851334929466248</v>
       </c>
       <c r="D198" t="n">
-        <v>-3.444174289703369</v>
+        <v>0.06720417737960815</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.04435323178768158</v>
+        <v>0.04204414412379265</v>
       </c>
       <c r="C199" t="n">
-        <v>3.041671752929688</v>
+        <v>0.5728752017021179</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.164585828781128</v>
+        <v>-0.0410720482468605</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-1.105841994285583</v>
+        <v>0.08795055001974106</v>
       </c>
       <c r="C200" t="n">
-        <v>2.945403575897217</v>
+        <v>0.4690538942813873</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.318655610084534</v>
+        <v>0.02427528612315655</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.112270712852478</v>
+        <v>0.1250840276479721</v>
       </c>
       <c r="C201" t="n">
-        <v>3.046789646148682</v>
+        <v>0.5451720952987671</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.3898276686668396</v>
+        <v>-0.09900911897420883</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.2149881571531296</v>
+        <v>0.1712840050458908</v>
       </c>
       <c r="C202" t="n">
-        <v>2.667720794677734</v>
+        <v>0.6100844740867615</v>
       </c>
       <c r="D202" t="n">
-        <v>-3.129400491714478</v>
+        <v>0.1195821091532707</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.3099622130393982</v>
+        <v>0.1924981027841568</v>
       </c>
       <c r="C203" t="n">
-        <v>2.846908569335938</v>
+        <v>0.6145309805870056</v>
       </c>
       <c r="D203" t="n">
-        <v>-2.744736194610596</v>
+        <v>0.05117614194750786</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.285659193992615</v>
+        <v>0.08995603770017624</v>
       </c>
       <c r="C204" t="n">
-        <v>3.536419630050659</v>
+        <v>0.4039027094841003</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.49720299243927</v>
+        <v>0.1108573377132416</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.1876960545778275</v>
+        <v>0.08367282152175903</v>
       </c>
       <c r="C205" t="n">
-        <v>2.756002902984619</v>
+        <v>0.5080488920211792</v>
       </c>
       <c r="D205" t="n">
-        <v>-3.12387228012085</v>
+        <v>0.08224912732839584</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.1171592622995377</v>
+        <v>0.2110507637262344</v>
       </c>
       <c r="C206" t="n">
-        <v>2.592026948928833</v>
+        <v>0.6302171945571899</v>
       </c>
       <c r="D206" t="n">
-        <v>-4.213963985443115</v>
+        <v>0.05597955361008644</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.9498429298400879</v>
+        <v>0.02886107005178928</v>
       </c>
       <c r="C207" t="n">
-        <v>2.540587425231934</v>
+        <v>0.525671124458313</v>
       </c>
       <c r="D207" t="n">
-        <v>-2.795913219451904</v>
+        <v>0.1135261505842209</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.7730511426925659</v>
+        <v>0.1332357674837112</v>
       </c>
       <c r="C208" t="n">
-        <v>2.292672395706177</v>
+        <v>0.5584426522254944</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.17069399356842</v>
+        <v>0.03456743434071541</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.6262416839599609</v>
+        <v>0.116511844098568</v>
       </c>
       <c r="C209" t="n">
-        <v>2.168849468231201</v>
+        <v>0.6176138520240784</v>
       </c>
       <c r="D209" t="n">
-        <v>-1.006433248519897</v>
+        <v>0.1123789772391319</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/reinforce_gan_enc.xlsx
+++ b/documents/latent_vector/reinforce_gan_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.179828867316246</v>
+        <v>-1.836698412895203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5298700332641602</v>
+        <v>-1.085368156433105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.106839619576931</v>
+        <v>0.6675900816917419</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1531836241483688</v>
+        <v>-1.901071548461914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6802904009819031</v>
+        <v>-1.543166637420654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1302212476730347</v>
+        <v>0.2306005656719208</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07166228443384171</v>
+        <v>-2.110446929931641</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6184304356575012</v>
+        <v>-1.696230888366699</v>
       </c>
       <c r="D4" t="n">
-        <v>0.166295200586319</v>
+        <v>0.4537219107151031</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1151479259133339</v>
+        <v>-1.271259069442749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5863825678825378</v>
+        <v>-0.8654356002807617</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1731845587491989</v>
+        <v>-0.04667560756206512</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.005182649008929729</v>
+        <v>-1.690804004669189</v>
       </c>
       <c r="C6" t="n">
-        <v>0.491593599319458</v>
+        <v>-1.153636336326599</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02925794385373592</v>
+        <v>0.4051980376243591</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1376400291919708</v>
+        <v>-1.60166597366333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6071385145187378</v>
+        <v>-0.9894384145736694</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0626070573925972</v>
+        <v>0.6690363883972168</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1833687871694565</v>
+        <v>-2.718729496002197</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5211732983589172</v>
+        <v>-1.627543330192566</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01917363330721855</v>
+        <v>0.634699821472168</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06287255138158798</v>
+        <v>-2.972020626068115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4711117148399353</v>
+        <v>-1.666899800300598</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1349338740110397</v>
+        <v>1.08428156375885</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0999489426612854</v>
+        <v>-1.669389009475708</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4463430941104889</v>
+        <v>-0.9653829336166382</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1116524040699005</v>
+        <v>0.7096476554870605</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1510065793991089</v>
+        <v>-0.8751102089881897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4812161922454834</v>
+        <v>-0.4288855791091919</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.05144235119223595</v>
+        <v>0.3060575425624847</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1616118848323822</v>
+        <v>-2.86501407623291</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4523355960845947</v>
+        <v>-1.695113897323608</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1017610356211662</v>
+        <v>0.9197326302528381</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2366869002580643</v>
+        <v>-2.035319328308105</v>
       </c>
       <c r="C13" t="n">
-        <v>0.562084972858429</v>
+        <v>-1.34605872631073</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1301966607570648</v>
+        <v>0.7272581458091736</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.150821641087532</v>
+        <v>-1.916445016860962</v>
       </c>
       <c r="C14" t="n">
-        <v>0.515438973903656</v>
+        <v>-1.6603924036026</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09667905420064926</v>
+        <v>-0.3151133060455322</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1574347615242004</v>
+        <v>-2.157559394836426</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6865735650062561</v>
+        <v>-1.67340350151062</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1097853183746338</v>
+        <v>-0.2953630685806274</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.201150044798851</v>
+        <v>-2.497067213058472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6220216155052185</v>
+        <v>-2.023550033569336</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04652590677142143</v>
+        <v>-0.2341038882732391</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1972122490406036</v>
+        <v>-1.227136731147766</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5360792279243469</v>
+        <v>-0.9642746448516846</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0205883402377367</v>
+        <v>-0.1840361952781677</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08165294677019119</v>
+        <v>-2.199048280715942</v>
       </c>
       <c r="C18" t="n">
-        <v>0.545799195766449</v>
+        <v>-1.441532731056213</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08033709973096848</v>
+        <v>0.5790129899978638</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08999749273061752</v>
+        <v>-2.562757015228271</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4379091262817383</v>
+        <v>-1.10384738445282</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03619604557752609</v>
+        <v>0.8319035768508911</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01306308340281248</v>
+        <v>-1.420496702194214</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5191113948822021</v>
+        <v>-0.8481415510177612</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09377027302980423</v>
+        <v>0.4594559371471405</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1023073419928551</v>
+        <v>-2.629158020019531</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5603839755058289</v>
+        <v>-1.550639986991882</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1854858994483948</v>
+        <v>0.95917809009552</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02655475772917271</v>
+        <v>-1.292911767959595</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4991698265075684</v>
+        <v>-0.725486695766449</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1521946489810944</v>
+        <v>0.4674216508865356</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.172091618180275</v>
+        <v>-1.73033332824707</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5006453394889832</v>
+        <v>-1.095208883285522</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1566583067178726</v>
+        <v>0.3006708323955536</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07115543633699417</v>
+        <v>-1.44861626625061</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5060389637947083</v>
+        <v>-1.108556032180786</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2882515788078308</v>
+        <v>0.5412029027938843</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05521903559565544</v>
+        <v>-1.477837085723877</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5816288590431213</v>
+        <v>-0.7962414026260376</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2040673494338989</v>
+        <v>0.6376161575317383</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03972319886088371</v>
+        <v>-0.9780482053756714</v>
       </c>
       <c r="C26" t="n">
-        <v>0.498986542224884</v>
+        <v>-0.5527542233467102</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1473858654499054</v>
+        <v>0.4533272981643677</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07370819896459579</v>
+        <v>-0.865710437297821</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5061451196670532</v>
+        <v>-0.5912298560142517</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1134487167000771</v>
+        <v>0.1655990481376648</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1009201481938362</v>
+        <v>-2.661207437515259</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5419064164161682</v>
+        <v>-1.936079025268555</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1527570784091949</v>
+        <v>-0.4752657413482666</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1385980844497681</v>
+        <v>-2.489582538604736</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6184086203575134</v>
+        <v>-1.764032602310181</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1136038303375244</v>
+        <v>0.5998325347900391</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.113719068467617</v>
+        <v>-3.116151332855225</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6592126488685608</v>
+        <v>-2.028785943984985</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1286772042512894</v>
+        <v>0.7721279263496399</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1116551458835602</v>
+        <v>-1.811099767684937</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5523536801338196</v>
+        <v>-1.248526930809021</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06594973802566528</v>
+        <v>0.4039008617401123</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.02271557413041592</v>
+        <v>-3.476820945739746</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5027321577072144</v>
+        <v>-1.882032155990601</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06301657855510712</v>
+        <v>1.063780546188354</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1308074146509171</v>
+        <v>-2.744165897369385</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5176835656166077</v>
+        <v>-1.55353057384491</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01946420408785343</v>
+        <v>0.9511117339134216</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1719772517681122</v>
+        <v>-1.785894632339478</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5605529546737671</v>
+        <v>-1.330507636070251</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06137813255190849</v>
+        <v>0.5753269195556641</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2273672670125961</v>
+        <v>-2.88478946685791</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6468144655227661</v>
+        <v>-1.930403709411621</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1321207582950592</v>
+        <v>0.6921842098236084</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1835594028234482</v>
+        <v>-1.740719079971313</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5375882387161255</v>
+        <v>-1.231962442398071</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1042741611599922</v>
+        <v>0.3148456215858459</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04755343124270439</v>
+        <v>-2.953242301940918</v>
       </c>
       <c r="C37" t="n">
-        <v>0.53891521692276</v>
+        <v>-2.50975513458252</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1946424394845963</v>
+        <v>-0.8160054683685303</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07829830795526505</v>
+        <v>-2.537429809570312</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5360898375511169</v>
+        <v>-2.079571485519409</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1556283831596375</v>
+        <v>-0.1994987428188324</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1965966373682022</v>
+        <v>-1.633410573005676</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6160761713981628</v>
+        <v>-1.110432744026184</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1089486330747604</v>
+        <v>-0.3151901364326477</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.111470602452755</v>
+        <v>-2.517033815383911</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6938254237174988</v>
+        <v>-1.989810109138489</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2475421130657196</v>
+        <v>0.4424411654472351</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1444618403911591</v>
+        <v>-2.33072566986084</v>
       </c>
       <c r="C41" t="n">
-        <v>0.549928605556488</v>
+        <v>-1.388983845710754</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1185981184244156</v>
+        <v>0.7275598049163818</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.116052970290184</v>
+        <v>-1.724255323410034</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5311185717582703</v>
+        <v>-1.133991003036499</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1127984896302223</v>
+        <v>0.5586633086204529</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.121123693883419</v>
+        <v>-1.572872400283813</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5916528105735779</v>
+        <v>-0.9443439841270447</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1224154010415077</v>
+        <v>0.6703940629959106</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1036228761076927</v>
+        <v>-1.474213838577271</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4648300111293793</v>
+        <v>-0.9506542086601257</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1424781084060669</v>
+        <v>0.5216251015663147</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05582135543227196</v>
+        <v>-3.513675689697266</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4947098791599274</v>
+        <v>-2.589868307113647</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1150912344455719</v>
+        <v>-0.142536997795105</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2190192043781281</v>
+        <v>-3.096107244491577</v>
       </c>
       <c r="C46" t="n">
-        <v>0.559527575969696</v>
+        <v>-2.205322027206421</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05523360148072243</v>
+        <v>0.1263306885957718</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1429036557674408</v>
+        <v>-2.043461799621582</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5453671813011169</v>
+        <v>-0.9592446684837341</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01024144981056452</v>
+        <v>1.006470203399658</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05322841927409172</v>
+        <v>-1.081346988677979</v>
       </c>
       <c r="C48" t="n">
-        <v>0.503061056137085</v>
+        <v>-0.6932119727134705</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04888462647795677</v>
+        <v>0.1684562861919403</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1334323137998581</v>
+        <v>-1.805252194404602</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5442084670066833</v>
+        <v>-1.085417509078979</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08954867720603943</v>
+        <v>0.5739706754684448</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2237621396780014</v>
+        <v>-1.522482872009277</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5923876166343689</v>
+        <v>-0.8578829765319824</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09391260147094727</v>
+        <v>0.63250732421875</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09470541030168533</v>
+        <v>-1.224458932876587</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4896787703037262</v>
+        <v>-0.3358331024646759</v>
       </c>
       <c r="D51" t="n">
-        <v>0.006256883032619953</v>
+        <v>0.5914118885993958</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1994532495737076</v>
+        <v>-2.531080722808838</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4563771188259125</v>
+        <v>-1.109999060630798</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01540293078869581</v>
+        <v>1.197692513465881</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1076448634266853</v>
+        <v>-1.70111346244812</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5050166845321655</v>
+        <v>-0.8171772956848145</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08647772669792175</v>
+        <v>0.6868780255317688</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1733231991529465</v>
+        <v>-1.027640581130981</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5106484889984131</v>
+        <v>-0.6556283235549927</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02311808429658413</v>
+        <v>-0.006926447153091431</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1150006875395775</v>
+        <v>-1.074898481369019</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5151486992835999</v>
+        <v>-1.0256587266922</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01937470398843288</v>
+        <v>-0.1520712673664093</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07633045315742493</v>
+        <v>-2.332391500473022</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4980320632457733</v>
+        <v>-1.233590126037598</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1398186534643173</v>
+        <v>0.9041849374771118</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1626120954751968</v>
+        <v>-1.896125555038452</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5571596026420593</v>
+        <v>-1.148052096366882</v>
       </c>
       <c r="D57" t="n">
-        <v>0.071137435734272</v>
+        <v>0.6540974378585815</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1398389488458633</v>
+        <v>-2.749742031097412</v>
       </c>
       <c r="C58" t="n">
-        <v>0.587163507938385</v>
+        <v>-1.909145832061768</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09481321275234222</v>
+        <v>0.5487077236175537</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05337676033377647</v>
+        <v>-3.216521263122559</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5554571151733398</v>
+        <v>-1.868356943130493</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1010553985834122</v>
+        <v>1.09395956993103</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0777006670832634</v>
+        <v>-1.271553874015808</v>
       </c>
       <c r="C60" t="n">
-        <v>0.54763263463974</v>
+        <v>-1.023097634315491</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04917282983660698</v>
+        <v>-0.09011924266815186</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207658439874649</v>
+        <v>-1.854022264480591</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5803556442260742</v>
+        <v>-0.9818291068077087</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0298185683786869</v>
+        <v>-0.002484768629074097</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1230325177311897</v>
+        <v>-1.570131301879883</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4870482087135315</v>
+        <v>-0.9613980054855347</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1241369917988777</v>
+        <v>0.6228638887405396</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02488737739622593</v>
+        <v>-1.533162355422974</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4240522980690002</v>
+        <v>-0.809054434299469</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1262757629156113</v>
+        <v>0.6169095039367676</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09510289877653122</v>
+        <v>-1.492177724838257</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5873737335205078</v>
+        <v>-1.179372906684875</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02118951454758644</v>
+        <v>0.2622079253196716</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1577993482351303</v>
+        <v>-1.869729995727539</v>
       </c>
       <c r="C65" t="n">
-        <v>0.534861147403717</v>
+        <v>-1.203631997108459</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03820369765162468</v>
+        <v>0.5647482872009277</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157509058713913</v>
+        <v>-2.023693561553955</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5524560809135437</v>
+        <v>-1.315194368362427</v>
       </c>
       <c r="D66" t="n">
-        <v>0.09137734770774841</v>
+        <v>0.8168777227401733</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09702401608228683</v>
+        <v>-2.086083650588989</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5789036154747009</v>
+        <v>-1.245311737060547</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09841126948595047</v>
+        <v>0.476897120475769</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07359132915735245</v>
+        <v>-1.17446756362915</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5067910552024841</v>
+        <v>-0.8187053799629211</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1263680905103683</v>
+        <v>0.05424366891384125</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2353139072656631</v>
+        <v>-1.057176828384399</v>
       </c>
       <c r="C69" t="n">
-        <v>0.56638103723526</v>
+        <v>-0.8065661191940308</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01788233034312725</v>
+        <v>0.02556407451629639</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2355055660009384</v>
+        <v>-1.593692779541016</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5850918292999268</v>
+        <v>-0.5864670276641846</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.04375916719436646</v>
+        <v>0.5094603300094604</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08186025172472</v>
+        <v>-2.210823059082031</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4646877646446228</v>
+        <v>-1.431500673294067</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05154560878872871</v>
+        <v>-0.1550350189208984</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1339517682790756</v>
+        <v>-0.8703344464302063</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5191708207130432</v>
+        <v>-0.3389046192169189</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.06979513168334961</v>
+        <v>-0.114031195640564</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2509458661079407</v>
+        <v>-1.641482591629028</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6546225547790527</v>
+        <v>-0.989068865776062</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01732723228633404</v>
+        <v>-0.2194907665252686</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.04987558349967003</v>
+        <v>-1.357763767242432</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5490953922271729</v>
+        <v>-0.8862355351448059</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1109166443347931</v>
+        <v>0.5523613095283508</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1362334936857224</v>
+        <v>-1.681120872497559</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4911730587482452</v>
+        <v>-1.10358190536499</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1114518791437149</v>
+        <v>0.3639380931854248</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1401374787092209</v>
+        <v>-1.179394125938416</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4817151725292206</v>
+        <v>-0.7792580127716064</v>
       </c>
       <c r="D76" t="n">
-        <v>0.04455163702368736</v>
+        <v>0.3986021876335144</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1593258529901505</v>
+        <v>-1.384347438812256</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5429173707962036</v>
+        <v>-0.8244482278823853</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08671680092811584</v>
+        <v>0.5325134992599487</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1881040036678314</v>
+        <v>-1.508915305137634</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5192814469337463</v>
+        <v>-1.087208867073059</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0516691617667675</v>
+        <v>0.4524937272071838</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1646206378936768</v>
+        <v>-1.998820185661316</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5282573103904724</v>
+        <v>-1.372970938682556</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.06835752725601196</v>
+        <v>-0.07929006218910217</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2728145122528076</v>
+        <v>-1.758381128311157</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6815907955169678</v>
+        <v>-1.047200322151184</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001706506358459592</v>
+        <v>0.4142359793186188</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.02542976103723049</v>
+        <v>-2.643796920776367</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4535349011421204</v>
+        <v>-1.26347553730011</v>
       </c>
       <c r="D81" t="n">
-        <v>0.160088837146759</v>
+        <v>1.052068591117859</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.08347503840923309</v>
+        <v>-1.023913502693176</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5452614426612854</v>
+        <v>-0.8980068564414978</v>
       </c>
       <c r="D82" t="n">
-        <v>0.03040315769612789</v>
+        <v>-0.09786707162857056</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.07036586850881577</v>
+        <v>-1.200807094573975</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5365057587623596</v>
+        <v>-1.043002128601074</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1879780739545822</v>
+        <v>-0.4225118160247803</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1707049608230591</v>
+        <v>-0.8826591372489929</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4902692437171936</v>
+        <v>-0.7350221872329712</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1035857647657394</v>
+        <v>0.1106270253658295</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.07022690027952194</v>
+        <v>-1.910371780395508</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5845558047294617</v>
+        <v>-1.431700587272644</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1393623501062393</v>
+        <v>0.3252499401569366</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09284288436174393</v>
+        <v>-2.792694568634033</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4985710680484772</v>
+        <v>-1.640855193138123</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1068949401378632</v>
+        <v>0.9425048828125</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.121464803814888</v>
+        <v>-2.777731418609619</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5049054026603699</v>
+        <v>-1.528249979019165</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0619594119489193</v>
+        <v>0.8836641907691956</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.07673913240432739</v>
+        <v>-0.3867478668689728</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4327284395694733</v>
+        <v>-0.3340469002723694</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02142463065683842</v>
+        <v>0.0911436527967453</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.09006821364164352</v>
+        <v>-1.484509229660034</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5916282534599304</v>
+        <v>-1.061556220054626</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1075244843959808</v>
+        <v>0.1979959905147552</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02375883050262928</v>
+        <v>-1.525387048721313</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4874804019927979</v>
+        <v>-0.8780297636985779</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02173546515405178</v>
+        <v>0.4847106039524078</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.162071019411087</v>
+        <v>-2.595172882080078</v>
       </c>
       <c r="C91" t="n">
-        <v>0.50520920753479</v>
+        <v>-1.67598569393158</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1928565353155136</v>
+        <v>0.7762875556945801</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.04986892268061638</v>
+        <v>-1.516191482543945</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5181270241737366</v>
+        <v>-1.032954096794128</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1724725067615509</v>
+        <v>0.5318348407745361</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1643132418394089</v>
+        <v>-2.048415184020996</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5331863760948181</v>
+        <v>-1.124362707138062</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1029441356658936</v>
+        <v>0.7752225995063782</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1551390439271927</v>
+        <v>-1.754698991775513</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6161159873008728</v>
+        <v>-1.061301589012146</v>
       </c>
       <c r="D94" t="n">
-        <v>0.09876052290201187</v>
+        <v>0.5719443559646606</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.136905625462532</v>
+        <v>-1.611799836158752</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6163746118545532</v>
+        <v>-1.237413644790649</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1306612193584442</v>
+        <v>0.2035326659679413</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3016915917396545</v>
+        <v>-1.912076473236084</v>
       </c>
       <c r="C96" t="n">
-        <v>0.641617476940155</v>
+        <v>-1.336845874786377</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01601788215339184</v>
+        <v>0.3944783806800842</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1869113892316818</v>
+        <v>-1.551888823509216</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5708007216453552</v>
+        <v>-0.9804078936576843</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1072707399725914</v>
+        <v>0.2387467622756958</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2391055077314377</v>
+        <v>-1.553195118904114</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5427188277244568</v>
+        <v>-0.7448886036872864</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08349636197090149</v>
+        <v>0.5191167593002319</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1637183874845505</v>
+        <v>-2.441719055175781</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5249680280685425</v>
+        <v>-1.682485103607178</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08849127590656281</v>
+        <v>0.5235353708267212</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1050450652837753</v>
+        <v>-3.67599630355835</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4526727795600891</v>
+        <v>-1.858904600143433</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1226329877972603</v>
+        <v>1.3217853307724</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1573960334062576</v>
+        <v>-1.647499322891235</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6329540610313416</v>
+        <v>-1.119729995727539</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1462297439575195</v>
+        <v>0.4724205732345581</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1519260555505753</v>
+        <v>-1.945858001708984</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5009966492652893</v>
+        <v>-1.213706970214844</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03307683393359184</v>
+        <v>0.4555844068527222</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0903262123465538</v>
+        <v>-1.940317869186401</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5241944789886475</v>
+        <v>-1.043501496315002</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1181623041629791</v>
+        <v>0.3846516013145447</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2049719989299774</v>
+        <v>-1.916478395462036</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5433792471885681</v>
+        <v>-1.140659213066101</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1030216962099075</v>
+        <v>-0.07316288352012634</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.09161480516195297</v>
+        <v>-1.120641946792603</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4510296285152435</v>
+        <v>-0.7561432123184204</v>
       </c>
       <c r="D105" t="n">
-        <v>0.05790218710899353</v>
+        <v>-0.08944255113601685</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1266292482614517</v>
+        <v>-0.8278234601020813</v>
       </c>
       <c r="C106" t="n">
-        <v>0.468980997800827</v>
+        <v>-0.6920053958892822</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.004542979411780834</v>
+        <v>0.09020313620567322</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1503335684537888</v>
+        <v>-1.544832348823547</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6163461804389954</v>
+        <v>-1.072477698326111</v>
       </c>
       <c r="D107" t="n">
-        <v>0.07063088566064835</v>
+        <v>0.6054946780204773</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1189377382397652</v>
+        <v>-1.334461450576782</v>
       </c>
       <c r="C108" t="n">
-        <v>0.592658519744873</v>
+        <v>-0.9899070262908936</v>
       </c>
       <c r="D108" t="n">
-        <v>0.07974542677402496</v>
+        <v>0.2308101505041122</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1188308373093605</v>
+        <v>-1.097086906433105</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6118215918540955</v>
+        <v>-0.9456469416618347</v>
       </c>
       <c r="D109" t="n">
-        <v>0.05489913001656532</v>
+        <v>-0.03086115419864655</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.07507804781198502</v>
+        <v>-1.401352882385254</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6017956137657166</v>
+        <v>-1.128410339355469</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1462341248989105</v>
+        <v>-0.3340107202529907</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09929295629262924</v>
+        <v>-1.601651668548584</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6005297303199768</v>
+        <v>-1.181756019592285</v>
       </c>
       <c r="D111" t="n">
-        <v>0.07992662489414215</v>
+        <v>0.1161643043160439</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2103678435087204</v>
+        <v>-2.587254047393799</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5867858529090881</v>
+        <v>-1.854734897613525</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0120377205312252</v>
+        <v>0.2011432200670242</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1395814716815948</v>
+        <v>-2.073499202728271</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5510461330413818</v>
+        <v>-1.381690859794617</v>
       </c>
       <c r="D113" t="n">
-        <v>0.07879920303821564</v>
+        <v>0.5260517001152039</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1413403302431107</v>
+        <v>-1.750942945480347</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6282359957695007</v>
+        <v>-1.217038750648499</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1530267298221588</v>
+        <v>0.5034356117248535</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1068493947386742</v>
+        <v>-2.411304473876953</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5348249077796936</v>
+        <v>-1.713815927505493</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1117778196930885</v>
+        <v>0.3136737048625946</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1241657212376595</v>
+        <v>-1.440698146820068</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5653997659683228</v>
+        <v>-1.116951584815979</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1344164907932281</v>
+        <v>0.2610400021076202</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2337189018726349</v>
+        <v>-2.656491994857788</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5180363059043884</v>
+        <v>-1.536158680915833</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.03597306832671165</v>
+        <v>0.6592705249786377</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1181073561310768</v>
+        <v>-1.260512948036194</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4998072683811188</v>
+        <v>-0.8306128978729248</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0149579020217061</v>
+        <v>0.4513051807880402</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1985862404108047</v>
+        <v>-1.595337867736816</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6306437849998474</v>
+        <v>-1.164314270019531</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1544474810361862</v>
+        <v>0.4585408270359039</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07173646241426468</v>
+        <v>-0.9020386338233948</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4732309579849243</v>
+        <v>-0.5043734908103943</v>
       </c>
       <c r="D120" t="n">
-        <v>0.06312479078769684</v>
+        <v>0.2273384481668472</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.2288509756326675</v>
+        <v>-1.541716456413269</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6433165669441223</v>
+        <v>-1.094342947006226</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0878431424498558</v>
+        <v>0.1146522909402847</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.07822001725435257</v>
+        <v>-2.08314037322998</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5771337747573853</v>
+        <v>-1.320955753326416</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1253738403320312</v>
+        <v>0.7850680351257324</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1725708544254303</v>
+        <v>-2.476208925247192</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5917759537696838</v>
+        <v>-1.435775756835938</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0580790601670742</v>
+        <v>0.7942866086959839</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1314625889062881</v>
+        <v>-1.896965742111206</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4740045070648193</v>
+        <v>-0.9459578394889832</v>
       </c>
       <c r="D124" t="n">
-        <v>0.09510848671197891</v>
+        <v>0.8223673105239868</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1127684190869331</v>
+        <v>-2.343953132629395</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6229197382926941</v>
+        <v>-1.645140290260315</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1614130437374115</v>
+        <v>0.6687710285186768</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.09868337959051132</v>
+        <v>-1.170883893966675</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5164270401000977</v>
+        <v>-0.6093835234642029</v>
       </c>
       <c r="D126" t="n">
-        <v>0.07733816653490067</v>
+        <v>0.3039620816707611</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.121981106698513</v>
+        <v>-1.47682785987854</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5952465534210205</v>
+        <v>-1.067286372184753</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1376023292541504</v>
+        <v>0.618910551071167</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1729813069105148</v>
+        <v>-2.109649181365967</v>
       </c>
       <c r="C128" t="n">
-        <v>0.572270929813385</v>
+        <v>-1.562346696853638</v>
       </c>
       <c r="D128" t="n">
-        <v>0.07689632475376129</v>
+        <v>0.6589395999908447</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0965007022023201</v>
+        <v>-1.68635106086731</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6153484582901001</v>
+        <v>-1.383282065391541</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1283967345952988</v>
+        <v>0.164426252245903</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.2010617405176163</v>
+        <v>-1.652491569519043</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6088061332702637</v>
+        <v>-1.1014244556427</v>
       </c>
       <c r="D130" t="n">
-        <v>0.06743869185447693</v>
+        <v>-0.0809815526008606</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1738298684358597</v>
+        <v>-1.819768786430359</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6086544990539551</v>
+        <v>-1.321875929832458</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1163199841976166</v>
+        <v>0.5189820528030396</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1388346552848816</v>
+        <v>-1.428773641586304</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5681337714195251</v>
+        <v>-0.9165457487106323</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1260625720024109</v>
+        <v>0.05480977892875671</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1308149546384811</v>
+        <v>-1.840024948120117</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5076395273208618</v>
+        <v>-1.174669504165649</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1324473321437836</v>
+        <v>0.6368247866630554</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144486591219902</v>
+        <v>-3.236120223999023</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5785191655158997</v>
+        <v>-2.4773268699646</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1220158934593201</v>
+        <v>0.04217875003814697</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.175969585776329</v>
+        <v>-3.526370525360107</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6438291668891907</v>
+        <v>-2.529469728469849</v>
       </c>
       <c r="D135" t="n">
-        <v>0.03735570982098579</v>
+        <v>0.464834451675415</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1899817734956741</v>
+        <v>-1.404692649841309</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5706754326820374</v>
+        <v>-0.917921245098114</v>
       </c>
       <c r="D136" t="n">
-        <v>0.04267612844705582</v>
+        <v>0.07753542065620422</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1486494690179825</v>
+        <v>-1.209362983703613</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5136723518371582</v>
+        <v>-0.6709482669830322</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1027317196130753</v>
+        <v>0.4466667175292969</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1488807648420334</v>
+        <v>-1.458202362060547</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5195194482803345</v>
+        <v>-0.8621646761894226</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1473018825054169</v>
+        <v>0.436461329460144</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1464038491249084</v>
+        <v>-2.380415201187134</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6152299642562866</v>
+        <v>-1.714741706848145</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1586078703403473</v>
+        <v>0.1287712752819061</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1078426167368889</v>
+        <v>-1.451704382896423</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4840114116668701</v>
+        <v>-1.015128612518311</v>
       </c>
       <c r="D140" t="n">
-        <v>0.09347274154424667</v>
+        <v>0.358252078294754</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2310776561498642</v>
+        <v>-1.82767915725708</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6415677666664124</v>
+        <v>-1.301098942756653</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1026757508516312</v>
+        <v>0.5446665287017822</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1905202120542526</v>
+        <v>-1.816386938095093</v>
       </c>
       <c r="C142" t="n">
-        <v>0.530373752117157</v>
+        <v>-0.6850095987319946</v>
       </c>
       <c r="D142" t="n">
-        <v>0.01504157949239016</v>
+        <v>0.7910318970680237</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1648849546909332</v>
+        <v>-1.906988859176636</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5605703592300415</v>
+        <v>-0.7893752455711365</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1145467013120651</v>
+        <v>0.9774382710456848</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.161831721663475</v>
+        <v>-1.472829580307007</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6088394522666931</v>
+        <v>-1.105738282203674</v>
       </c>
       <c r="D144" t="n">
-        <v>0.09112348407506943</v>
+        <v>0.6205546855926514</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.2251298129558563</v>
+        <v>-2.566357612609863</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5957922339439392</v>
+        <v>-2.136343240737915</v>
       </c>
       <c r="D145" t="n">
-        <v>0.08266371488571167</v>
+        <v>0.3060380220413208</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1205165162682533</v>
+        <v>-1.670390605926514</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6088241934776306</v>
+        <v>-1.265471816062927</v>
       </c>
       <c r="D146" t="n">
-        <v>0.09345109760761261</v>
+        <v>0.549518883228302</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.2295078337192535</v>
+        <v>-1.315876483917236</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5521632432937622</v>
+        <v>-0.517619788646698</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1471118032932281</v>
+        <v>0.5259387493133545</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1195634230971336</v>
+        <v>-2.052435398101807</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5744851231575012</v>
+        <v>-1.386813521385193</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1144713088870049</v>
+        <v>0.3917461037635803</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01894163526594639</v>
+        <v>-1.016969680786133</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5701867938041687</v>
+        <v>-0.6681386232376099</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2055918574333191</v>
+        <v>-0.372954249382019</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1350794583559036</v>
+        <v>-1.55588710308075</v>
       </c>
       <c r="C150" t="n">
-        <v>0.521120548248291</v>
+        <v>-1.104075908660889</v>
       </c>
       <c r="D150" t="n">
-        <v>0.04523782804608345</v>
+        <v>-0.2716974020004272</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1405653804540634</v>
+        <v>-2.268099546432495</v>
       </c>
       <c r="C151" t="n">
-        <v>0.6257995963096619</v>
+        <v>-1.469370603561401</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0940893292427063</v>
+        <v>0.7927669286727905</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1364131271839142</v>
+        <v>-1.615060567855835</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6575526595115662</v>
+        <v>-1.040890455245972</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1158008724451065</v>
+        <v>0.260546088218689</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1364173293113708</v>
+        <v>-1.599120378494263</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5399072170257568</v>
+        <v>-1.091614007949829</v>
       </c>
       <c r="D153" t="n">
-        <v>0.05190527811646461</v>
+        <v>0.5659158229827881</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.2123256027698517</v>
+        <v>-2.013482093811035</v>
       </c>
       <c r="C154" t="n">
-        <v>0.6427885890007019</v>
+        <v>-1.241204977035522</v>
       </c>
       <c r="D154" t="n">
-        <v>0.03396761044859886</v>
+        <v>0.7534801959991455</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.182495966553688</v>
+        <v>-1.566369414329529</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6206409335136414</v>
+        <v>-1.123177289962769</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1514237225055695</v>
+        <v>-0.09804177284240723</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2338626086711884</v>
+        <v>-1.632011413574219</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6430934071540833</v>
+        <v>-1.315888404846191</v>
       </c>
       <c r="D156" t="n">
-        <v>0.04316167533397675</v>
+        <v>-0.0008396357297897339</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1552294939756393</v>
+        <v>-2.5401930809021</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6725196242332458</v>
+        <v>-1.89881706237793</v>
       </c>
       <c r="D157" t="n">
-        <v>0.06542844325304031</v>
+        <v>0.1285887956619263</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1056032255291939</v>
+        <v>-2.161653757095337</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5832374691963196</v>
+        <v>-1.590158462524414</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06803485751152039</v>
+        <v>0.4118444919586182</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.01779888011515141</v>
+        <v>-1.781123161315918</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4048627614974976</v>
+        <v>-1.151342153549194</v>
       </c>
       <c r="D159" t="n">
-        <v>0.09391216933727264</v>
+        <v>0.5731712579727173</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1218856051564217</v>
+        <v>-1.587769508361816</v>
       </c>
       <c r="C160" t="n">
-        <v>0.5453858971595764</v>
+        <v>-1.295775413513184</v>
       </c>
       <c r="D160" t="n">
-        <v>0.06385773420333862</v>
+        <v>-0.00912138819694519</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.01271938253194094</v>
+        <v>-3.284740924835205</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5148493647575378</v>
+        <v>-2.201996326446533</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2043352127075195</v>
+        <v>0.885153591632843</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1223578825592995</v>
+        <v>-3.538365364074707</v>
       </c>
       <c r="C162" t="n">
-        <v>0.5638776421546936</v>
+        <v>-2.701508045196533</v>
       </c>
       <c r="D162" t="n">
-        <v>0.200715571641922</v>
+        <v>0.3368033170700073</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.2056871205568314</v>
+        <v>-1.201713442802429</v>
       </c>
       <c r="C163" t="n">
-        <v>0.5679391026496887</v>
+        <v>-0.6899287104606628</v>
       </c>
       <c r="D163" t="n">
-        <v>0.04517554491758347</v>
+        <v>0.326879620552063</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1565752476453781</v>
+        <v>-1.34862208366394</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4955499470233917</v>
+        <v>-0.8086609840393066</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1073924750089645</v>
+        <v>0.413075864315033</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.19988913834095</v>
+        <v>-1.678055047988892</v>
       </c>
       <c r="C165" t="n">
-        <v>0.5863000750541687</v>
+        <v>-1.003344178199768</v>
       </c>
       <c r="D165" t="n">
-        <v>0.07823420315980911</v>
+        <v>0.762576162815094</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2912623286247253</v>
+        <v>-1.479123592376709</v>
       </c>
       <c r="C166" t="n">
-        <v>0.5432610511779785</v>
+        <v>-0.644166111946106</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.04166164621710777</v>
+        <v>0.2735299468040466</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.2396763563156128</v>
+        <v>-0.6526709198951721</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5202057957649231</v>
+        <v>-0.4706276953220367</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.1299669295549393</v>
+        <v>0.1179856061935425</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.07505691796541214</v>
+        <v>-1.554114818572998</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5672600865364075</v>
+        <v>-0.5118283629417419</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0777861699461937</v>
+        <v>0.924557626247406</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1696631461381912</v>
+        <v>-1.380051851272583</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4690539836883545</v>
+        <v>-0.4976618885993958</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0157556589692831</v>
+        <v>0.6765640377998352</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1175089552998543</v>
+        <v>-1.753703117370605</v>
       </c>
       <c r="C170" t="n">
-        <v>0.5878593325614929</v>
+        <v>-1.279175400733948</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1588592678308487</v>
+        <v>0.3991540372371674</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1123499944806099</v>
+        <v>-1.515479445457458</v>
       </c>
       <c r="C171" t="n">
-        <v>0.5026571154594421</v>
+        <v>-1.019497036933899</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1100115776062012</v>
+        <v>0.5655601024627686</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.135421097278595</v>
+        <v>-2.03080153465271</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6360155940055847</v>
+        <v>-1.525528430938721</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1266202926635742</v>
+        <v>0.4436425566673279</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.07603784650564194</v>
+        <v>-2.329580783843994</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5345140099525452</v>
+        <v>-1.596130132675171</v>
       </c>
       <c r="D173" t="n">
-        <v>0.06066394969820976</v>
+        <v>0.1895517706871033</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.05378533527255058</v>
+        <v>-1.225893259048462</v>
       </c>
       <c r="C174" t="n">
-        <v>0.5720767378807068</v>
+        <v>-0.6608015298843384</v>
       </c>
       <c r="D174" t="n">
-        <v>0.05932668969035149</v>
+        <v>0.5224673748016357</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1660068482160568</v>
+        <v>-1.257629752159119</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6070438027381897</v>
+        <v>-0.5593982338905334</v>
       </c>
       <c r="D175" t="n">
-        <v>0.04389679059386253</v>
+        <v>0.3901001214981079</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.08776926249265671</v>
+        <v>-1.399925947189331</v>
       </c>
       <c r="C176" t="n">
-        <v>0.528921365737915</v>
+        <v>-0.6406597495079041</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05530607327818871</v>
+        <v>0.5184929966926575</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1528593450784683</v>
+        <v>-1.847120523452759</v>
       </c>
       <c r="C177" t="n">
-        <v>0.5448827743530273</v>
+        <v>-1.342204332351685</v>
       </c>
       <c r="D177" t="n">
-        <v>0.09858362376689911</v>
+        <v>0.3452823162078857</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.131092831492424</v>
+        <v>-1.614184617996216</v>
       </c>
       <c r="C178" t="n">
-        <v>0.5580611228942871</v>
+        <v>-1.352311015129089</v>
       </c>
       <c r="D178" t="n">
-        <v>0.02327783592045307</v>
+        <v>0.2680960297584534</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1350223273038864</v>
+        <v>-1.175843834877014</v>
       </c>
       <c r="C179" t="n">
-        <v>0.5932626128196716</v>
+        <v>-0.8583229184150696</v>
       </c>
       <c r="D179" t="n">
-        <v>0.08021831512451172</v>
+        <v>-0.07555010914802551</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1280303448438644</v>
+        <v>-1.238847017288208</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6029220223426819</v>
+        <v>-0.6576070189476013</v>
       </c>
       <c r="D180" t="n">
-        <v>0.08445297926664352</v>
+        <v>0.1963788121938705</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.216816708445549</v>
+        <v>-1.633187890052795</v>
       </c>
       <c r="C181" t="n">
-        <v>0.5411830544471741</v>
+        <v>-1.16090714931488</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.03892189636826515</v>
+        <v>-0.07326796650886536</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1116592362523079</v>
+        <v>-2.488815307617188</v>
       </c>
       <c r="C182" t="n">
-        <v>0.5637579560279846</v>
+        <v>-1.742630243301392</v>
       </c>
       <c r="D182" t="n">
-        <v>0.05884186923503876</v>
+        <v>0.09869493544101715</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.05164312943816185</v>
+        <v>-2.436838626861572</v>
       </c>
       <c r="C183" t="n">
-        <v>0.5018234848976135</v>
+        <v>-1.155372738838196</v>
       </c>
       <c r="D183" t="n">
-        <v>0.08428908884525299</v>
+        <v>1.054150819778442</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.01807067357003689</v>
+        <v>-1.237089395523071</v>
       </c>
       <c r="C184" t="n">
-        <v>0.5893787741661072</v>
+        <v>-0.8538495302200317</v>
       </c>
       <c r="D184" t="n">
-        <v>0.06474022567272186</v>
+        <v>0.345799446105957</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.180108055472374</v>
+        <v>-1.469792604446411</v>
       </c>
       <c r="C185" t="n">
-        <v>0.6426395177841187</v>
+        <v>-0.967320442199707</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02702315337955952</v>
+        <v>0.4930962324142456</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.085527203977108</v>
+        <v>-2.60064435005188</v>
       </c>
       <c r="C186" t="n">
-        <v>0.5092797875404358</v>
+        <v>-1.823230743408203</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1350874602794647</v>
+        <v>0.5154752135276794</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.05238116905093193</v>
+        <v>-1.673437595367432</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4938360154628754</v>
+        <v>-1.025225639343262</v>
       </c>
       <c r="D187" t="n">
-        <v>0.05466179922223091</v>
+        <v>0.4065649509429932</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1758278608322144</v>
+        <v>-2.110857009887695</v>
       </c>
       <c r="C188" t="n">
-        <v>0.5138023495674133</v>
+        <v>-1.282184958457947</v>
       </c>
       <c r="D188" t="n">
-        <v>0.04410858824849129</v>
+        <v>0.2643693089485168</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1678186804056168</v>
+        <v>-1.334027886390686</v>
       </c>
       <c r="C189" t="n">
-        <v>0.5627994537353516</v>
+        <v>-0.7095963358879089</v>
       </c>
       <c r="D189" t="n">
-        <v>0.09753672033548355</v>
+        <v>0.5914802551269531</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1204847097396851</v>
+        <v>-1.378852367401123</v>
       </c>
       <c r="C190" t="n">
-        <v>0.5136083960533142</v>
+        <v>-0.9086517095565796</v>
       </c>
       <c r="D190" t="n">
-        <v>0.03079259395599365</v>
+        <v>0.6277058124542236</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.159825012087822</v>
+        <v>-2.953916549682617</v>
       </c>
       <c r="C191" t="n">
-        <v>0.6097662448883057</v>
+        <v>-2.147215604782104</v>
       </c>
       <c r="D191" t="n">
-        <v>0.05676373466849327</v>
+        <v>0.524016261100769</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2087191492319107</v>
+        <v>-1.450685143470764</v>
       </c>
       <c r="C192" t="n">
-        <v>0.5350201725959778</v>
+        <v>-0.5809227228164673</v>
       </c>
       <c r="D192" t="n">
-        <v>0.06214279681444168</v>
+        <v>0.5799099206924438</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.06094231083989143</v>
+        <v>-2.872026443481445</v>
       </c>
       <c r="C193" t="n">
-        <v>0.5068463087081909</v>
+        <v>-1.791334748268127</v>
       </c>
       <c r="D193" t="n">
-        <v>0.03825286775827408</v>
+        <v>0.7426581978797913</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1541406065225601</v>
+        <v>-1.124441146850586</v>
       </c>
       <c r="C194" t="n">
-        <v>0.52717524766922</v>
+        <v>-0.6961477994918823</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.06403995305299759</v>
+        <v>0.03594435751438141</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1363238841295242</v>
+        <v>-1.041995525360107</v>
       </c>
       <c r="C195" t="n">
-        <v>0.4962179064750671</v>
+        <v>-0.6579622626304626</v>
       </c>
       <c r="D195" t="n">
-        <v>0.02459768205881119</v>
+        <v>0.2949108183383942</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.218030646443367</v>
+        <v>-1.537652254104614</v>
       </c>
       <c r="C196" t="n">
-        <v>0.5749489068984985</v>
+        <v>-0.9165646433830261</v>
       </c>
       <c r="D196" t="n">
-        <v>0.01555853616446257</v>
+        <v>0.0597260594367981</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.2416369765996933</v>
+        <v>-2.403581142425537</v>
       </c>
       <c r="C197" t="n">
-        <v>0.6274818778038025</v>
+        <v>-1.512053370475769</v>
       </c>
       <c r="D197" t="n">
-        <v>0.003143659560009837</v>
+        <v>0.7397149205207825</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1276179105043411</v>
+        <v>-2.550097465515137</v>
       </c>
       <c r="C198" t="n">
-        <v>0.5851334929466248</v>
+        <v>-1.379492878913879</v>
       </c>
       <c r="D198" t="n">
-        <v>0.06720417737960815</v>
+        <v>0.8009852766990662</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.04204414412379265</v>
+        <v>-0.871162474155426</v>
       </c>
       <c r="C199" t="n">
-        <v>0.5728752017021179</v>
+        <v>-0.5614213347434998</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.0410720482468605</v>
+        <v>-0.02293439209461212</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.08795055001974106</v>
+        <v>-0.9689696431159973</v>
       </c>
       <c r="C200" t="n">
-        <v>0.4690538942813873</v>
+        <v>-0.6456362009048462</v>
       </c>
       <c r="D200" t="n">
-        <v>0.02427528612315655</v>
+        <v>-0.1014299392700195</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1250840276479721</v>
+        <v>-1.114711046218872</v>
       </c>
       <c r="C201" t="n">
-        <v>0.5451720952987671</v>
+        <v>-0.5502212047576904</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.09900911897420883</v>
+        <v>0.3033757507801056</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1712840050458908</v>
+        <v>-2.780378818511963</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6100844740867615</v>
+        <v>-1.792574644088745</v>
       </c>
       <c r="D202" t="n">
-        <v>0.1195821091532707</v>
+        <v>0.7139579057693481</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.1924981027841568</v>
+        <v>-2.538674831390381</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6145309805870056</v>
+        <v>-1.6723952293396</v>
       </c>
       <c r="D203" t="n">
-        <v>0.05117614194750786</v>
+        <v>0.246931403875351</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.08995603770017624</v>
+        <v>-1.166816115379333</v>
       </c>
       <c r="C204" t="n">
-        <v>0.4039027094841003</v>
+        <v>-0.4349817633628845</v>
       </c>
       <c r="D204" t="n">
-        <v>0.1108573377132416</v>
+        <v>0.5170388221740723</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.08367282152175903</v>
+        <v>-3.169987201690674</v>
       </c>
       <c r="C205" t="n">
-        <v>0.5080488920211792</v>
+        <v>-1.662856817245483</v>
       </c>
       <c r="D205" t="n">
-        <v>0.08224912732839584</v>
+        <v>1.186854124069214</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.2110507637262344</v>
+        <v>-3.317685127258301</v>
       </c>
       <c r="C206" t="n">
-        <v>0.6302171945571899</v>
+        <v>-2.035383701324463</v>
       </c>
       <c r="D206" t="n">
-        <v>0.05597955361008644</v>
+        <v>1.114414930343628</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.02886107005178928</v>
+        <v>-1.801587104797363</v>
       </c>
       <c r="C207" t="n">
-        <v>0.525671124458313</v>
+        <v>-0.8795191049575806</v>
       </c>
       <c r="D207" t="n">
-        <v>0.1135261505842209</v>
+        <v>0.5740916728973389</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.1332357674837112</v>
+        <v>-1.012488842010498</v>
       </c>
       <c r="C208" t="n">
-        <v>0.5584426522254944</v>
+        <v>-0.7839235663414001</v>
       </c>
       <c r="D208" t="n">
-        <v>0.03456743434071541</v>
+        <v>-0.1181335151195526</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.116511844098568</v>
+        <v>-1.095587015151978</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6176138520240784</v>
+        <v>-0.7823256850242615</v>
       </c>
       <c r="D209" t="n">
-        <v>0.1123789772391319</v>
+        <v>0.1475668698549271</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/reinforce_gan_enc.xlsx
+++ b/documents/latent_vector/reinforce_gan_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.836698412895203</v>
+        <v>0.1097005903720856</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.085368156433105</v>
+        <v>-0.1800111532211304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6675900816917419</v>
+        <v>-4.074250221252441</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.901071548461914</v>
+        <v>0.1728626787662506</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.543166637420654</v>
+        <v>-0.2961466908454895</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2306005656719208</v>
+        <v>-4.526312828063965</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.110446929931641</v>
+        <v>-0.02561542019248009</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.696230888366699</v>
+        <v>-0.09046345949172974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4537219107151031</v>
+        <v>-4.257923603057861</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.271259069442749</v>
+        <v>-0.09534081816673279</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.8654356002807617</v>
+        <v>0.004322707653045654</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04667560756206512</v>
+        <v>-2.755728006362915</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.690804004669189</v>
+        <v>-0.5254276990890503</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.153636336326599</v>
+        <v>0.08185017108917236</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4051980376243591</v>
+        <v>-3.58345365524292</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.60166597366333</v>
+        <v>0.0615452267229557</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9894384145736694</v>
+        <v>-0.1656857132911682</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6690363883972168</v>
+        <v>-3.084669828414917</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.718729496002197</v>
+        <v>-0.5182740092277527</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.627543330192566</v>
+        <v>-0.01633763313293457</v>
       </c>
       <c r="D8" t="n">
-        <v>0.634699821472168</v>
+        <v>-5.085733413696289</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.972020626068115</v>
+        <v>0.03738096728920937</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.666899800300598</v>
+        <v>-0.1422660946846008</v>
       </c>
       <c r="D9" t="n">
-        <v>1.08428156375885</v>
+        <v>-4.616359710693359</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.669389009475708</v>
+        <v>0.1127248108386993</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9653829336166382</v>
+        <v>-0.211015522480011</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7096476554870605</v>
+        <v>-3.360513687133789</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8751102089881897</v>
+        <v>0.08447697758674622</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4288855791091919</v>
+        <v>-0.0555138885974884</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3060575425624847</v>
+        <v>-0.9434524774551392</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.86501407623291</v>
+        <v>0.286029726266861</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.695113897323608</v>
+        <v>-0.3709566593170166</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9197326302528381</v>
+        <v>-5.363916397094727</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.035319328308105</v>
+        <v>-0.09086605906486511</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.34605872631073</v>
+        <v>-0.2677450180053711</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7272581458091736</v>
+        <v>-4.952902317047119</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.916445016860962</v>
+        <v>-0.765030562877655</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.6603924036026</v>
+        <v>0.1839028000831604</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3151133060455322</v>
+        <v>-4.696749687194824</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.157559394836426</v>
+        <v>-0.75560462474823</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.67340350151062</v>
+        <v>0.02041393518447876</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2953630685806274</v>
+        <v>-4.671268939971924</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.497067213058472</v>
+        <v>-0.3132344782352448</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.023550033569336</v>
+        <v>0.1654061675071716</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2341038882732391</v>
+        <v>-4.437018871307373</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.227136731147766</v>
+        <v>-0.4089568257331848</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.9642746448516846</v>
+        <v>0.1903938949108124</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1840361952781677</v>
+        <v>-2.57120418548584</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.199048280715942</v>
+        <v>-0.2091160118579865</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.441532731056213</v>
+        <v>0.1280267834663391</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5790129899978638</v>
+        <v>-3.283175230026245</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.562757015228271</v>
+        <v>0.1404277384281158</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.10384738445282</v>
+        <v>-0.03523337841033936</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8319035768508911</v>
+        <v>-3.579197883605957</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.420496702194214</v>
+        <v>-0.2142588794231415</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.8481415510177612</v>
+        <v>0.07926720380783081</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4594559371471405</v>
+        <v>-2.211124658584595</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.629158020019531</v>
+        <v>-0.4469786584377289</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.550639986991882</v>
+        <v>-0.189027726650238</v>
       </c>
       <c r="D21" t="n">
-        <v>0.95917809009552</v>
+        <v>-5.189052581787109</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.292911767959595</v>
+        <v>-0.2599713504314423</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.725486695766449</v>
+        <v>0.04361075162887573</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4674216508865356</v>
+        <v>-2.211782932281494</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.73033332824707</v>
+        <v>-0.6371986865997314</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.095208883285522</v>
+        <v>-0.005058825016021729</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3006708323955536</v>
+        <v>-3.913235902786255</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.44861626625061</v>
+        <v>0.2172659933567047</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.108556032180786</v>
+        <v>-0.2834973931312561</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5412029027938843</v>
+        <v>-3.121309041976929</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.477837085723877</v>
+        <v>-0.06382599472999573</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.7962414026260376</v>
+        <v>0.07824021577835083</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6376161575317383</v>
+        <v>-2.68754768371582</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9780482053756714</v>
+        <v>-0.04910531267523766</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5527542233467102</v>
+        <v>0.02040082216262817</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4533272981643677</v>
+        <v>-1.739871978759766</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.865710437297821</v>
+        <v>-0.03632354363799095</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5912298560142517</v>
+        <v>-0.04071012139320374</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1655990481376648</v>
+        <v>-1.599766135215759</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.661207437515259</v>
+        <v>-0.2954599559307098</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.936079025268555</v>
+        <v>0.2352253794670105</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.4752657413482666</v>
+        <v>-4.15590763092041</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.489582538604736</v>
+        <v>0.2239144146442413</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.764032602310181</v>
+        <v>-0.07808607816696167</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5998325347900391</v>
+        <v>-3.574951410293579</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.116151332855225</v>
+        <v>0.2618503868579865</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.028785943984985</v>
+        <v>-0.08275312185287476</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7721279263496399</v>
+        <v>-4.742676734924316</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.811099767684937</v>
+        <v>0.2337706387042999</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.248526930809021</v>
+        <v>-0.1366456747055054</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4039008617401123</v>
+        <v>-2.515626668930054</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-3.476820945739746</v>
+        <v>0.03662494197487831</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.882032155990601</v>
+        <v>-0.04045009613037109</v>
       </c>
       <c r="D32" t="n">
-        <v>1.063780546188354</v>
+        <v>-4.84733772277832</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-2.744165897369385</v>
+        <v>-0.1388209760189056</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.55353057384491</v>
+        <v>-0.218877911567688</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9511117339134216</v>
+        <v>-4.710947036743164</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.785894632339478</v>
+        <v>0.02162018790841103</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.330507636070251</v>
+        <v>-0.1925274133682251</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5753269195556641</v>
+        <v>-4.636238098144531</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-2.88478946685791</v>
+        <v>-0.4516149461269379</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.930403709411621</v>
+        <v>-0.01268249750137329</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6921842098236084</v>
+        <v>-5.936220169067383</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.740719079971313</v>
+        <v>-0.2700540721416473</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.231962442398071</v>
+        <v>-0.05000591278076172</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3148456215858459</v>
+        <v>-3.836211204528809</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.953242301940918</v>
+        <v>-1.058932781219482</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.50975513458252</v>
+        <v>0.0743553638458252</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.8160054683685303</v>
+        <v>-5.884469985961914</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.537429809570312</v>
+        <v>-0.6868842840194702</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.079571485519409</v>
+        <v>-0.06365346908569336</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1994987428188324</v>
+        <v>-4.975320816040039</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.633410573005676</v>
+        <v>-0.8989517092704773</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.110432744026184</v>
+        <v>0.2225784361362457</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3151901364326477</v>
+        <v>-4.090617179870605</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-2.517033815383911</v>
+        <v>0.08989420533180237</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.989810109138489</v>
+        <v>-0.258980393409729</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4424411654472351</v>
+        <v>-5.517168998718262</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.33072566986084</v>
+        <v>-0.1571271121501923</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.388983845710754</v>
+        <v>-0.002223610877990723</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7275598049163818</v>
+        <v>-3.570472478866577</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.724255323410034</v>
+        <v>0.1992664635181427</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.133991003036499</v>
+        <v>-0.1451565027236938</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5586633086204529</v>
+        <v>-2.685659885406494</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.572872400283813</v>
+        <v>-0.02586987242102623</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.9443439841270447</v>
+        <v>-0.1940129697322845</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6703940629959106</v>
+        <v>-3.005272150039673</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.474213838577271</v>
+        <v>0.2093023955821991</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.9506542086601257</v>
+        <v>-0.2423893213272095</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5216251015663147</v>
+        <v>-3.42079758644104</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-3.513675689697266</v>
+        <v>-1.068918108940125</v>
       </c>
       <c r="C45" t="n">
-        <v>-2.589868307113647</v>
+        <v>-0.1411657333374023</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.142536997795105</v>
+        <v>-6.560128211975098</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-3.096107244491577</v>
+        <v>-0.5394671559333801</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.205322027206421</v>
+        <v>0.05333292484283447</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1263306885957718</v>
+        <v>-6.003796577453613</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-2.043461799621582</v>
+        <v>0.1270045340061188</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9592446684837341</v>
+        <v>-0.2576144933700562</v>
       </c>
       <c r="D47" t="n">
-        <v>1.006470203399658</v>
+        <v>-3.480656385421753</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.081346988677979</v>
+        <v>-0.2794167697429657</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.6932119727134705</v>
+        <v>0.1394231021404266</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1684562861919403</v>
+        <v>-1.654585957527161</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.805252194404602</v>
+        <v>-0.5678113102912903</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.085417509078979</v>
+        <v>0.09222030639648438</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5739706754684448</v>
+        <v>-3.600558042526245</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.522482872009277</v>
+        <v>-0.04358157142996788</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.8578829765319824</v>
+        <v>0.0267784595489502</v>
       </c>
       <c r="D50" t="n">
-        <v>0.63250732421875</v>
+        <v>-2.424520254135132</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.224458932876587</v>
+        <v>-0.03693970665335655</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.3358331024646759</v>
+        <v>0.03693294525146484</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5914118885993958</v>
+        <v>-1.870306253433228</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-2.531080722808838</v>
+        <v>-0.1925007998943329</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.109999060630798</v>
+        <v>-0.1402401924133301</v>
       </c>
       <c r="D52" t="n">
-        <v>1.197692513465881</v>
+        <v>-5.078629493713379</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.70111346244812</v>
+        <v>-0.3002924025058746</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.8171772956848145</v>
+        <v>0.06107747554779053</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6868780255317688</v>
+        <v>-2.831516981124878</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.027640581130981</v>
+        <v>-0.06990808248519897</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.6556283235549927</v>
+        <v>0.02421087026596069</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.006926447153091431</v>
+        <v>-1.696151852607727</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.074898481369019</v>
+        <v>-0.219415694475174</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.0256587266922</v>
+        <v>0.1496157050132751</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1520712673664093</v>
+        <v>-2.353640794754028</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-2.332391500473022</v>
+        <v>-0.1806665360927582</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.233590126037598</v>
+        <v>-0.02111852169036865</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9041849374771118</v>
+        <v>-3.46825122833252</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.896125555038452</v>
+        <v>-0.2971893846988678</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.148052096366882</v>
+        <v>-0.04962968826293945</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6540974378585815</v>
+        <v>-3.659562349319458</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-2.749742031097412</v>
+        <v>-0.3326402604579926</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.909145832061768</v>
+        <v>-0.2762823700904846</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5487077236175537</v>
+        <v>-5.332400321960449</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-3.216521263122559</v>
+        <v>0.04223350062966347</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.868356943130493</v>
+        <v>-0.02241814136505127</v>
       </c>
       <c r="D59" t="n">
-        <v>1.09395956993103</v>
+        <v>-4.647806167602539</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.271553874015808</v>
+        <v>-0.3650648295879364</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.023097634315491</v>
+        <v>0.1383993923664093</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.09011924266815186</v>
+        <v>-2.588952302932739</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.854022264480591</v>
+        <v>-0.1269862353801727</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.9818291068077087</v>
+        <v>-0.09272336959838867</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.002484768629074097</v>
+        <v>-3.278199434280396</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.570131301879883</v>
+        <v>-0.07130095362663269</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.9613980054855347</v>
+        <v>0.01010555028915405</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6228638887405396</v>
+        <v>-2.985939025878906</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.533162355422974</v>
+        <v>-0.09709915518760681</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.809054434299469</v>
+        <v>-0.05517077445983887</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6169095039367676</v>
+        <v>-3.075266599655151</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.492177724838257</v>
+        <v>-0.2010607421398163</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.179372906684875</v>
+        <v>0.03238964080810547</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2622079253196716</v>
+        <v>-3.721452474594116</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.869729995727539</v>
+        <v>0.0962512195110321</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.203631997108459</v>
+        <v>-0.08020687103271484</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5647482872009277</v>
+        <v>-3.582961320877075</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-2.023693561553955</v>
+        <v>0.1300457417964935</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.315194368362427</v>
+        <v>-0.07299768924713135</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8168777227401733</v>
+        <v>-3.923299312591553</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.086083650588989</v>
+        <v>-0.3253943026065826</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.245311737060547</v>
+        <v>0.1357443928718567</v>
       </c>
       <c r="D67" t="n">
-        <v>0.476897120475769</v>
+        <v>-3.096182107925415</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.17446756362915</v>
+        <v>-0.392507016658783</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.8187053799629211</v>
+        <v>0.08413708209991455</v>
       </c>
       <c r="D68" t="n">
-        <v>0.05424366891384125</v>
+        <v>-2.455860376358032</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.057176828384399</v>
+        <v>-0.3367399275302887</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.8065661191940308</v>
+        <v>0.2060429751873016</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02556407451629639</v>
+        <v>-1.971940159797668</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.593692779541016</v>
+        <v>-0.07248911261558533</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.5864670276641846</v>
+        <v>-0.03772926330566406</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5094603300094604</v>
+        <v>-2.414363145828247</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-2.210823059082031</v>
+        <v>-0.5267211198806763</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.431500673294067</v>
+        <v>-0.1984698474407196</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.1550350189208984</v>
+        <v>-4.404409408569336</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.8703344464302063</v>
+        <v>-0.07412776350975037</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.3389046192169189</v>
+        <v>0.05825307965278625</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.114031195640564</v>
+        <v>-1.26991856098175</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.641482591629028</v>
+        <v>-0.2514924108982086</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.989068865776062</v>
+        <v>-0.0336993932723999</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.2194907665252686</v>
+        <v>-3.608977556228638</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.357763767242432</v>
+        <v>0.003830347210168839</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.8862355351448059</v>
+        <v>0.02538132667541504</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5523613095283508</v>
+        <v>-2.424366235733032</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.681120872497559</v>
+        <v>-0.05677345022559166</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.10358190536499</v>
+        <v>-0.0572468638420105</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3639380931854248</v>
+        <v>-3.021335363388062</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.179394125938416</v>
+        <v>-0.08807113766670227</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.7792580127716064</v>
+        <v>0.09626543521881104</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3986021876335144</v>
+        <v>-2.124000787734985</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.384347438812256</v>
+        <v>0.01010266318917274</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.8244482278823853</v>
+        <v>0.007269382476806641</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5325134992599487</v>
+        <v>-2.353032827377319</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.508915305137634</v>
+        <v>-0.01461848244071007</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.087208867073059</v>
+        <v>0.008266150951385498</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4524937272071838</v>
+        <v>-2.277016878128052</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.998820185661316</v>
+        <v>-0.1777589619159698</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.372970938682556</v>
+        <v>0.1536021828651428</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.07929006218910217</v>
+        <v>-3.213618993759155</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.758381128311157</v>
+        <v>0.004056725651025772</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.047200322151184</v>
+        <v>-0.1251798868179321</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4142359793186188</v>
+        <v>-3.477367401123047</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.643796920776367</v>
+        <v>0.03053227439522743</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.26347553730011</v>
+        <v>-0.1955055594444275</v>
       </c>
       <c r="D81" t="n">
-        <v>1.052068591117859</v>
+        <v>-4.331315040588379</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.023913502693176</v>
+        <v>-0.06162726506590843</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.8980068564414978</v>
+        <v>0.01059189438819885</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.09786707162857056</v>
+        <v>-2.242762327194214</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.200807094573975</v>
+        <v>-0.5426538586616516</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.043002128601074</v>
+        <v>0.2040426433086395</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.4225118160247803</v>
+        <v>-1.992425799369812</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.8826591372489929</v>
+        <v>-0.1907915771007538</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.7350221872329712</v>
+        <v>0.04020416736602783</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1106270253658295</v>
+        <v>-1.987478852272034</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.910371780395508</v>
+        <v>-0.07795968651771545</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.431700587272644</v>
+        <v>-0.04407942295074463</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3252499401569366</v>
+        <v>-3.268393754959106</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.792694568634033</v>
+        <v>0.07086673378944397</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.640855193138123</v>
+        <v>-0.1265423893928528</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9425048828125</v>
+        <v>-4.52663516998291</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-2.777731418609619</v>
+        <v>-0.05324121937155724</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.528249979019165</v>
+        <v>0.01796942949295044</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8836641907691956</v>
+        <v>-3.792425394058228</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.3867478668689728</v>
+        <v>0.01484722271561623</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.3340469002723694</v>
+        <v>-0.0338570773601532</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0911436527967453</v>
+        <v>-0.7727289199829102</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.484509229660034</v>
+        <v>-0.4028121531009674</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.061556220054626</v>
+        <v>0.09086865186691284</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1979959905147552</v>
+        <v>-2.700608491897583</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.525387048721313</v>
+        <v>-0.3263952434062958</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.8780297636985779</v>
+        <v>0.1365922689437866</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4847106039524078</v>
+        <v>-2.568578243255615</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-2.595172882080078</v>
+        <v>0.1399478018283844</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.67598569393158</v>
+        <v>-0.04341495037078857</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7762875556945801</v>
+        <v>-4.405823707580566</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.516191482543945</v>
+        <v>-0.07094135880470276</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.032954096794128</v>
+        <v>0.02243947982788086</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5318348407745361</v>
+        <v>-2.650449991226196</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.048415184020996</v>
+        <v>-0.4240899980068207</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.124362707138062</v>
+        <v>-0.249310314655304</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7752225995063782</v>
+        <v>-4.323869705200195</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.754698991775513</v>
+        <v>-0.2013718783855438</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.061301589012146</v>
+        <v>-0.0308348536491394</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5719443559646606</v>
+        <v>-4.004025936126709</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.611799836158752</v>
+        <v>-0.4419548213481903</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.237413644790649</v>
+        <v>0.1596140265464783</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2035326659679413</v>
+        <v>-3.507420301437378</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.912076473236084</v>
+        <v>-0.05634387955069542</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.336845874786377</v>
+        <v>-0.1018444895744324</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3944783806800842</v>
+        <v>-3.917211055755615</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.551888823509216</v>
+        <v>-0.1274149715900421</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.9804078936576843</v>
+        <v>0.05026650428771973</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2387467622756958</v>
+        <v>-2.943711042404175</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.553195118904114</v>
+        <v>0.08810785412788391</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.7448886036872864</v>
+        <v>-0.05965536832809448</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5191167593002319</v>
+        <v>-2.472199678421021</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.441719055175781</v>
+        <v>-0.0867515504360199</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.682485103607178</v>
+        <v>-0.1240454912185669</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5235353708267212</v>
+        <v>-4.237677097320557</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-3.67599630355835</v>
+        <v>0.4046377241611481</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.858904600143433</v>
+        <v>-0.5157105326652527</v>
       </c>
       <c r="D100" t="n">
-        <v>1.3217853307724</v>
+        <v>-6.411406993865967</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.647499322891235</v>
+        <v>0.2329499423503876</v>
       </c>
       <c r="C101" t="n">
-        <v>-1.119729995727539</v>
+        <v>-0.3237007856369019</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4724205732345581</v>
+        <v>-3.712086915969849</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.945858001708984</v>
+        <v>-0.0350782535970211</v>
       </c>
       <c r="C102" t="n">
-        <v>-1.213706970214844</v>
+        <v>0.1001273393630981</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4555844068527222</v>
+        <v>-3.364759683609009</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.940317869186401</v>
+        <v>-0.2726209461688995</v>
       </c>
       <c r="C103" t="n">
-        <v>-1.043501496315002</v>
+        <v>0.04080712795257568</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3846516013145447</v>
+        <v>-3.076893091201782</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.916478395462036</v>
+        <v>-0.220986396074295</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.140659213066101</v>
+        <v>0.1398469209671021</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.07316288352012634</v>
+        <v>-3.191926240921021</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.120641946792603</v>
+        <v>-0.3855349719524384</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.7561432123184204</v>
+        <v>0.2501560151576996</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.08944255113601685</v>
+        <v>-1.80851936340332</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.8278234601020813</v>
+        <v>-0.1549398303031921</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.6920053958892822</v>
+        <v>0.1711778044700623</v>
       </c>
       <c r="D106" t="n">
-        <v>0.09020313620567322</v>
+        <v>-1.321325421333313</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.544832348823547</v>
+        <v>0.0488608218729496</v>
       </c>
       <c r="C107" t="n">
-        <v>-1.072477698326111</v>
+        <v>-0.07646530866622925</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6054946780204773</v>
+        <v>-2.938894510269165</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.334461450576782</v>
+        <v>0.01037392392754555</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.9899070262908936</v>
+        <v>0.006519019603729248</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2308101505041122</v>
+        <v>-2.189046144485474</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.097086906433105</v>
+        <v>0.1365878283977509</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.9456469416618347</v>
+        <v>-0.1333701610565186</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.03086115419864655</v>
+        <v>-2.479880571365356</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.401352882385254</v>
+        <v>-0.2902005612850189</v>
       </c>
       <c r="C110" t="n">
-        <v>-1.128410339355469</v>
+        <v>0.02815991640090942</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.3340107202529907</v>
+        <v>-3.282427072525024</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.601651668548584</v>
+        <v>-0.03052368387579918</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.181756019592285</v>
+        <v>-0.1218280792236328</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1161643043160439</v>
+        <v>-3.709019899368286</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-2.587254047393799</v>
+        <v>-0.09593877196311951</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.854734897613525</v>
+        <v>-0.05647158622741699</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2011432200670242</v>
+        <v>-4.845813274383545</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-2.073499202728271</v>
+        <v>-0.1343422830104828</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.381690859794617</v>
+        <v>-0.07439440488815308</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5260517001152039</v>
+        <v>-3.7645103931427</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.750942945480347</v>
+        <v>0.1678946912288666</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.217038750648499</v>
+        <v>-0.2701874971389771</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5034356117248535</v>
+        <v>-3.916503429412842</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-2.411304473876953</v>
+        <v>0.06567874550819397</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.713815927505493</v>
+        <v>-0.09809595346450806</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3136737048625946</v>
+        <v>-4.630632400512695</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.440698146820068</v>
+        <v>-0.3558417856693268</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.116951584815979</v>
+        <v>-0.00588911771774292</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2610400021076202</v>
+        <v>-3.676104784011841</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-2.656491994857788</v>
+        <v>0.1981097757816315</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.536158680915833</v>
+        <v>-0.1965164542198181</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6592705249786377</v>
+        <v>-4.355348110198975</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.260512948036194</v>
+        <v>-0.2758906185626984</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.8306128978729248</v>
+        <v>0.1038134694099426</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4513051807880402</v>
+        <v>-2.420218229293823</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.595337867736816</v>
+        <v>-0.03395130857825279</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.164314270019531</v>
+        <v>-0.07898843288421631</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4585408270359039</v>
+        <v>-3.181222915649414</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.9020386338233948</v>
+        <v>0.0271604098379612</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.5043734908103943</v>
+        <v>-0.05543527007102966</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2273384481668472</v>
+        <v>-1.307695627212524</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.541716456413269</v>
+        <v>-0.2098477780818939</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.094342947006226</v>
+        <v>-0.03008699417114258</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1146522909402847</v>
+        <v>-2.858081579208374</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-2.08314037322998</v>
+        <v>0.171075850725174</v>
       </c>
       <c r="C122" t="n">
-        <v>-1.320955753326416</v>
+        <v>-0.2277237772941589</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7850680351257324</v>
+        <v>-4.460421085357666</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-2.476208925247192</v>
+        <v>-0.06772848963737488</v>
       </c>
       <c r="C123" t="n">
-        <v>-1.435775756835938</v>
+        <v>0.05336511135101318</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7942866086959839</v>
+        <v>-4.463766098022461</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.896965742111206</v>
+        <v>0.09170427918434143</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.9459578394889832</v>
+        <v>-0.01194930076599121</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8223673105239868</v>
+        <v>-2.865577459335327</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-2.343953132629395</v>
+        <v>0.1055505573749542</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.645140290260315</v>
+        <v>-0.1805420517921448</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6687710285186768</v>
+        <v>-4.203215599060059</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.170883893966675</v>
+        <v>-0.06868413090705872</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.6093835234642029</v>
+        <v>0.01076346635818481</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3039620816707611</v>
+        <v>-1.855071663856506</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.47682785987854</v>
+        <v>-0.1598242223262787</v>
       </c>
       <c r="C127" t="n">
-        <v>-1.067286372184753</v>
+        <v>-0.09841540455818176</v>
       </c>
       <c r="D127" t="n">
-        <v>0.618910551071167</v>
+        <v>-3.12506890296936</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-2.109649181365967</v>
+        <v>-0.1278441846370697</v>
       </c>
       <c r="C128" t="n">
-        <v>-1.562346696853638</v>
+        <v>-0.08388131856918335</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6589395999908447</v>
+        <v>-5.016129970550537</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.68635106086731</v>
+        <v>-0.3538098633289337</v>
       </c>
       <c r="C129" t="n">
-        <v>-1.383282065391541</v>
+        <v>-0.06875139474868774</v>
       </c>
       <c r="D129" t="n">
-        <v>0.164426252245903</v>
+        <v>-4.209624290466309</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.652491569519043</v>
+        <v>-0.5794125199317932</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.1014244556427</v>
+        <v>0.1712428629398346</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.0809815526008606</v>
+        <v>-3.537618398666382</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.819768786430359</v>
+        <v>-0.03893598541617393</v>
       </c>
       <c r="C131" t="n">
-        <v>-1.321875929832458</v>
+        <v>-0.1407591700553894</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5189820528030396</v>
+        <v>-4.360808849334717</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.428773641586304</v>
+        <v>-0.6908580660820007</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.9165457487106323</v>
+        <v>0.381615549325943</v>
       </c>
       <c r="D132" t="n">
-        <v>0.05480977892875671</v>
+        <v>-2.472606897354126</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.840024948120117</v>
+        <v>-0.2831048667430878</v>
       </c>
       <c r="C133" t="n">
-        <v>-1.174669504165649</v>
+        <v>0.2129035592079163</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6368247866630554</v>
+        <v>-3.908050537109375</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-3.236120223999023</v>
+        <v>-0.2384551465511322</v>
       </c>
       <c r="C134" t="n">
-        <v>-2.4773268699646</v>
+        <v>-0.07421761751174927</v>
       </c>
       <c r="D134" t="n">
-        <v>0.04217875003814697</v>
+        <v>-6.950398445129395</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-3.526370525360107</v>
+        <v>-0.05873569473624229</v>
       </c>
       <c r="C135" t="n">
-        <v>-2.529469728469849</v>
+        <v>-0.1098934412002563</v>
       </c>
       <c r="D135" t="n">
-        <v>0.464834451675415</v>
+        <v>-6.689229011535645</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.404692649841309</v>
+        <v>-0.3978809416294098</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.917921245098114</v>
+        <v>0.1009332239627838</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07753542065620422</v>
+        <v>-2.938953876495361</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.209362983703613</v>
+        <v>-0.2069772183895111</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.6709482669830322</v>
+        <v>0.07943826913833618</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4466667175292969</v>
+        <v>-1.816484808921814</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.458202362060547</v>
+        <v>0.03823784366250038</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.8621646761894226</v>
+        <v>-0.1822967231273651</v>
       </c>
       <c r="D138" t="n">
-        <v>0.436461329460144</v>
+        <v>-3.209915161132812</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-2.380415201187134</v>
+        <v>-0.1269578039646149</v>
       </c>
       <c r="C139" t="n">
-        <v>-1.714741706848145</v>
+        <v>-0.002024829387664795</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1287712752819061</v>
+        <v>-4.577228546142578</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.451704382896423</v>
+        <v>-0.04206916317343712</v>
       </c>
       <c r="C140" t="n">
-        <v>-1.015128612518311</v>
+        <v>0.09548872709274292</v>
       </c>
       <c r="D140" t="n">
-        <v>0.358252078294754</v>
+        <v>-2.902183055877686</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.82767915725708</v>
+        <v>-0.3317308723926544</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.301098942756653</v>
+        <v>0.05424904823303223</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5446665287017822</v>
+        <v>-4.077137470245361</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.816386938095093</v>
+        <v>0.1578696668148041</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.6850095987319946</v>
+        <v>-0.1265626549720764</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7910318970680237</v>
+        <v>-2.763090372085571</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.906988859176636</v>
+        <v>-0.03128721937537193</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.7893752455711365</v>
+        <v>-0.03885173797607422</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9774382710456848</v>
+        <v>-3.011543035507202</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-1.472829580307007</v>
+        <v>0.05865493789315224</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.105738282203674</v>
+        <v>-0.04010003805160522</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6205546855926514</v>
+        <v>-2.702218770980835</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-2.566357612609863</v>
+        <v>-0.08234319090843201</v>
       </c>
       <c r="C145" t="n">
-        <v>-2.136343240737915</v>
+        <v>-0.01274400949478149</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3060380220413208</v>
+        <v>-5.304802894592285</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.670390605926514</v>
+        <v>-0.01862766966223717</v>
       </c>
       <c r="C146" t="n">
-        <v>-1.265471816062927</v>
+        <v>-0.08475750684738159</v>
       </c>
       <c r="D146" t="n">
-        <v>0.549518883228302</v>
+        <v>-3.543061017990112</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.315876483917236</v>
+        <v>-0.08355507254600525</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.517619788646698</v>
+        <v>0.04807794094085693</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5259387493133545</v>
+        <v>-1.948656678199768</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-2.052435398101807</v>
+        <v>-0.3472473323345184</v>
       </c>
       <c r="C148" t="n">
-        <v>-1.386813521385193</v>
+        <v>-0.08884775638580322</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3917461037635803</v>
+        <v>-4.237666130065918</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.016969680786133</v>
+        <v>0.08222278952598572</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.6681386232376099</v>
+        <v>-0.2640109956264496</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.372954249382019</v>
+        <v>-2.267846345901489</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.55588710308075</v>
+        <v>0.075723797082901</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.104075908660889</v>
+        <v>-0.1914948523044586</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.2716974020004272</v>
+        <v>-2.844655752182007</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-2.268099546432495</v>
+        <v>0.001063618808984756</v>
       </c>
       <c r="C151" t="n">
-        <v>-1.469370603561401</v>
+        <v>-0.1717556715011597</v>
       </c>
       <c r="D151" t="n">
-        <v>0.7927669286727905</v>
+        <v>-4.896737098693848</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.615060567855835</v>
+        <v>-0.001590874046087265</v>
       </c>
       <c r="C152" t="n">
-        <v>-1.040890455245972</v>
+        <v>-0.279800683259964</v>
       </c>
       <c r="D152" t="n">
-        <v>0.260546088218689</v>
+        <v>-3.877028703689575</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.599120378494263</v>
+        <v>-0.1623250544071198</v>
       </c>
       <c r="C153" t="n">
-        <v>-1.091614007949829</v>
+        <v>-0.1739616990089417</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5659158229827881</v>
+        <v>-4.547937870025635</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-2.013482093811035</v>
+        <v>0.3785131275653839</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.241204977035522</v>
+        <v>-0.2643060088157654</v>
       </c>
       <c r="D154" t="n">
-        <v>0.7534801959991455</v>
+        <v>-4.02726936340332</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.566369414329529</v>
+        <v>0.0464683510363102</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.123177289962769</v>
+        <v>-0.1297822594642639</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.09804177284240723</v>
+        <v>-2.822194814682007</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.632011413574219</v>
+        <v>0.04420569911599159</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.315888404846191</v>
+        <v>-0.1061139702796936</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.0008396357297897339</v>
+        <v>-3.714642763137817</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-2.5401930809021</v>
+        <v>0.07887068390846252</v>
       </c>
       <c r="C157" t="n">
-        <v>-1.89881706237793</v>
+        <v>0.007387757301330566</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1285887956619263</v>
+        <v>-3.848968267440796</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-2.161653757095337</v>
+        <v>-0.08463868498802185</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.590158462524414</v>
+        <v>0.02050876617431641</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4118444919586182</v>
+        <v>-3.746254444122314</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.781123161315918</v>
+        <v>-0.08013197779655457</v>
       </c>
       <c r="C159" t="n">
-        <v>-1.151342153549194</v>
+        <v>0.0005944967269897461</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5731712579727173</v>
+        <v>-2.749660730361938</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.587769508361816</v>
+        <v>-0.4375617802143097</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.295775413513184</v>
+        <v>0.1305732727050781</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.00912138819694519</v>
+        <v>-3.684336423873901</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-3.284740924835205</v>
+        <v>-0.2018625438213348</v>
       </c>
       <c r="C161" t="n">
-        <v>-2.201996326446533</v>
+        <v>-0.08882755041122437</v>
       </c>
       <c r="D161" t="n">
-        <v>0.885153591632843</v>
+        <v>-6.230470657348633</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-3.538365364074707</v>
+        <v>-0.7291304469108582</v>
       </c>
       <c r="C162" t="n">
-        <v>-2.701508045196533</v>
+        <v>-0.05026006698608398</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3368033170700073</v>
+        <v>-6.679211616516113</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.201713442802429</v>
+        <v>-0.1680600643157959</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.6899287104606628</v>
+        <v>0.0690729022026062</v>
       </c>
       <c r="D163" t="n">
-        <v>0.326879620552063</v>
+        <v>-2.36053991317749</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-1.34862208366394</v>
+        <v>-0.2413739860057831</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.8086609840393066</v>
+        <v>-0.03818821907043457</v>
       </c>
       <c r="D164" t="n">
-        <v>0.413075864315033</v>
+        <v>-2.928095102310181</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.678055047988892</v>
+        <v>0.2192437350749969</v>
       </c>
       <c r="C165" t="n">
-        <v>-1.003344178199768</v>
+        <v>-0.171297013759613</v>
       </c>
       <c r="D165" t="n">
-        <v>0.762576162815094</v>
+        <v>-3.323823690414429</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.479123592376709</v>
+        <v>-0.01507117971777916</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.644166111946106</v>
+        <v>0.03235548734664917</v>
       </c>
       <c r="D166" t="n">
-        <v>0.2735299468040466</v>
+        <v>-2.28519868850708</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.6526709198951721</v>
+        <v>0.007969770580530167</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.4706276953220367</v>
+        <v>0.01032760739326477</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1179856061935425</v>
+        <v>-0.9507709741592407</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.554114818572998</v>
+        <v>0.04983309283852577</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.5118283629417419</v>
+        <v>0.002844274044036865</v>
       </c>
       <c r="D168" t="n">
-        <v>0.924557626247406</v>
+        <v>-2.385753870010376</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.380051851272583</v>
+        <v>0.08484223484992981</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.4976618885993958</v>
+        <v>-0.03409391641616821</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6765640377998352</v>
+        <v>-2.342034101486206</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.753703117370605</v>
+        <v>0.1504428684711456</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.279175400733948</v>
+        <v>-0.2593804001808167</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3991540372371674</v>
+        <v>-3.902338266372681</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.515479445457458</v>
+        <v>-0.2211873829364777</v>
       </c>
       <c r="C171" t="n">
-        <v>-1.019497036933899</v>
+        <v>0.1354881525039673</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5655601024627686</v>
+        <v>-2.585037231445312</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-2.03080153465271</v>
+        <v>-0.08638939261436462</v>
       </c>
       <c r="C172" t="n">
-        <v>-1.525528430938721</v>
+        <v>0.04650115966796875</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4436425566673279</v>
+        <v>-3.680665969848633</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-2.329580783843994</v>
+        <v>-0.4895974695682526</v>
       </c>
       <c r="C173" t="n">
-        <v>-1.596130132675171</v>
+        <v>0.2050193548202515</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1895517706871033</v>
+        <v>-4.30463981628418</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.225893259048462</v>
+        <v>0.04502049461007118</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.6608015298843384</v>
+        <v>-0.06334948539733887</v>
       </c>
       <c r="D174" t="n">
-        <v>0.5224673748016357</v>
+        <v>-1.99266529083252</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.257629752159119</v>
+        <v>-0.2497068345546722</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.5593982338905334</v>
+        <v>0.1175251007080078</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3901001214981079</v>
+        <v>-1.671831369400024</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.399925947189331</v>
+        <v>-0.1842729151248932</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.6406597495079041</v>
+        <v>0.05350089073181152</v>
       </c>
       <c r="D176" t="n">
-        <v>0.5184929966926575</v>
+        <v>-2.254603385925293</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.847120523452759</v>
+        <v>-0.2498541176319122</v>
       </c>
       <c r="C177" t="n">
-        <v>-1.342204332351685</v>
+        <v>0.157444179058075</v>
       </c>
       <c r="D177" t="n">
-        <v>0.3452823162078857</v>
+        <v>-3.481229543685913</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.614184617996216</v>
+        <v>-0.1301818788051605</v>
       </c>
       <c r="C178" t="n">
-        <v>-1.352311015129089</v>
+        <v>-0.03772091865539551</v>
       </c>
       <c r="D178" t="n">
-        <v>0.2680960297584534</v>
+        <v>-3.948561191558838</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.175843834877014</v>
+        <v>-0.6464353203773499</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.8583229184150696</v>
+        <v>0.2127731740474701</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.07555010914802551</v>
+        <v>-2.648417234420776</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.238847017288208</v>
+        <v>0.1781712472438812</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.6576070189476013</v>
+        <v>-0.2085354030132294</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1963788121938705</v>
+        <v>-2.705785512924194</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.633187890052795</v>
+        <v>-0.3102445900440216</v>
       </c>
       <c r="C181" t="n">
-        <v>-1.16090714931488</v>
+        <v>0.02623170614242554</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.07326796650886536</v>
+        <v>-3.832196474075317</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-2.488815307617188</v>
+        <v>-0.2760898172855377</v>
       </c>
       <c r="C182" t="n">
-        <v>-1.742630243301392</v>
+        <v>0.03896397352218628</v>
       </c>
       <c r="D182" t="n">
-        <v>0.09869493544101715</v>
+        <v>-4.379920482635498</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-2.436838626861572</v>
+        <v>0.1977426111698151</v>
       </c>
       <c r="C183" t="n">
-        <v>-1.155372738838196</v>
+        <v>-0.1102340221405029</v>
       </c>
       <c r="D183" t="n">
-        <v>1.054150819778442</v>
+        <v>-3.663015604019165</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.237089395523071</v>
+        <v>-0.2159838378429413</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.8538495302200317</v>
+        <v>0.119586169719696</v>
       </c>
       <c r="D184" t="n">
-        <v>0.345799446105957</v>
+        <v>-1.910444855690002</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.469792604446411</v>
+        <v>-0.0683264434337616</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.967320442199707</v>
+        <v>-0.1145960092544556</v>
       </c>
       <c r="D185" t="n">
-        <v>0.4930962324142456</v>
+        <v>-3.299444675445557</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-2.60064435005188</v>
+        <v>0.064410001039505</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.823230743408203</v>
+        <v>-0.003839552402496338</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5154752135276794</v>
+        <v>-4.540043830871582</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.673437595367432</v>
+        <v>-0.3716726005077362</v>
       </c>
       <c r="C187" t="n">
-        <v>-1.025225639343262</v>
+        <v>0.2114468812942505</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4065649509429932</v>
+        <v>-2.362711906433105</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-2.110857009887695</v>
+        <v>-0.8328693509101868</v>
       </c>
       <c r="C188" t="n">
-        <v>-1.282184958457947</v>
+        <v>0.0875968337059021</v>
       </c>
       <c r="D188" t="n">
-        <v>0.2643693089485168</v>
+        <v>-4.216533660888672</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-1.334027886390686</v>
+        <v>0.0218721367418766</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.7095963358879089</v>
+        <v>-0.0607764720916748</v>
       </c>
       <c r="D189" t="n">
-        <v>0.5914802551269531</v>
+        <v>-2.36704421043396</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.378852367401123</v>
+        <v>0.09762075543403625</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.9086517095565796</v>
+        <v>-0.0602375864982605</v>
       </c>
       <c r="D190" t="n">
-        <v>0.6277058124542236</v>
+        <v>-2.572585105895996</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-2.953916549682617</v>
+        <v>0.2327392399311066</v>
       </c>
       <c r="C191" t="n">
-        <v>-2.147215604782104</v>
+        <v>-0.1195692420005798</v>
       </c>
       <c r="D191" t="n">
-        <v>0.524016261100769</v>
+        <v>-5.604331970214844</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.450685143470764</v>
+        <v>0.08171460032463074</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.5809227228164673</v>
+        <v>-0.04134827852249146</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5799099206924438</v>
+        <v>-2.382864236831665</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-2.872026443481445</v>
+        <v>0.3845577538013458</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.791334748268127</v>
+        <v>-0.3781793713569641</v>
       </c>
       <c r="D193" t="n">
-        <v>0.7426581978797913</v>
+        <v>-5.117966651916504</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.124441146850586</v>
+        <v>0.1287458837032318</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.6961477994918823</v>
+        <v>0.02349019050598145</v>
       </c>
       <c r="D194" t="n">
-        <v>0.03594435751438141</v>
+        <v>-2.298718929290771</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.041995525360107</v>
+        <v>0.1405420005321503</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.6579622626304626</v>
+        <v>-0.0324893593788147</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2949108183383942</v>
+        <v>-2.137506008148193</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.537652254104614</v>
+        <v>-0.2548078000545502</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.9165646433830261</v>
+        <v>-0.1215224862098694</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0597260594367981</v>
+        <v>-3.568557977676392</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-2.403581142425537</v>
+        <v>0.1456058323383331</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.512053370475769</v>
+        <v>-0.1723159551620483</v>
       </c>
       <c r="D197" t="n">
-        <v>0.7397149205207825</v>
+        <v>-4.360818862915039</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-2.550097465515137</v>
+        <v>0.09704616665840149</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.379492878913879</v>
+        <v>-0.4303016066551208</v>
       </c>
       <c r="D198" t="n">
-        <v>0.8009852766990662</v>
+        <v>-4.261878490447998</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.871162474155426</v>
+        <v>-0.09338971972465515</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.5614213347434998</v>
+        <v>0.05111604928970337</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.02293439209461212</v>
+        <v>-1.25922155380249</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.9689696431159973</v>
+        <v>-0.5920623540878296</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.6456362009048462</v>
+        <v>0.2511878907680511</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.1014299392700195</v>
+        <v>-1.316962718963623</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.114711046218872</v>
+        <v>-0.09362509846687317</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.5502212047576904</v>
+        <v>-0.001746475696563721</v>
       </c>
       <c r="D201" t="n">
-        <v>0.3033757507801056</v>
+        <v>-1.571229457855225</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-2.780378818511963</v>
+        <v>-0.1093243062496185</v>
       </c>
       <c r="C202" t="n">
-        <v>-1.792574644088745</v>
+        <v>-0.2680588364601135</v>
       </c>
       <c r="D202" t="n">
-        <v>0.7139579057693481</v>
+        <v>-4.978247165679932</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-2.538674831390381</v>
+        <v>-0.1899677813053131</v>
       </c>
       <c r="C203" t="n">
-        <v>-1.6723952293396</v>
+        <v>-0.00026702880859375</v>
       </c>
       <c r="D203" t="n">
-        <v>0.246931403875351</v>
+        <v>-4.032134532928467</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.166816115379333</v>
+        <v>-0.04553341493010521</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.4349817633628845</v>
+        <v>-0.01941132545471191</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5170388221740723</v>
+        <v>-1.736804723739624</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-3.169987201690674</v>
+        <v>0.06043115630745888</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.662856817245483</v>
+        <v>-0.05491882562637329</v>
       </c>
       <c r="D205" t="n">
-        <v>1.186854124069214</v>
+        <v>-4.342624187469482</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-3.317685127258301</v>
+        <v>0.007715258747339249</v>
       </c>
       <c r="C206" t="n">
-        <v>-2.035383701324463</v>
+        <v>-0.2875722646713257</v>
       </c>
       <c r="D206" t="n">
-        <v>1.114414930343628</v>
+        <v>-5.884291172027588</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-1.801587104797363</v>
+        <v>-0.332273930311203</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.8795191049575806</v>
+        <v>0.03798139095306396</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5740916728973389</v>
+        <v>-3.834752798080444</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.012488842010498</v>
+        <v>-0.07827338576316833</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.7839235663414001</v>
+        <v>-0.07472500205039978</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.1181335151195526</v>
+        <v>-2.437479019165039</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.095587015151978</v>
+        <v>-0.1022636294364929</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.7823256850242615</v>
+        <v>-0.1237877607345581</v>
       </c>
       <c r="D209" t="n">
-        <v>0.1475668698549271</v>
+        <v>-2.62227988243103</v>
       </c>
     </row>
   </sheetData>
